--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387">
   <si>
     <t xml:space="preserve">         Date
          Day
@@ -1100,13 +1100,101 @@
     <t>task</t>
   </si>
   <si>
-    <t>achivement</t>
+    <t>achievement</t>
   </si>
   <si>
     <t>completeness</t>
   </si>
   <si>
     <t>improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boxing </t>
+  </si>
+  <si>
+    <t>if it's not good do something to makeup it</t>
+  </si>
+  <si>
+    <t>next week if it's bad do it at 1st floor</t>
+  </si>
+  <si>
+    <t>started new book</t>
+  </si>
+  <si>
+    <t>recite the content</t>
+  </si>
+  <si>
+    <t>read smart stories</t>
+  </si>
+  <si>
+    <t>dust house</t>
+  </si>
+  <si>
+    <t>do it more regularly</t>
+  </si>
+  <si>
+    <t>check at the boxes</t>
+  </si>
+  <si>
+    <t>don't get frustrated?</t>
+  </si>
+  <si>
+    <t>jump over 200 in 1m:30s</t>
+  </si>
+  <si>
+    <t>do 1 chapter?</t>
+  </si>
+  <si>
+    <t>do shuzhen on both books</t>
+  </si>
+  <si>
+    <t>don't froget it</t>
+  </si>
+  <si>
+    <t>finish no.61</t>
+  </si>
+  <si>
+    <t>completed the boys'book of adventure</t>
+  </si>
+  <si>
+    <t>read more</t>
+  </si>
+  <si>
+    <t>finish paddington bear+1 story from o'henry and read dominique maceau(bedtime merchant of venice</t>
+  </si>
+  <si>
+    <t>improve running skill</t>
+  </si>
+  <si>
+    <t>tae kwon do</t>
+  </si>
+  <si>
+    <t>taeguek 2 jang</t>
+  </si>
+  <si>
+    <t>don't lost book</t>
+  </si>
+  <si>
+    <t>write neatly</t>
+  </si>
+  <si>
+    <t>finished understanding graph basics</t>
+  </si>
+  <si>
+    <t>pydev</t>
+  </si>
+  <si>
+    <t>finish at least the whole reconnecting the docts and do 3 quizes on both websites</t>
+  </si>
+  <si>
+    <t>code improved</t>
+  </si>
+  <si>
+    <t>the robot is too loose,get it tight</t>
+  </si>
+  <si>
+    <t>try to find something to do,finish things ahead of time(like autonomous code)
+start building my own robot</t>
   </si>
 </sst>
 </file>
@@ -3024,8 +3112,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
@@ -4590,144 +4682,144 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:8">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="355" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="354">
+      <c r="B1" s="356">
         <v>42576</v>
       </c>
-      <c r="C1" s="354">
+      <c r="C1" s="356">
         <f t="shared" ref="C1:H1" si="0">B1+1</f>
         <v>42577</v>
       </c>
-      <c r="D1" s="354">
+      <c r="D1" s="356">
         <f t="shared" si="0"/>
         <v>42578</v>
       </c>
-      <c r="E1" s="354">
+      <c r="E1" s="356">
         <f t="shared" si="0"/>
         <v>42579</v>
       </c>
-      <c r="F1" s="354">
+      <c r="F1" s="356">
         <f t="shared" si="0"/>
         <v>42580</v>
       </c>
-      <c r="G1" s="354">
+      <c r="G1" s="356">
         <f t="shared" si="0"/>
         <v>42581</v>
       </c>
-      <c r="H1" s="354">
+      <c r="H1" s="356">
         <f t="shared" si="0"/>
         <v>42582</v>
       </c>
     </row>
     <row r="2" ht="29.4" customHeight="1" spans="1:8">
-      <c r="A2" s="355"/>
-      <c r="B2" s="356" t="s">
+      <c r="A2" s="357"/>
+      <c r="B2" s="358" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="358" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="356" t="s">
+      <c r="D2" s="358" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="356" t="s">
+      <c r="E2" s="358" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="356" t="s">
+      <c r="F2" s="358" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="356" t="s">
+      <c r="G2" s="358" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="356" t="s">
+      <c r="H2" s="358" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="359" t="s">
+      <c r="B3" s="360"/>
+      <c r="C3" s="361" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="358"/>
-      <c r="E3" s="359" t="s">
+      <c r="D3" s="360"/>
+      <c r="E3" s="361" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="358"/>
-      <c r="G3" s="359" t="s">
+      <c r="F3" s="360"/>
+      <c r="G3" s="361" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="358"/>
+      <c r="H3" s="360"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:10">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="358"/>
-      <c r="C4" s="360" t="s">
+      <c r="B4" s="360"/>
+      <c r="C4" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="358"/>
-      <c r="E4" s="360" t="s">
+      <c r="D4" s="360"/>
+      <c r="E4" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="358"/>
-      <c r="G4" s="360" t="s">
+      <c r="F4" s="360"/>
+      <c r="G4" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="358"/>
+      <c r="H4" s="360"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="34.95" customHeight="1" spans="1:10">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="351"/>
-      <c r="C5" s="360" t="s">
+      <c r="B5" s="353"/>
+      <c r="C5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="358"/>
-      <c r="E5" s="360" t="s">
+      <c r="D5" s="360"/>
+      <c r="E5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="358"/>
-      <c r="G5" s="360" t="s">
+      <c r="F5" s="360"/>
+      <c r="G5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="358"/>
+      <c r="H5" s="360"/>
       <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="37.2" customHeight="1" spans="1:10">
-      <c r="A6" s="357" t="s">
+      <c r="A6" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="361" t="s">
+      <c r="B6" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="362" t="s">
+      <c r="C6" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="363" t="s">
+      <c r="D6" s="365" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="362" t="s">
+      <c r="E6" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="363" t="s">
+      <c r="F6" s="365" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="362" t="s">
+      <c r="G6" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="361" t="s">
+      <c r="H6" s="363" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
@@ -4735,68 +4827,68 @@
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" spans="1:10">
-      <c r="A7" s="357" t="s">
+      <c r="A7" s="359" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="361" t="s">
+      <c r="B7" s="363" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="362" t="s">
+      <c r="C7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="364" t="s">
+      <c r="D7" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="362" t="s">
+      <c r="E7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="365" t="s">
+      <c r="F7" s="367" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="362" t="s">
+      <c r="G7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="358"/>
+      <c r="H7" s="360"/>
       <c r="J7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="34.2" customHeight="1" spans="1:10">
-      <c r="A8" s="357" t="s">
+      <c r="A8" s="359" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="358"/>
-      <c r="C8" s="358"/>
-      <c r="D8" s="358"/>
-      <c r="E8" s="358"/>
-      <c r="F8" s="358"/>
-      <c r="G8" s="358"/>
-      <c r="H8" s="358"/>
+      <c r="B8" s="360"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="360"/>
       <c r="J8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="34.95" customHeight="1" spans="1:10">
-      <c r="A9" s="357" t="s">
+      <c r="A9" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="359" t="s">
+      <c r="B9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="359" t="s">
+      <c r="C9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="359" t="s">
+      <c r="D9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="358"/>
-      <c r="F9" s="366" t="s">
+      <c r="E9" s="360"/>
+      <c r="F9" s="368" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="359" t="s">
+      <c r="G9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="359" t="s">
+      <c r="H9" s="361" t="s">
         <v>30</v>
       </c>
       <c r="J9" t="s">
@@ -4804,130 +4896,130 @@
       </c>
     </row>
     <row r="10" ht="31.95" customHeight="1" spans="1:8">
-      <c r="A10" s="357" t="s">
+      <c r="A10" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="367" t="s">
+      <c r="B10" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="360" t="s">
+      <c r="C10" s="362" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="367" t="s">
+      <c r="D10" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="363" t="s">
+      <c r="E10" s="365" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="365" t="s">
+      <c r="F10" s="367" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="360" t="s">
+      <c r="G10" s="362" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="360" t="s">
+      <c r="H10" s="362" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:8">
-      <c r="A11" s="357" t="s">
+      <c r="A11" s="359" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="367" t="s">
+      <c r="B11" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="365" t="s">
+      <c r="C11" s="367" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="367" t="s">
+      <c r="D11" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="361" t="s">
+      <c r="E11" s="363" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
-      <c r="H11" s="358"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="360"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:8">
-      <c r="A12" s="357" t="s">
+      <c r="A12" s="359" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="361" t="s">
+      <c r="B12" s="360"/>
+      <c r="C12" s="363" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="358"/>
-      <c r="E12" s="363" t="s">
+      <c r="D12" s="360"/>
+      <c r="E12" s="365" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="359" t="s">
+      <c r="F12" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
+      <c r="G12" s="360"/>
+      <c r="H12" s="360"/>
     </row>
     <row r="13" ht="31.95" customHeight="1" spans="1:8">
-      <c r="A13" s="357" t="s">
+      <c r="A13" s="359" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="362" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="358"/>
-      <c r="D13" s="361" t="s">
+      <c r="C13" s="360"/>
+      <c r="D13" s="363" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="358"/>
-      <c r="F13" s="364" t="s">
+      <c r="E13" s="360"/>
+      <c r="F13" s="366" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="358"/>
-      <c r="H13" s="358"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="360"/>
     </row>
     <row r="14" ht="37.2" customHeight="1" spans="1:8">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="359" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="364" t="s">
+      <c r="B14" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="361" t="s">
+      <c r="C14" s="363" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="358"/>
-      <c r="E14" s="364" t="s">
+      <c r="D14" s="360"/>
+      <c r="E14" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="364" t="s">
+      <c r="F14" s="366" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="358"/>
-      <c r="H14" s="358"/>
+      <c r="G14" s="360"/>
+      <c r="H14" s="360"/>
     </row>
     <row r="15" ht="40.2" customHeight="1" spans="1:8">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="359" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="358"/>
+      <c r="B15" s="360"/>
+      <c r="C15" s="360"/>
+      <c r="D15" s="360"/>
+      <c r="E15" s="360"/>
+      <c r="F15" s="360"/>
+      <c r="G15" s="360"/>
+      <c r="H15" s="360"/>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="359" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="358"/>
-      <c r="D16" s="358"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="358"/>
-      <c r="H16" s="358"/>
+      <c r="B16" s="360"/>
+      <c r="C16" s="360"/>
+      <c r="D16" s="360"/>
+      <c r="E16" s="360"/>
+      <c r="F16" s="360"/>
+      <c r="G16" s="360"/>
+      <c r="H16" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4950,459 +5042,459 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="17.3" style="80" customWidth="1"/>
-    <col min="2" max="2" width="21.7" style="80" customWidth="1"/>
-    <col min="3" max="4" width="20.7" style="80" customWidth="1"/>
-    <col min="5" max="5" width="20" style="80" customWidth="1"/>
-    <col min="6" max="7" width="19" style="80" customWidth="1"/>
-    <col min="8" max="8" width="18.2" style="80" customWidth="1"/>
-    <col min="9" max="9" width="20.6" style="80" customWidth="1"/>
-    <col min="10" max="11" width="20.7" style="81" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="80"/>
+    <col min="1" max="1" width="17.3" style="82" customWidth="1"/>
+    <col min="2" max="2" width="21.7" style="82" customWidth="1"/>
+    <col min="3" max="4" width="20.7" style="82" customWidth="1"/>
+    <col min="5" max="5" width="20" style="82" customWidth="1"/>
+    <col min="6" max="7" width="19" style="82" customWidth="1"/>
+    <col min="8" max="8" width="18.2" style="82" customWidth="1"/>
+    <col min="9" max="9" width="20.6" style="82" customWidth="1"/>
+    <col min="10" max="11" width="20.7" style="83" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="82"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:11">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="129" t="s">
+      <c r="I3" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="87" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="J4" s="132"/>
-      <c r="K4" s="133"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="135"/>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:11">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="135"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="137"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="98" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="137"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:11">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="87" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:11">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="99" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="94"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="135"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:11">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="99" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:11">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="100" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="137"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="101" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="137" t="s">
+      <c r="I11" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="134"/>
-      <c r="K11" s="138"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="140"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="102" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="139"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="142"/>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="141"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="143"/>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="I14" s="142"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="142"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="144"/>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:11">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="144"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="146"/>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="145"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="147"/>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="111" t="s">
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="143"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="145"/>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="121" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="121" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="121" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="E18" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="111" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="145"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="149"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A19" s="87"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="111" t="s">
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="121"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="123"/>
     </row>
     <row r="21" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="111" t="s">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="123"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="125"/>
     </row>
     <row r="22" ht="46.95" customHeight="1" spans="1:1">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="105" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5436,262 +5528,262 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.3" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.6" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.7" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22.4" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.7" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="16.3" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.6" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.7" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.4" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.7" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:16381">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="14">
         <f>H1</f>
         <v>43052</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="14">
         <f>B1+1</f>
         <v>43053</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="14">
         <f>C1+1</f>
         <v>43054</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="14">
         <f>D1+1</f>
         <v>43055</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="14">
         <f>E1+1</f>
         <v>43056</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="16">
         <v>43052</v>
       </c>
-      <c r="XFA1" s="22" t="s">
+      <c r="XFA1" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" ht="35.4" customHeight="1" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18">
         <f>WEEKDAY(B1,11)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <f>WEEKDAY(C1,11)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <f>WEEKDAY(D1,11)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="18">
         <f>WEEKDAY(E1,11)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="18">
         <f>WEEKDAY(F1,11)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="19" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:7">
-      <c r="A4" s="26"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="10" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" ht="37.2" customHeight="1" spans="1:7">
-      <c r="A6" s="44"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" ht="31.95" customHeight="1" spans="1:7">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="12" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" ht="46.5" customHeight="1" spans="1:6">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:6">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="12" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" ht="48.75" customHeight="1" spans="1:3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
     </row>
     <row r="13" ht="41.25" customHeight="1" spans="1:6">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" ht="42.75" customHeight="1" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" ht="43.5" customHeight="1" spans="1:6">
-      <c r="A15" s="368" t="s">
+      <c r="A15" s="370" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="1048569" spans="1:16381">
-      <c r="A1048569" s="22"/>
-      <c r="XFA1048569" s="22" t="s">
+      <c r="A1048569" s="24"/>
+      <c r="XFA1048569" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="1048576" spans="1:1">
-      <c r="A1048576" s="10" t="s">
+      <c r="A1048576" s="12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5738,114 +5830,114 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2" style="41" customWidth="1"/>
-    <col min="2" max="2" width="30" style="41" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17.9" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="8.9" style="41"/>
+    <col min="1" max="1" width="21.2" style="43" customWidth="1"/>
+    <col min="2" max="2" width="30" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="43" customWidth="1"/>
+    <col min="4" max="4" width="17.9" style="43" customWidth="1"/>
+    <col min="5" max="16384" width="8.9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" ht="56.25" customHeight="1" spans="1:2">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="371" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="3" ht="63.75" customHeight="1" spans="1:4">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" ht="62.25" customHeight="1" spans="1:4">
-      <c r="A5" s="368" t="s">
+      <c r="A5" s="370" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" ht="54" customHeight="1" spans="1:4">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="370" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" ht="56.25" customHeight="1" spans="1:4">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="370" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" ht="60" customHeight="1" spans="1:4">
-      <c r="A8" s="370" t="s">
+      <c r="A8" s="372" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:4">
-      <c r="A9" s="370" t="s">
+      <c r="A9" s="372" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:4">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" ht="60" customHeight="1" spans="1:2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="1:2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5870,172 +5962,172 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.7" style="10" customWidth="1"/>
-    <col min="2" max="2" width="31.8" style="10" customWidth="1"/>
-    <col min="3" max="4" width="19" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.2" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.8" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="20.7" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.8" style="12" customWidth="1"/>
+    <col min="3" max="4" width="19" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.2" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.8" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:16382">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="14">
         <f>E1</f>
         <v>43057</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="14">
         <f>B1+1</f>
         <v>43058</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="16">
         <v>43057</v>
       </c>
-      <c r="XEX1" s="22"/>
-      <c r="XFB1" s="10" t="s">
+      <c r="XEX1" s="24"/>
+      <c r="XFB1" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" ht="35.4" customHeight="1" spans="1:6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18">
         <f>WEEKDAY(B1,11)</f>
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <f>WEEKDAY(C1,11)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
-      <c r="A3" s="371" t="s">
+      <c r="A3" s="373" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="12" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" ht="34.95" customHeight="1" spans="1:4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" ht="37.2" customHeight="1" spans="1:3">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="370" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" spans="1:3">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="370" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" ht="34.2" customHeight="1" spans="1:3">
-      <c r="A8" s="368" t="s">
+      <c r="A8" s="370" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" ht="34.95" customHeight="1" spans="1:3">
-      <c r="A9" s="370" t="s">
+      <c r="A9" s="372" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" ht="31.95" customHeight="1" spans="1:3">
-      <c r="A10" s="370" t="s">
+      <c r="A10" s="372" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" ht="31.95" customHeight="1" spans="1:3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" ht="37.2" customHeight="1" spans="1:3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" ht="40.2" customHeight="1" spans="1:3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" ht="46.2" customHeight="1"/>
     <row r="1048576" spans="16381:16382">
-      <c r="XFA1048576" s="22"/>
-      <c r="XFB1048576" s="10" t="s">
+      <c r="XFA1048576" s="24"/>
+      <c r="XFB1048576" s="12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6062,396 +6154,394 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.4" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6" style="1" customWidth="1"/>
-    <col min="5" max="12" width="8" style="1"/>
-    <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="16383" width="8" style="1"/>
-    <col min="16384" max="16384" width="4.4" style="1" customWidth="1"/>
+    <col min="1" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="89.4" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6" style="3" customWidth="1"/>
+    <col min="5" max="12" width="8" style="3"/>
+    <col min="13" max="13" width="10" style="3" customWidth="1"/>
+    <col min="14" max="16383" width="8" style="3"/>
+    <col min="16384" max="16384" width="4.4" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="XFD1" s="1" t="s">
+      <c r="XFD1" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" hidden="1" spans="1:16">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="J10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="9" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="1048576" spans="1:16384">
-      <c r="A1048576" s="1" t="s">
+      <c r="A1048576" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="XFD1048576" s="1" t="s">
+      <c r="XFD1048576" s="3" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6468,17 +6558,19 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.3" customWidth="1"/>
+    <col min="1" max="1" width="12.6" customWidth="1"/>
+    <col min="2" max="2" width="36.6" customWidth="1"/>
     <col min="3" max="3" width="15.6" customWidth="1"/>
-    <col min="4" max="4" width="12.9" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6496,6 +6588,180 @@
       </c>
       <c r="E1" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" ht="234" spans="1:5">
+      <c r="A13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6516,326 +6782,326 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="355" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="354">
+      <c r="B1" s="356">
         <v>42576</v>
       </c>
-      <c r="C1" s="354">
+      <c r="C1" s="356">
         <f t="shared" ref="C1:H1" si="0">B1+1</f>
         <v>42577</v>
       </c>
-      <c r="D1" s="354">
+      <c r="D1" s="356">
         <f t="shared" si="0"/>
         <v>42578</v>
       </c>
-      <c r="E1" s="354">
+      <c r="E1" s="356">
         <f t="shared" si="0"/>
         <v>42579</v>
       </c>
-      <c r="F1" s="354">
+      <c r="F1" s="356">
         <f t="shared" si="0"/>
         <v>42580</v>
       </c>
-      <c r="G1" s="354">
+      <c r="G1" s="356">
         <f t="shared" si="0"/>
         <v>42581</v>
       </c>
-      <c r="H1" s="354">
+      <c r="H1" s="356">
         <f t="shared" si="0"/>
         <v>42582</v>
       </c>
     </row>
     <row r="2" ht="31.95" customHeight="1" spans="1:8">
-      <c r="A2" s="355"/>
-      <c r="B2" s="356" t="s">
+      <c r="A2" s="357"/>
+      <c r="B2" s="358" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="358" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="356" t="s">
+      <c r="D2" s="358" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="356" t="s">
+      <c r="E2" s="358" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="356" t="s">
+      <c r="F2" s="358" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="356" t="s">
+      <c r="G2" s="358" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="356" t="s">
+      <c r="H2" s="358" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="359" t="s">
+      <c r="B3" s="360"/>
+      <c r="C3" s="361" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="358"/>
-      <c r="E3" s="359" t="s">
+      <c r="D3" s="360"/>
+      <c r="E3" s="361" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="358"/>
-      <c r="G3" s="359" t="s">
+      <c r="F3" s="360"/>
+      <c r="G3" s="361" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="358"/>
+      <c r="H3" s="360"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="358"/>
-      <c r="C4" s="360" t="s">
+      <c r="B4" s="360"/>
+      <c r="C4" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="358"/>
-      <c r="E4" s="360" t="s">
+      <c r="D4" s="360"/>
+      <c r="E4" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="358"/>
-      <c r="G4" s="360" t="s">
+      <c r="F4" s="360"/>
+      <c r="G4" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="358"/>
+      <c r="H4" s="360"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="359" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="351"/>
-      <c r="C5" s="360" t="s">
+      <c r="B5" s="353"/>
+      <c r="C5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="358"/>
-      <c r="E5" s="360" t="s">
+      <c r="D5" s="360"/>
+      <c r="E5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="358"/>
-      <c r="G5" s="360" t="s">
+      <c r="F5" s="360"/>
+      <c r="G5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="358"/>
+      <c r="H5" s="360"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="357" t="s">
+      <c r="A6" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="361" t="s">
+      <c r="B6" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="362" t="s">
+      <c r="C6" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="363" t="s">
+      <c r="D6" s="365" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="362" t="s">
+      <c r="E6" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="363" t="s">
+      <c r="F6" s="365" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="362" t="s">
+      <c r="G6" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="361" t="s">
+      <c r="H6" s="363" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="357" t="s">
+      <c r="A7" s="359" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="361" t="s">
+      <c r="B7" s="363" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="362" t="s">
+      <c r="C7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="364" t="s">
+      <c r="D7" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="362" t="s">
+      <c r="E7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="365" t="s">
+      <c r="F7" s="367" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="362" t="s">
+      <c r="G7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="358"/>
+      <c r="H7" s="360"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="357" t="s">
+      <c r="A8" s="359" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="358"/>
-      <c r="C8" s="358"/>
-      <c r="D8" s="358"/>
-      <c r="E8" s="358"/>
-      <c r="F8" s="358"/>
-      <c r="G8" s="358"/>
-      <c r="H8" s="358"/>
+      <c r="B8" s="360"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="360"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="357" t="s">
+      <c r="A9" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="359" t="s">
+      <c r="B9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="359" t="s">
+      <c r="C9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="359" t="s">
+      <c r="D9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="358"/>
-      <c r="F9" s="366" t="s">
+      <c r="E9" s="360"/>
+      <c r="F9" s="368" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="359" t="s">
+      <c r="G9" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="359" t="s">
+      <c r="H9" s="361" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="357" t="s">
+      <c r="A10" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="367" t="s">
+      <c r="B10" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="360" t="s">
+      <c r="C10" s="362" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="367" t="s">
+      <c r="D10" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="363" t="s">
+      <c r="E10" s="365" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="365" t="s">
+      <c r="F10" s="367" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="360" t="s">
+      <c r="G10" s="362" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="360" t="s">
+      <c r="H10" s="362" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="357" t="s">
+      <c r="A11" s="359" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="367" t="s">
+      <c r="B11" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="365" t="s">
+      <c r="C11" s="367" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="367" t="s">
+      <c r="D11" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="361" t="s">
+      <c r="E11" s="363" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
-      <c r="H11" s="358"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="360"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="357" t="s">
+      <c r="A12" s="359" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="361" t="s">
+      <c r="B12" s="360"/>
+      <c r="C12" s="363" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="358"/>
-      <c r="E12" s="363" t="s">
+      <c r="D12" s="360"/>
+      <c r="E12" s="365" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="359" t="s">
+      <c r="F12" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
+      <c r="G12" s="360"/>
+      <c r="H12" s="360"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="357" t="s">
+      <c r="A13" s="359" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="362" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="358"/>
-      <c r="D13" s="361" t="s">
+      <c r="C13" s="360"/>
+      <c r="D13" s="363" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="358"/>
-      <c r="F13" s="364" t="s">
+      <c r="E13" s="360"/>
+      <c r="F13" s="366" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="358"/>
-      <c r="H13" s="358"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="360"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="359" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="364" t="s">
+      <c r="B14" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="361" t="s">
+      <c r="C14" s="363" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="358"/>
-      <c r="E14" s="364" t="s">
+      <c r="D14" s="360"/>
+      <c r="E14" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="364" t="s">
+      <c r="F14" s="366" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="358"/>
-      <c r="H14" s="358"/>
+      <c r="G14" s="360"/>
+      <c r="H14" s="360"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="359" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="358"/>
+      <c r="B15" s="360"/>
+      <c r="C15" s="360"/>
+      <c r="D15" s="360"/>
+      <c r="E15" s="360"/>
+      <c r="F15" s="360"/>
+      <c r="G15" s="360"/>
+      <c r="H15" s="360"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="359" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="358"/>
-      <c r="D16" s="358"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="358"/>
-      <c r="H16" s="358"/>
+      <c r="B16" s="360"/>
+      <c r="C16" s="360"/>
+      <c r="D16" s="360"/>
+      <c r="E16" s="360"/>
+      <c r="F16" s="360"/>
+      <c r="G16" s="360"/>
+      <c r="H16" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6892,256 +7158,256 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="354" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="352" t="s">
+      <c r="B2" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="352" t="s">
+      <c r="C2" s="354" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="352" t="s">
+      <c r="D2" s="354" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="352" t="s">
+      <c r="E2" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="352" t="s">
+      <c r="F2" s="354" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="352" t="s">
+      <c r="G2" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="352" t="s">
+      <c r="H2" s="354" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="42" customHeight="1" spans="1:8">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="354" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352" t="s">
+      <c r="B3" s="354"/>
+      <c r="C3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352" t="s">
+      <c r="D3" s="354"/>
+      <c r="E3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="352" t="s">
+      <c r="F3" s="354"/>
+      <c r="G3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="352"/>
+      <c r="H3" s="354"/>
     </row>
     <row r="4" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A4" s="352" t="s">
+      <c r="A4" s="354" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352" t="s">
+      <c r="B4" s="354"/>
+      <c r="C4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352" t="s">
+      <c r="D4" s="354"/>
+      <c r="E4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352" t="s">
+      <c r="F4" s="354"/>
+      <c r="G4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="352"/>
+      <c r="H4" s="354"/>
     </row>
     <row r="5" ht="43.95" customHeight="1" spans="1:8">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="352"/>
-      <c r="C5" s="352" t="s">
+      <c r="B5" s="354"/>
+      <c r="C5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352" t="s">
+      <c r="D5" s="354"/>
+      <c r="E5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="352"/>
-      <c r="G5" s="352" t="s">
+      <c r="F5" s="354"/>
+      <c r="G5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="352"/>
+      <c r="H5" s="354"/>
     </row>
     <row r="6" ht="43.2" customHeight="1" spans="1:8">
-      <c r="A6" s="352" t="s">
+      <c r="A6" s="354" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="352"/>
-      <c r="C6" s="352" t="s">
+      <c r="B6" s="354"/>
+      <c r="C6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352" t="s">
+      <c r="D6" s="354"/>
+      <c r="E6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352" t="s">
+      <c r="F6" s="354"/>
+      <c r="G6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="352"/>
+      <c r="H6" s="354"/>
     </row>
     <row r="7" ht="40.95" customHeight="1" spans="1:8">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="352" t="s">
+      <c r="B7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="352" t="s">
+      <c r="C7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="352" t="s">
+      <c r="D7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="352" t="s">
+      <c r="E7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="352" t="s">
+      <c r="F7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="352" t="s">
+      <c r="G7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="352" t="s">
+      <c r="H7" s="354" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:8">
-      <c r="A8" s="352" t="s">
+      <c r="A8" s="354" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="352" t="s">
+      <c r="B8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="352" t="s">
+      <c r="C8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="352" t="s">
+      <c r="D8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="352" t="s">
+      <c r="E8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="352" t="s">
+      <c r="F8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="352" t="s">
+      <c r="G8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="352" t="s">
+      <c r="H8" s="354" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A9" s="352" t="s">
+      <c r="A9" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="352" t="s">
+      <c r="B9" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="352" t="s">
+      <c r="C9" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="352" t="s">
+      <c r="D9" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="352" t="s">
+      <c r="E9" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="352" t="s">
+      <c r="F9" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="352" t="s">
+      <c r="G9" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="352" t="s">
+      <c r="H9" s="354" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A10" s="352" t="s">
+      <c r="A10" s="354" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="352" t="s">
+      <c r="B10" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="352"/>
-      <c r="D10" s="352" t="s">
+      <c r="C10" s="354"/>
+      <c r="D10" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="352"/>
-      <c r="F10" s="352"/>
-      <c r="G10" s="352"/>
-      <c r="H10" s="352"/>
+      <c r="E10" s="354"/>
+      <c r="F10" s="354"/>
+      <c r="G10" s="354"/>
+      <c r="H10" s="354"/>
     </row>
     <row r="11" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A11" s="352" t="s">
+      <c r="A11" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="352"/>
-      <c r="C11" s="352"/>
-      <c r="D11" s="352"/>
-      <c r="E11" s="352"/>
-      <c r="F11" s="352"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="352"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="354"/>
+      <c r="D11" s="354"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="354"/>
+      <c r="H11" s="354"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:8">
-      <c r="A12" s="352" t="s">
+      <c r="A12" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="352"/>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="352"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="352"/>
+      <c r="B12" s="354"/>
+      <c r="C12" s="354"/>
+      <c r="D12" s="354"/>
+      <c r="E12" s="354"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="354"/>
     </row>
     <row r="13" ht="36" customHeight="1" spans="1:8">
-      <c r="A13" s="352" t="s">
+      <c r="A13" s="354" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="352"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="352"/>
+      <c r="B13" s="354"/>
+      <c r="C13" s="354"/>
+      <c r="D13" s="354"/>
+      <c r="E13" s="354"/>
+      <c r="F13" s="354"/>
+      <c r="G13" s="354"/>
+      <c r="H13" s="354"/>
     </row>
     <row r="14" ht="31.2" customHeight="1" spans="1:8">
-      <c r="A14" s="352" t="s">
+      <c r="A14" s="354" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="352"/>
-      <c r="C14" s="352"/>
-      <c r="D14" s="352"/>
-      <c r="E14" s="352"/>
-      <c r="F14" s="352"/>
-      <c r="G14" s="352"/>
-      <c r="H14" s="352"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="354"/>
+      <c r="D14" s="354"/>
+      <c r="E14" s="354"/>
+      <c r="F14" s="354"/>
+      <c r="G14" s="354"/>
+      <c r="H14" s="354"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:8">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="354" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="352"/>
-      <c r="C15" s="352"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="352"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="352"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="354"/>
+      <c r="D15" s="354"/>
+      <c r="E15" s="354"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7196,244 +7462,244 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="354" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="352" t="s">
+      <c r="B2" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="352" t="s">
+      <c r="C2" s="354" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="352" t="s">
+      <c r="D2" s="354" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="352" t="s">
+      <c r="E2" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="352" t="s">
+      <c r="F2" s="354" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="352" t="s">
+      <c r="G2" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="352" t="s">
+      <c r="H2" s="354" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:8">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="354" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352" t="s">
+      <c r="B3" s="354"/>
+      <c r="C3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352" t="s">
+      <c r="D3" s="354"/>
+      <c r="E3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="352" t="s">
+      <c r="F3" s="354"/>
+      <c r="G3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="352"/>
+      <c r="H3" s="354"/>
     </row>
     <row r="4" ht="28.95" customHeight="1" spans="1:8">
-      <c r="A4" s="352" t="s">
+      <c r="A4" s="354" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352" t="s">
+      <c r="B4" s="354"/>
+      <c r="C4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352" t="s">
+      <c r="D4" s="354"/>
+      <c r="E4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352" t="s">
+      <c r="F4" s="354"/>
+      <c r="G4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="352"/>
+      <c r="H4" s="354"/>
     </row>
     <row r="5" ht="28.95" customHeight="1" spans="1:8">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="352"/>
-      <c r="C5" s="352" t="s">
+      <c r="B5" s="354"/>
+      <c r="C5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352" t="s">
+      <c r="D5" s="354"/>
+      <c r="E5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="352"/>
-      <c r="G5" s="352" t="s">
+      <c r="F5" s="354"/>
+      <c r="G5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="352"/>
+      <c r="H5" s="354"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:8">
-      <c r="A6" s="352" t="s">
+      <c r="A6" s="354" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="352"/>
-      <c r="C6" s="352" t="s">
+      <c r="B6" s="354"/>
+      <c r="C6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352" t="s">
+      <c r="D6" s="354"/>
+      <c r="E6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352" t="s">
+      <c r="F6" s="354"/>
+      <c r="G6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="352"/>
+      <c r="H6" s="354"/>
     </row>
     <row r="7" ht="37.95" customHeight="1" spans="1:8">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="352" t="s">
+      <c r="B7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="352" t="s">
+      <c r="C7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="352" t="s">
+      <c r="D7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="352" t="s">
+      <c r="E7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="352" t="s">
+      <c r="F7" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
+      <c r="G7" s="354"/>
+      <c r="H7" s="354"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:8">
-      <c r="A8" s="352" t="s">
+      <c r="A8" s="354" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="352" t="s">
+      <c r="B8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="352" t="s">
+      <c r="C8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="352" t="s">
+      <c r="D8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="352" t="s">
+      <c r="E8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="352" t="s">
+      <c r="F8" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
+      <c r="G8" s="354"/>
+      <c r="H8" s="354"/>
     </row>
     <row r="9" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A9" s="352" t="s">
+      <c r="A9" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="352" t="s">
+      <c r="B9" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="352" t="s">
+      <c r="C9" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="352" t="s">
+      <c r="D9" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="352" t="s">
+      <c r="E9" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="352" t="s">
+      <c r="F9" s="354" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="352"/>
-      <c r="H9" s="352"/>
+      <c r="G9" s="354"/>
+      <c r="H9" s="354"/>
     </row>
     <row r="10" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A10" s="352" t="s">
+      <c r="A10" s="354" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="352" t="s">
+      <c r="B10" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="352"/>
-      <c r="D10" s="352" t="s">
+      <c r="C10" s="354"/>
+      <c r="D10" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="352"/>
-      <c r="F10" s="352"/>
-      <c r="G10" s="352"/>
-      <c r="H10" s="352"/>
+      <c r="E10" s="354"/>
+      <c r="F10" s="354"/>
+      <c r="G10" s="354"/>
+      <c r="H10" s="354"/>
     </row>
     <row r="11" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A11" s="352" t="s">
+      <c r="A11" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="352"/>
-      <c r="C11" s="352"/>
-      <c r="D11" s="352"/>
-      <c r="E11" s="352"/>
-      <c r="F11" s="352"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="352"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="354"/>
+      <c r="D11" s="354"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="354"/>
+      <c r="H11" s="354"/>
     </row>
     <row r="12" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A12" s="352" t="s">
+      <c r="A12" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="352"/>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="352"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="352"/>
+      <c r="B12" s="354"/>
+      <c r="C12" s="354"/>
+      <c r="D12" s="354"/>
+      <c r="E12" s="354"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="354"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:8">
-      <c r="A13" s="352" t="s">
+      <c r="A13" s="354" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="352"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="352"/>
+      <c r="B13" s="354"/>
+      <c r="C13" s="354"/>
+      <c r="D13" s="354"/>
+      <c r="E13" s="354"/>
+      <c r="F13" s="354"/>
+      <c r="G13" s="354"/>
+      <c r="H13" s="354"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:8">
-      <c r="A14" s="352" t="s">
+      <c r="A14" s="354" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="352"/>
-      <c r="C14" s="352"/>
-      <c r="D14" s="352"/>
-      <c r="E14" s="352"/>
-      <c r="F14" s="352"/>
-      <c r="G14" s="352"/>
-      <c r="H14" s="352"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="354"/>
+      <c r="D14" s="354"/>
+      <c r="E14" s="354"/>
+      <c r="F14" s="354"/>
+      <c r="G14" s="354"/>
+      <c r="H14" s="354"/>
     </row>
     <row r="15" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="354" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="352"/>
-      <c r="C15" s="352"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="352"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="352"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="354"/>
+      <c r="D15" s="354"/>
+      <c r="E15" s="354"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7488,218 +7754,218 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="354" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="352" t="s">
+      <c r="B2" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="352" t="s">
+      <c r="C2" s="354" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="352" t="s">
+      <c r="D2" s="354" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="352" t="s">
+      <c r="E2" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="352" t="s">
+      <c r="F2" s="354" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="352" t="s">
+      <c r="G2" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="352" t="s">
+      <c r="H2" s="354" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="354" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352" t="s">
+      <c r="B3" s="354"/>
+      <c r="C3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352" t="s">
+      <c r="D3" s="354"/>
+      <c r="E3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="352" t="s">
+      <c r="F3" s="354"/>
+      <c r="G3" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="352"/>
+      <c r="H3" s="354"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="352" t="s">
+      <c r="A4" s="354" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352" t="s">
+      <c r="B4" s="354"/>
+      <c r="C4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352" t="s">
+      <c r="D4" s="354"/>
+      <c r="E4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352" t="s">
+      <c r="F4" s="354"/>
+      <c r="G4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="352"/>
+      <c r="H4" s="354"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="352" t="s">
+      <c r="A5" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="352"/>
-      <c r="C5" s="352" t="s">
+      <c r="B5" s="354"/>
+      <c r="C5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352" t="s">
+      <c r="D5" s="354"/>
+      <c r="E5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="352"/>
-      <c r="G5" s="352" t="s">
+      <c r="F5" s="354"/>
+      <c r="G5" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="352"/>
+      <c r="H5" s="354"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="352" t="s">
+      <c r="A6" s="354" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="352"/>
-      <c r="C6" s="352" t="s">
+      <c r="B6" s="354"/>
+      <c r="C6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352" t="s">
+      <c r="D6" s="354"/>
+      <c r="E6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352" t="s">
+      <c r="F6" s="354"/>
+      <c r="G6" s="354" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="352"/>
+      <c r="H6" s="354"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="352"/>
-      <c r="C7" s="352"/>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352"/>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="352"/>
+      <c r="B7" s="354"/>
+      <c r="C7" s="354"/>
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="354"/>
+      <c r="G7" s="354"/>
+      <c r="H7" s="354"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="352" t="s">
+      <c r="A8" s="354" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="352"/>
-      <c r="C8" s="352"/>
-      <c r="D8" s="352"/>
-      <c r="E8" s="352"/>
-      <c r="F8" s="352"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
+      <c r="B8" s="354"/>
+      <c r="C8" s="354"/>
+      <c r="D8" s="354"/>
+      <c r="E8" s="354"/>
+      <c r="F8" s="354"/>
+      <c r="G8" s="354"/>
+      <c r="H8" s="354"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="352" t="s">
+      <c r="A9" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="352" t="s">
+      <c r="B9" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="352"/>
-      <c r="D9" s="352" t="s">
+      <c r="C9" s="354"/>
+      <c r="D9" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="352"/>
-      <c r="F9" s="352"/>
-      <c r="G9" s="352"/>
-      <c r="H9" s="352"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="354"/>
+      <c r="G9" s="354"/>
+      <c r="H9" s="354"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="352" t="s">
+      <c r="A10" s="354" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="352" t="s">
+      <c r="B10" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="352"/>
-      <c r="D10" s="352" t="s">
+      <c r="C10" s="354"/>
+      <c r="D10" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="352"/>
-      <c r="F10" s="352"/>
-      <c r="G10" s="352"/>
-      <c r="H10" s="352"/>
+      <c r="E10" s="354"/>
+      <c r="F10" s="354"/>
+      <c r="G10" s="354"/>
+      <c r="H10" s="354"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="352" t="s">
+      <c r="A11" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="352"/>
-      <c r="C11" s="352"/>
-      <c r="D11" s="352"/>
-      <c r="E11" s="352"/>
-      <c r="F11" s="352"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="352"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="354"/>
+      <c r="D11" s="354"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="354"/>
+      <c r="H11" s="354"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="352" t="s">
+      <c r="A12" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="352"/>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="352"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="352"/>
+      <c r="B12" s="354"/>
+      <c r="C12" s="354"/>
+      <c r="D12" s="354"/>
+      <c r="E12" s="354"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="354"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="352" t="s">
+      <c r="A13" s="354" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="352"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="352"/>
+      <c r="B13" s="354"/>
+      <c r="C13" s="354"/>
+      <c r="D13" s="354"/>
+      <c r="E13" s="354"/>
+      <c r="F13" s="354"/>
+      <c r="G13" s="354"/>
+      <c r="H13" s="354"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="352" t="s">
+      <c r="A14" s="354" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="352"/>
-      <c r="C14" s="352"/>
-      <c r="D14" s="352"/>
-      <c r="E14" s="352"/>
-      <c r="F14" s="352"/>
-      <c r="G14" s="352"/>
-      <c r="H14" s="352"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="354"/>
+      <c r="D14" s="354"/>
+      <c r="E14" s="354"/>
+      <c r="F14" s="354"/>
+      <c r="G14" s="354"/>
+      <c r="H14" s="354"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="354" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="352"/>
-      <c r="C15" s="352"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="352"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="352"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="354"/>
+      <c r="D15" s="354"/>
+      <c r="E15" s="354"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7731,453 +7997,453 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="319" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="205" t="s">
+      <c r="E1" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="205" t="s">
+      <c r="F1" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="205" t="s">
+      <c r="G1" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="265" t="s">
+      <c r="B3" s="267" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="318" t="s">
+      <c r="D3" s="320" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="266" t="s">
+      <c r="E3" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="318" t="s">
+      <c r="F3" s="320" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="266" t="s">
+      <c r="G3" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="319"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="320" t="s">
+      <c r="B4" s="271"/>
+      <c r="C4" s="322" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="321"/>
-      <c r="E4" s="320" t="s">
+      <c r="D4" s="323"/>
+      <c r="E4" s="322" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="G4" s="320" t="s">
+      <c r="F4" s="323"/>
+      <c r="G4" s="322" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="319"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="316" t="s">
+      <c r="H4" s="321"/>
+      <c r="I4" s="317"/>
+      <c r="J4" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="315"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="K4" s="317"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="266" t="s">
+      <c r="B5" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="322"/>
-      <c r="D5" s="266" t="s">
+      <c r="C5" s="324"/>
+      <c r="D5" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="322"/>
-      <c r="F5" s="266" t="s">
+      <c r="E5" s="324"/>
+      <c r="F5" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="322"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="316" t="s">
+      <c r="G5" s="324"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="318" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="315"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="274" t="s">
+      <c r="C6" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="274" t="s">
+      <c r="E6" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="273" t="s">
+      <c r="F6" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="274" t="s">
+      <c r="G6" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="323"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="316" t="s">
+      <c r="H6" s="325"/>
+      <c r="I6" s="317"/>
+      <c r="J6" s="318" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="315"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="208" t="s">
+      <c r="A7" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="273"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="273"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="316" t="s">
+      <c r="B7" s="275"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="317"/>
+      <c r="J7" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="315"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="K7" s="317"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="275"/>
-      <c r="C8" s="324" t="s">
+      <c r="B8" s="277"/>
+      <c r="C8" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="273"/>
-      <c r="E8" s="324" t="s">
+      <c r="D8" s="275"/>
+      <c r="E8" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="273"/>
-      <c r="G8" s="324" t="s">
+      <c r="F8" s="275"/>
+      <c r="G8" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="319"/>
-      <c r="I8" s="315"/>
-      <c r="J8" s="316" t="s">
+      <c r="H8" s="321"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="318" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="315"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="325" t="s">
+      <c r="B9" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="325" t="s">
+      <c r="C9" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="325" t="s">
+      <c r="D9" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="325" t="s">
+      <c r="E9" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="325" t="s">
+      <c r="F9" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="325" t="s">
+      <c r="G9" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="315"/>
-      <c r="J9" s="316" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="317"/>
+      <c r="J9" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="315"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="K9" s="317"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="279" t="s">
+      <c r="B10" s="281" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="326"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="315"/>
-      <c r="J10" s="316" t="s">
+      <c r="C10" s="282"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="317"/>
+      <c r="J10" s="318" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="315"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="K10" s="317"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="279"/>
-      <c r="C11" s="280"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="280"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="326"/>
-      <c r="H11" s="315"/>
-      <c r="I11" s="347"/>
-      <c r="J11" s="348" t="s">
+      <c r="B11" s="281"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="282"/>
+      <c r="G11" s="328"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="349"/>
+      <c r="J11" s="350" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="347"/>
-      <c r="L11" s="315"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="K11" s="349"/>
+      <c r="L11" s="317"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="208" t="s">
+      <c r="A12" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="281"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="282"/>
-      <c r="G12" s="327"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="347"/>
-      <c r="J12" s="349" t="s">
+      <c r="B12" s="283"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="349"/>
+      <c r="J12" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="347"/>
-      <c r="L12" s="315"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="K12" s="349"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="285" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="328" t="s">
+      <c r="C13" s="286"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="330" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="329"/>
-      <c r="G13" s="330" t="s">
+      <c r="F13" s="331"/>
+      <c r="G13" s="332" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="330"/>
-      <c r="I13" s="315"/>
-      <c r="J13" s="350" t="s">
+      <c r="H13" s="332"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="352" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="315"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="208" t="s">
+      <c r="A14" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="331" t="s">
+      <c r="B14" s="333" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="333"/>
-      <c r="F14" s="334" t="s">
+      <c r="C14" s="334"/>
+      <c r="D14" s="334"/>
+      <c r="E14" s="335"/>
+      <c r="F14" s="336" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="335" t="s">
+      <c r="G14" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="315"/>
-      <c r="J14" s="315" t="s">
+      <c r="I14" s="317"/>
+      <c r="J14" s="317" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="315"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="K14" s="317"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B15" s="338" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="337"/>
-      <c r="D15" s="337"/>
-      <c r="E15" s="337"/>
-      <c r="F15" s="337"/>
-      <c r="G15" s="338"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="C15" s="339"/>
+      <c r="D15" s="339"/>
+      <c r="E15" s="339"/>
+      <c r="F15" s="339"/>
+      <c r="G15" s="340"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="339" t="s">
+      <c r="B16" s="341" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="340"/>
-      <c r="G16" s="341"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="C16" s="342"/>
+      <c r="D16" s="342"/>
+      <c r="E16" s="342"/>
+      <c r="F16" s="342"/>
+      <c r="G16" s="343"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="259" t="s">
+      <c r="A17" s="261" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="342" t="s">
+      <c r="B17" s="344" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="343"/>
-      <c r="D17" s="344" t="s">
+      <c r="C17" s="345"/>
+      <c r="D17" s="346" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="345" t="s">
+      <c r="E17" s="347" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="346" t="s">
+      <c r="F17" s="348" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="346"/>
-      <c r="I17" s="351"/>
-      <c r="J17" s="351"/>
-      <c r="K17" s="351"/>
-      <c r="L17" s="351"/>
+      <c r="G17" s="348"/>
+      <c r="I17" s="353"/>
+      <c r="J17" s="353"/>
+      <c r="K17" s="353"/>
+      <c r="L17" s="353"/>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="260" t="s">
+      <c r="A18" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="314" t="s">
+      <c r="B18" s="316" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="314"/>
-      <c r="D18" s="314" t="s">
+      <c r="C18" s="316"/>
+      <c r="D18" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="314" t="s">
+      <c r="E18" s="316" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="314" t="s">
+      <c r="F18" s="316" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="314" t="s">
+      <c r="G18" s="316" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8234,376 +8500,376 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:8">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="207" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="207" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="205" t="s">
+      <c r="E1" s="207" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="205" t="s">
+      <c r="F1" s="207" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="205" t="s">
+      <c r="G1" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="205" t="s">
+      <c r="H1" s="207" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="209" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:14">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="265" t="s">
+      <c r="B3" s="267" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="265" t="s">
+      <c r="D3" s="267" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="267" t="s">
+      <c r="E3" s="269" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="317"/>
+      <c r="N3" s="317"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:14">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="270" t="s">
+      <c r="B4" s="271"/>
+      <c r="C4" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="269"/>
-      <c r="E4" s="271" t="s">
+      <c r="D4" s="271"/>
+      <c r="E4" s="273" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="L4" s="315"/>
-      <c r="M4" s="316" t="s">
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="L4" s="317"/>
+      <c r="M4" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="315"/>
+      <c r="N4" s="317"/>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:14">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="266" t="s">
+      <c r="B5" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="272"/>
-      <c r="D5" s="266" t="s">
+      <c r="C5" s="274"/>
+      <c r="D5" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="271"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="316" t="s">
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="318" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="315"/>
+      <c r="N5" s="317"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="274" t="s">
+      <c r="C6" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="L6" s="315"/>
-      <c r="M6" s="316" t="s">
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="318" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="315"/>
+      <c r="N6" s="317"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:14">
-      <c r="A7" s="208" t="s">
+      <c r="A7" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="271"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="316" t="s">
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="273"/>
+      <c r="L7" s="317"/>
+      <c r="M7" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="315"/>
+      <c r="N7" s="317"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:14">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="279" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="271"/>
-      <c r="L8" s="315"/>
-      <c r="M8" s="316" t="s">
+      <c r="C8" s="280"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="318" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="315"/>
+      <c r="N8" s="317"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:14">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="279"/>
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="271"/>
-      <c r="L9" s="315"/>
-      <c r="M9" s="316" t="s">
+      <c r="B9" s="281"/>
+      <c r="C9" s="282"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="273"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="273"/>
+      <c r="L9" s="317"/>
+      <c r="M9" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="315"/>
+      <c r="N9" s="317"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:14">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="271"/>
-      <c r="H10" s="271"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="316" t="s">
+      <c r="B10" s="283"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="L10" s="317"/>
+      <c r="M10" s="318" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="315"/>
+      <c r="N10" s="317"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:14">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="210" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="284"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="L11" s="315"/>
-      <c r="M11" s="315" t="s">
+      <c r="C11" s="286"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="273"/>
+      <c r="G11" s="273"/>
+      <c r="H11" s="273"/>
+      <c r="L11" s="317"/>
+      <c r="M11" s="317" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="315"/>
+      <c r="N11" s="317"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:14">
-      <c r="A12" s="208" t="s">
+      <c r="A12" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="286" t="s">
+      <c r="B12" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="271"/>
-      <c r="G12" s="271"/>
-      <c r="H12" s="271"/>
-      <c r="L12" s="315"/>
-      <c r="M12" s="315" t="s">
+      <c r="C12" s="289"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="273"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="N12" s="315"/>
+      <c r="N12" s="317"/>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="289" t="s">
+      <c r="B13" s="291" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="290"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="291"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="293"/>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:8">
-      <c r="A14" s="208" t="s">
+      <c r="A14" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="292" t="s">
+      <c r="B14" s="294" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="292"/>
-      <c r="D14" s="292"/>
-      <c r="E14" s="293" t="s">
+      <c r="C14" s="294"/>
+      <c r="D14" s="294"/>
+      <c r="E14" s="295" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="293"/>
-      <c r="G14" s="294" t="s">
+      <c r="F14" s="295"/>
+      <c r="G14" s="296" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="295" t="s">
+      <c r="H14" s="297" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:8">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="296" t="s">
+      <c r="B15" s="298" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="297"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="299" t="s">
+      <c r="C15" s="299"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="301" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="295" t="s">
+      <c r="F15" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="299" t="s">
+      <c r="G15" s="301" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="300" t="s">
+      <c r="H15" s="302" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="301" t="s">
+      <c r="B16" s="303" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="303" t="s">
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="305" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="303"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="304"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="305"/>
-      <c r="E17" s="306" t="s">
+      <c r="B17" s="306"/>
+      <c r="C17" s="307"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="308" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="307"/>
-      <c r="G17" s="307"/>
-      <c r="H17" s="308"/>
+      <c r="F17" s="309"/>
+      <c r="G17" s="309"/>
+      <c r="H17" s="310"/>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:8">
-      <c r="A18" s="208" t="s">
+      <c r="A18" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="309"/>
-      <c r="C18" s="310"/>
-      <c r="D18" s="310"/>
-      <c r="E18" s="311" t="s">
+      <c r="B18" s="311"/>
+      <c r="C18" s="312"/>
+      <c r="D18" s="312"/>
+      <c r="E18" s="313" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="312"/>
-      <c r="G18" s="312"/>
-      <c r="H18" s="313"/>
+      <c r="F18" s="314"/>
+      <c r="G18" s="314"/>
+      <c r="H18" s="315"/>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:8">
-      <c r="A19" s="259" t="s">
+      <c r="A19" s="261" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:8">
-      <c r="A20" s="260" t="s">
+      <c r="A20" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="314"/>
-      <c r="C20" s="314"/>
-      <c r="D20" s="314"/>
-      <c r="E20" s="314"/>
-      <c r="F20" s="314"/>
-      <c r="G20" s="314"/>
-      <c r="H20" s="314"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="316"/>
+      <c r="E20" s="316"/>
+      <c r="F20" s="316"/>
+      <c r="G20" s="316"/>
+      <c r="H20" s="316"/>
     </row>
     <row r="21" ht="16.35"/>
   </sheetData>
@@ -8656,501 +8922,501 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="205" t="s">
+      <c r="E1" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="205" t="s">
+      <c r="F1" s="207" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="205" t="s">
+      <c r="G1" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="205" t="s">
+      <c r="H1" s="207" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="205" t="s">
+      <c r="I1" s="207" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="205" t="s">
+      <c r="J1" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="205" t="s">
+      <c r="K1" s="207" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="209" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="209" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="207" t="s">
+      <c r="E2" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="209" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="209" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="207" t="s">
+      <c r="J2" s="209" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="209" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:11">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="211" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="210" t="s">
+      <c r="D3" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="211" t="s">
+      <c r="E3" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="212"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="210" t="s">
+      <c r="F3" s="214"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="214"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="168" t="s">
+      <c r="B4" s="216"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="168" t="s">
+      <c r="E4" s="217"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="166" t="s">
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="168" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:11">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="170"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="219"/>
+      <c r="K5" s="172"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="220" t="s">
+      <c r="C6" s="165"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="221"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="170"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
+      <c r="K6" s="172"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:11">
-      <c r="A7" s="208" t="s">
+      <c r="A7" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="222" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="223"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="170"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="172"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:11">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="225" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="226"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="170"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="172"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:11">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="227" t="s">
+      <c r="C9" s="173"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="229" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="228"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="170"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:11">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="229" t="s">
+      <c r="C10" s="173"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="231" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="230"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="170"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="233" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="234" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="233" t="s">
+      <c r="C11" s="173"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="233"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="262"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="264"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="209" t="s">
+      <c r="B12" s="236"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="211" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A13" s="231" t="s">
+      <c r="A13" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="238" t="s">
+      <c r="C13" s="173"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="240" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="239"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="175" t="s">
+      <c r="F13" s="241"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="177" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A14" s="208" t="s">
+      <c r="A14" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="240" t="s">
+      <c r="C14" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="209" t="s">
+      <c r="D14" s="211" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="241" t="s">
+      <c r="E14" s="243" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="242"/>
-      <c r="G14" s="171" t="s">
+      <c r="F14" s="244"/>
+      <c r="G14" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="171" t="s">
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="173" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:11">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="175" t="s">
+      <c r="D15" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="240" t="s">
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="243"/>
-      <c r="I15" s="243"/>
-      <c r="J15" s="243"/>
-      <c r="K15" s="247" t="s">
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="249" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="244" t="s">
+      <c r="D16" s="246" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="245" t="s">
+      <c r="E16" s="247" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="171" t="s">
+      <c r="F16" s="248"/>
+      <c r="G16" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="179" t="s">
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="181" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="247" t="s">
+      <c r="B17" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="248" t="s">
+      <c r="D17" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="249" t="s">
+      <c r="E17" s="250"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="251" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="244" t="s">
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="252"/>
+      <c r="K17" s="246" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A18" s="208" t="s">
+      <c r="A18" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="251" t="s">
+      <c r="D18" s="253" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="252" t="s">
+      <c r="E18" s="253"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="254" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="253"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="263"/>
-      <c r="K18" s="224" t="s">
+      <c r="H18" s="255"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="265"/>
+      <c r="K18" s="226" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="254" t="s">
+      <c r="B19" s="256" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="255" t="s">
+      <c r="D19" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="239" t="s">
+      <c r="E19" s="258"/>
+      <c r="F19" s="258"/>
+      <c r="G19" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="239"/>
-      <c r="I19" s="239"/>
-      <c r="J19" s="239"/>
-      <c r="K19" s="254" t="s">
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="241"/>
+      <c r="K19" s="256" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="217" t="s">
+      <c r="C20" s="219" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="257" t="s">
+      <c r="D20" s="259" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="257"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="217" t="s">
+      <c r="E20" s="259"/>
+      <c r="F20" s="259"/>
+      <c r="G20" s="219" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="217"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="181" t="s">
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="183" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A21" s="208" t="s">
+      <c r="A21" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="217"/>
-      <c r="K21" s="258"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="260"/>
     </row>
     <row r="22" ht="46.95" customHeight="1" spans="1:1">
-      <c r="A22" s="259" t="s">
+      <c r="A22" s="261" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A23" s="260" t="s">
+      <c r="A23" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="261"/>
-      <c r="C23" s="261"/>
-      <c r="D23" s="261"/>
-      <c r="E23" s="261"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="261"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="264"/>
-      <c r="K23" s="264"/>
+      <c r="B23" s="263"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="263"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="266"/>
+      <c r="K23" s="266"/>
     </row>
     <row r="24" ht="16.35"/>
   </sheetData>
@@ -9204,401 +9470,401 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="17.3" style="153" customWidth="1"/>
-    <col min="2" max="2" width="21.7" style="153" customWidth="1"/>
-    <col min="3" max="4" width="20.7" style="153" customWidth="1"/>
-    <col min="5" max="5" width="20" style="153" customWidth="1"/>
-    <col min="6" max="7" width="19" style="153" customWidth="1"/>
-    <col min="8" max="8" width="18.2" style="153" customWidth="1"/>
-    <col min="9" max="9" width="20.6" style="153" customWidth="1"/>
-    <col min="10" max="11" width="20.7" style="153" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="153"/>
+    <col min="1" max="1" width="17.3" style="155" customWidth="1"/>
+    <col min="2" max="2" width="21.7" style="155" customWidth="1"/>
+    <col min="3" max="4" width="20.7" style="155" customWidth="1"/>
+    <col min="5" max="5" width="20" style="155" customWidth="1"/>
+    <col min="6" max="7" width="19" style="155" customWidth="1"/>
+    <col min="8" max="8" width="18.2" style="155" customWidth="1"/>
+    <col min="9" max="9" width="20.6" style="155" customWidth="1"/>
+    <col min="10" max="11" width="20.7" style="155" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="155"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="E1" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="155" t="s">
+      <c r="I1" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="157" t="s">
+      <c r="E2" s="159" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:11">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="192"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="194"/>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:11">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="193"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="193"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:11">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="193"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:11">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="193"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:11">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="193"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:11">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="159"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="193"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="194"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="196"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="159"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="195"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="197"/>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="176"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="178"/>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="171" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="172" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="174"/>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:11">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="171" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="199"/>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="180"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="182"/>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="179" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="174"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="176"/>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="171" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="200"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="202"/>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="172" t="s">
+      <c r="D19" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="172" t="s">
+      <c r="F19" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="202"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="204"/>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="182"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A21" s="169" t="s">
+      <c r="A21" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="183"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="185"/>
     </row>
     <row r="22" ht="46.95" customHeight="1" spans="1:1">
-      <c r="A22" s="186" t="s">
+      <c r="A22" s="188" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="203"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
     </row>
     <row r="24" ht="16.35"/>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10584" tabRatio="500" firstSheet="11" activeTab="14"/>
+    <workbookView windowWidth="22943" windowHeight="10584" tabRatio="500" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="7-25" sheetId="1" r:id="rId1"/>
@@ -5523,7 +5523,7 @@
   <dimension ref="A1:XFA1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5534,7 +5534,9 @@
     <col min="4" max="4" width="20.7" style="12" customWidth="1"/>
     <col min="5" max="5" width="22.4" style="12" customWidth="1"/>
     <col min="6" max="6" width="22.7" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="12"/>
+    <col min="7" max="7" width="11" style="12"/>
+    <col min="8" max="8" width="11.7" style="12"/>
+    <col min="9" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:16381">
@@ -5543,29 +5545,29 @@
       </c>
       <c r="B1" s="14">
         <f>H1</f>
-        <v>43052</v>
+        <v>43115</v>
       </c>
       <c r="C1" s="14">
         <f>B1+1</f>
-        <v>43053</v>
+        <v>43116</v>
       </c>
       <c r="D1" s="14">
         <f>C1+1</f>
-        <v>43054</v>
+        <v>43117</v>
       </c>
       <c r="E1" s="14">
         <f>D1+1</f>
-        <v>43055</v>
+        <v>43118</v>
       </c>
       <c r="F1" s="14">
         <f>E1+1</f>
-        <v>43056</v>
+        <v>43119</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>236</v>
       </c>
       <c r="H1" s="16">
-        <v>43052</v>
+        <v>43115</v>
       </c>
       <c r="XFA1" s="24" t="s">
         <v>237</v>
@@ -5956,8 +5958,8 @@
   <sheetPr/>
   <dimension ref="A1:XFB1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5976,17 +5978,17 @@
       </c>
       <c r="B1" s="14">
         <f>E1</f>
-        <v>43057</v>
+        <v>43120</v>
       </c>
       <c r="C1" s="14">
         <f>B1+1</f>
-        <v>43058</v>
+        <v>43121</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>236</v>
       </c>
       <c r="E1" s="16">
-        <v>43057</v>
+        <v>43120</v>
       </c>
       <c r="XEX1" s="24"/>
       <c r="XFB1" s="12" t="s">
@@ -6560,8 +6562,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10584" tabRatio="500" firstSheet="10" activeTab="12"/>
+    <workbookView windowWidth="22943" windowHeight="10584" tabRatio="500" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="7-25" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,16 @@
     <sheet name="no school weekday plan" sheetId="14" r:id="rId12"/>
     <sheet name="weekend 2017" sheetId="12" r:id="rId13"/>
     <sheet name="task 2017" sheetId="13" r:id="rId14"/>
-    <sheet name="Sheet5" sheetId="15" r:id="rId15"/>
+    <sheet name="18 01 13" sheetId="15" r:id="rId15"/>
+    <sheet name="18 01 20" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
   <si>
     <t xml:space="preserve">         Date
          Day
@@ -1195,6 +1197,42 @@
   <si>
     <t>try to find something to do,finish things ahead of time(like autonomous code)
 start building my own robot</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>more efficenty</t>
+  </si>
+  <si>
+    <t>next week finish all</t>
+  </si>
+  <si>
+    <t>tuesday go try issac's training</t>
+  </si>
+  <si>
+    <t>read hero stories</t>
+  </si>
+  <si>
+    <t>try to find a way to recite</t>
+  </si>
+  <si>
+    <t>put books unused on shelf</t>
+  </si>
+  <si>
+    <t>jump over 180 in 1m</t>
+  </si>
+  <si>
+    <t>finish paddington bear+1 story from o'henry and read dominique maceau</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>know how taegeuk 2 jang looks like</t>
+  </si>
+  <si>
+    <t>finish at least the whole sorting the graph elements and do 3 quizes on both websites</t>
   </si>
 </sst>
 </file>
@@ -1202,9 +1240,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="69">
@@ -1637,22 +1675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1666,6 +1689,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1674,15 +1711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1691,6 +1721,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1886,13 +1924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,7 +1948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,13 +1978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,7 +1996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,31 +2014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,31 +3028,31 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="62" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3025,30 +3063,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="10" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -3056,7 +3094,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3068,22 +3106,22 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3094,30 +3132,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
@@ -4682,144 +4725,144 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:8">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="358" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="356">
+      <c r="B1" s="359">
         <v>42576</v>
       </c>
-      <c r="C1" s="356">
+      <c r="C1" s="359">
         <f t="shared" ref="C1:H1" si="0">B1+1</f>
         <v>42577</v>
       </c>
-      <c r="D1" s="356">
+      <c r="D1" s="359">
         <f t="shared" si="0"/>
         <v>42578</v>
       </c>
-      <c r="E1" s="356">
+      <c r="E1" s="359">
         <f t="shared" si="0"/>
         <v>42579</v>
       </c>
-      <c r="F1" s="356">
+      <c r="F1" s="359">
         <f t="shared" si="0"/>
         <v>42580</v>
       </c>
-      <c r="G1" s="356">
+      <c r="G1" s="359">
         <f t="shared" si="0"/>
         <v>42581</v>
       </c>
-      <c r="H1" s="356">
+      <c r="H1" s="359">
         <f t="shared" si="0"/>
         <v>42582</v>
       </c>
     </row>
     <row r="2" ht="29.4" customHeight="1" spans="1:8">
-      <c r="A2" s="357"/>
-      <c r="B2" s="358" t="s">
+      <c r="A2" s="360"/>
+      <c r="B2" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="358" t="s">
+      <c r="C2" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="358" t="s">
+      <c r="D2" s="361" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="358" t="s">
+      <c r="E2" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="358" t="s">
+      <c r="F2" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="358" t="s">
+      <c r="G2" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="358" t="s">
+      <c r="H2" s="361" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="361" t="s">
+      <c r="B3" s="363"/>
+      <c r="C3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="360"/>
-      <c r="E3" s="361" t="s">
+      <c r="D3" s="363"/>
+      <c r="E3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="360"/>
-      <c r="G3" s="361" t="s">
+      <c r="F3" s="363"/>
+      <c r="G3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="360"/>
+      <c r="H3" s="363"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:10">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="360"/>
-      <c r="C4" s="362" t="s">
+      <c r="B4" s="363"/>
+      <c r="C4" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="360"/>
-      <c r="E4" s="362" t="s">
+      <c r="D4" s="363"/>
+      <c r="E4" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="362" t="s">
+      <c r="F4" s="363"/>
+      <c r="G4" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="360"/>
+      <c r="H4" s="363"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="34.95" customHeight="1" spans="1:10">
-      <c r="A5" s="359" t="s">
+      <c r="A5" s="362" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="353"/>
-      <c r="C5" s="362" t="s">
+      <c r="B5" s="356"/>
+      <c r="C5" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="360"/>
-      <c r="E5" s="362" t="s">
+      <c r="D5" s="363"/>
+      <c r="E5" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="360"/>
-      <c r="G5" s="362" t="s">
+      <c r="F5" s="363"/>
+      <c r="G5" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="360"/>
+      <c r="H5" s="363"/>
       <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="37.2" customHeight="1" spans="1:10">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="363" t="s">
+      <c r="B6" s="366" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="364" t="s">
+      <c r="C6" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="365" t="s">
+      <c r="D6" s="368" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="364" t="s">
+      <c r="E6" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="365" t="s">
+      <c r="F6" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="364" t="s">
+      <c r="G6" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="363" t="s">
+      <c r="H6" s="366" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
@@ -4827,68 +4870,68 @@
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" spans="1:10">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="362" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="363" t="s">
+      <c r="B7" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="364" t="s">
+      <c r="C7" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="366" t="s">
+      <c r="D7" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="364" t="s">
+      <c r="E7" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="367" t="s">
+      <c r="F7" s="370" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="364" t="s">
+      <c r="G7" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="360"/>
+      <c r="H7" s="363"/>
       <c r="J7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="34.2" customHeight="1" spans="1:10">
-      <c r="A8" s="359" t="s">
+      <c r="A8" s="362" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="360"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
-      <c r="G8" s="360"/>
-      <c r="H8" s="360"/>
+      <c r="B8" s="363"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
+      <c r="G8" s="363"/>
+      <c r="H8" s="363"/>
       <c r="J8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="34.95" customHeight="1" spans="1:10">
-      <c r="A9" s="359" t="s">
+      <c r="A9" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="361" t="s">
+      <c r="B9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="361" t="s">
+      <c r="C9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="361" t="s">
+      <c r="D9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="360"/>
-      <c r="F9" s="368" t="s">
+      <c r="E9" s="363"/>
+      <c r="F9" s="371" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="361" t="s">
+      <c r="G9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="361" t="s">
+      <c r="H9" s="364" t="s">
         <v>30</v>
       </c>
       <c r="J9" t="s">
@@ -4896,130 +4939,130 @@
       </c>
     </row>
     <row r="10" ht="31.95" customHeight="1" spans="1:8">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="369" t="s">
+      <c r="B10" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="362" t="s">
+      <c r="C10" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="369" t="s">
+      <c r="D10" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="365" t="s">
+      <c r="E10" s="368" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="367" t="s">
+      <c r="F10" s="370" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="362" t="s">
+      <c r="G10" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="362" t="s">
+      <c r="H10" s="365" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:8">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="362" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="369" t="s">
+      <c r="B11" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="367" t="s">
+      <c r="C11" s="370" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="369" t="s">
+      <c r="D11" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="363" t="s">
+      <c r="E11" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
-      <c r="H11" s="360"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="363"/>
+      <c r="H11" s="363"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:8">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="362" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="360"/>
-      <c r="C12" s="363" t="s">
+      <c r="B12" s="363"/>
+      <c r="C12" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="360"/>
-      <c r="E12" s="365" t="s">
+      <c r="D12" s="363"/>
+      <c r="E12" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="361" t="s">
+      <c r="F12" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="360"/>
-      <c r="H12" s="360"/>
+      <c r="G12" s="363"/>
+      <c r="H12" s="363"/>
     </row>
     <row r="13" ht="31.95" customHeight="1" spans="1:8">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="362" t="s">
+      <c r="B13" s="365" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="360"/>
-      <c r="D13" s="363" t="s">
+      <c r="C13" s="363"/>
+      <c r="D13" s="366" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="360"/>
-      <c r="F13" s="366" t="s">
+      <c r="E13" s="363"/>
+      <c r="F13" s="369" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="360"/>
-      <c r="H13" s="360"/>
+      <c r="G13" s="363"/>
+      <c r="H13" s="363"/>
     </row>
     <row r="14" ht="37.2" customHeight="1" spans="1:8">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="362" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="366" t="s">
+      <c r="B14" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="363" t="s">
+      <c r="C14" s="366" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="360"/>
-      <c r="E14" s="366" t="s">
+      <c r="D14" s="363"/>
+      <c r="E14" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="366" t="s">
+      <c r="F14" s="369" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="360"/>
-      <c r="H14" s="360"/>
+      <c r="G14" s="363"/>
+      <c r="H14" s="363"/>
     </row>
     <row r="15" ht="40.2" customHeight="1" spans="1:8">
-      <c r="A15" s="359" t="s">
+      <c r="A15" s="362" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="360"/>
-      <c r="C15" s="360"/>
-      <c r="D15" s="360"/>
-      <c r="E15" s="360"/>
-      <c r="F15" s="360"/>
-      <c r="G15" s="360"/>
-      <c r="H15" s="360"/>
+      <c r="B15" s="363"/>
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="363"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="363"/>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A16" s="359" t="s">
+      <c r="A16" s="362" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="360"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="360"/>
-      <c r="E16" s="360"/>
-      <c r="F16" s="360"/>
-      <c r="G16" s="360"/>
-      <c r="H16" s="360"/>
+      <c r="B16" s="363"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="363"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5042,459 +5085,459 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="17.3" style="82" customWidth="1"/>
-    <col min="2" max="2" width="21.7" style="82" customWidth="1"/>
-    <col min="3" max="4" width="20.7" style="82" customWidth="1"/>
-    <col min="5" max="5" width="20" style="82" customWidth="1"/>
-    <col min="6" max="7" width="19" style="82" customWidth="1"/>
-    <col min="8" max="8" width="18.2" style="82" customWidth="1"/>
-    <col min="9" max="9" width="20.6" style="82" customWidth="1"/>
-    <col min="10" max="11" width="20.7" style="83" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="82"/>
+    <col min="1" max="1" width="17.3" style="85" customWidth="1"/>
+    <col min="2" max="2" width="21.7" style="85" customWidth="1"/>
+    <col min="3" max="4" width="20.7" style="85" customWidth="1"/>
+    <col min="5" max="5" width="20" style="85" customWidth="1"/>
+    <col min="6" max="7" width="19" style="85" customWidth="1"/>
+    <col min="8" max="8" width="18.2" style="85" customWidth="1"/>
+    <col min="9" max="9" width="20.6" style="85" customWidth="1"/>
+    <col min="10" max="11" width="20.7" style="86" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="85"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:11">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="89" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="135"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="138"/>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:11">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="137"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="140"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="100" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="137"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="140"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:11">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="89" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:11">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="101" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="137"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="140"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:11">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="101" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:11">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="102" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="96"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="137"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="140"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="103" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="139" t="s">
+      <c r="I11" s="142" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="136"/>
-      <c r="K11" s="140"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="143"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="104" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="141"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="142"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="145"/>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="128"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="143"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="146"/>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="I14" s="144"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="144"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="147"/>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:11">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="146"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="149"/>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="147"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="150"/>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="113" t="s">
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="145"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="148"/>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="113" t="s">
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="147"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A19" s="89"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="113" t="s">
+      <c r="A19" s="92"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="I19" s="144"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="156"/>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="113" t="s">
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="123"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="126"/>
     </row>
     <row r="21" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="113" t="s">
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="125"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="128"/>
     </row>
     <row r="22" ht="46.95" customHeight="1" spans="1:1">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="108" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5523,269 +5566,267 @@
   <dimension ref="A1:XFA1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.3" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.6" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.7" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.4" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11" style="12"/>
-    <col min="8" max="8" width="11.7" style="12"/>
-    <col min="9" max="16384" width="11" style="12"/>
+    <col min="1" max="1" width="16.3" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="31.6" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.7" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.4" style="15" customWidth="1"/>
+    <col min="6" max="6" width="22.7" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:16381">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="17">
         <f>H1</f>
-        <v>43115</v>
-      </c>
-      <c r="C1" s="14">
+        <v>43052</v>
+      </c>
+      <c r="C1" s="17">
         <f>B1+1</f>
-        <v>43116</v>
-      </c>
-      <c r="D1" s="14">
+        <v>43053</v>
+      </c>
+      <c r="D1" s="17">
         <f>C1+1</f>
-        <v>43117</v>
-      </c>
-      <c r="E1" s="14">
+        <v>43054</v>
+      </c>
+      <c r="E1" s="17">
         <f>D1+1</f>
-        <v>43118</v>
-      </c>
-      <c r="F1" s="14">
+        <v>43055</v>
+      </c>
+      <c r="F1" s="17">
         <f>E1+1</f>
-        <v>43119</v>
-      </c>
-      <c r="G1" s="15" t="s">
+        <v>43056</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="16">
-        <v>43115</v>
-      </c>
-      <c r="XFA1" s="24" t="s">
+      <c r="H1" s="19">
+        <v>43052</v>
+      </c>
+      <c r="XFA1" s="27" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" ht="35.4" customHeight="1" spans="1:9">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21">
         <f>WEEKDAY(B1,11)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="21">
         <f>WEEKDAY(C1,11)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="21">
         <f>WEEKDAY(D1,11)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="21">
         <f>WEEKDAY(E1,11)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="21">
         <f>WEEKDAY(F1,11)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="22" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="15" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="12" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="15" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="12" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="15" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" ht="37.2" customHeight="1" spans="1:7">
-      <c r="A6" s="46"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="12" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="15" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" ht="31.95" customHeight="1" spans="1:7">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" ht="46.5" customHeight="1" spans="1:6">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:6">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" ht="49.5" customHeight="1" spans="1:4">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" ht="48.75" customHeight="1" spans="1:3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" ht="41.25" customHeight="1" spans="1:6">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" ht="42.75" customHeight="1" spans="1:6">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" ht="43.5" customHeight="1" spans="1:6">
-      <c r="A15" s="370" t="s">
+      <c r="A15" s="373" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
     </row>
     <row r="1048569" spans="1:16381">
-      <c r="A1048569" s="24"/>
-      <c r="XFA1048569" s="24" t="s">
+      <c r="A1048569" s="27"/>
+      <c r="XFA1048569" s="27" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="1048576" spans="1:1">
-      <c r="A1048576" s="12" t="s">
+      <c r="A1048576" s="15" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5832,114 +5873,114 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2" style="43" customWidth="1"/>
-    <col min="2" max="2" width="30" style="43" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="43" customWidth="1"/>
-    <col min="4" max="4" width="17.9" style="43" customWidth="1"/>
-    <col min="5" max="16384" width="8.9" style="43"/>
+    <col min="1" max="1" width="21.2" style="46" customWidth="1"/>
+    <col min="2" max="2" width="30" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.9" style="46" customWidth="1"/>
+    <col min="5" max="16384" width="8.9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" ht="56.25" customHeight="1" spans="1:2">
-      <c r="A2" s="371" t="s">
+      <c r="A2" s="374" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="3" ht="63.75" customHeight="1" spans="1:4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" ht="62.25" customHeight="1" spans="1:4">
-      <c r="A5" s="370" t="s">
+      <c r="A5" s="373" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" ht="54" customHeight="1" spans="1:4">
-      <c r="A6" s="370" t="s">
+      <c r="A6" s="373" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" ht="56.25" customHeight="1" spans="1:4">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="373" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" ht="60" customHeight="1" spans="1:4">
-      <c r="A8" s="372" t="s">
+      <c r="A8" s="375" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:4">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="375" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" ht="60" customHeight="1" spans="1:2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="1:2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5958,178 +5999,178 @@
   <sheetPr/>
   <dimension ref="A1:XFB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.7" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.8" style="12" customWidth="1"/>
-    <col min="3" max="4" width="19" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.2" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.8" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="12"/>
+    <col min="1" max="1" width="20.7" style="15" customWidth="1"/>
+    <col min="2" max="2" width="31.8" style="15" customWidth="1"/>
+    <col min="3" max="4" width="19" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.2" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.8" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:16382">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="17">
         <f>E1</f>
-        <v>43120</v>
-      </c>
-      <c r="C1" s="14">
+        <v>43057</v>
+      </c>
+      <c r="C1" s="17">
         <f>B1+1</f>
-        <v>43121</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>43058</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="16">
-        <v>43120</v>
-      </c>
-      <c r="XEX1" s="24"/>
-      <c r="XFB1" s="12" t="s">
+      <c r="E1" s="19">
+        <v>43057</v>
+      </c>
+      <c r="XEX1" s="27"/>
+      <c r="XFB1" s="15" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" ht="35.4" customHeight="1" spans="1:6">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21">
         <f>WEEKDAY(B1,11)</f>
         <v>6</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="21">
         <f>WEEKDAY(C1,11)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="376" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="12" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="15" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" ht="34.95" customHeight="1" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" ht="37.2" customHeight="1" spans="1:3">
-      <c r="A6" s="370" t="s">
+      <c r="A6" s="373" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="7" ht="34.2" customHeight="1" spans="1:3">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="373" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" ht="34.2" customHeight="1" spans="1:3">
-      <c r="A8" s="370" t="s">
+      <c r="A8" s="373" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="40" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" ht="34.95" customHeight="1" spans="1:3">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="375" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" ht="31.95" customHeight="1" spans="1:3">
-      <c r="A10" s="372" t="s">
+      <c r="A10" s="375" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="42"/>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" ht="31.95" customHeight="1" spans="1:3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="45"/>
     </row>
     <row r="14" ht="37.2" customHeight="1" spans="1:3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
     </row>
     <row r="15" ht="40.2" customHeight="1" spans="1:3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
     </row>
     <row r="16" ht="46.2" customHeight="1"/>
     <row r="1048576" spans="16381:16382">
-      <c r="XFA1048576" s="24"/>
-      <c r="XFB1048576" s="12" t="s">
+      <c r="XFA1048576" s="27"/>
+      <c r="XFB1048576" s="15" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6156,394 +6197,396 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="89.4" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.6" style="3" customWidth="1"/>
-    <col min="5" max="12" width="8" style="3"/>
-    <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="16383" width="8" style="3"/>
-    <col min="16384" max="16384" width="4.4" style="3" customWidth="1"/>
+    <col min="1" max="2" width="25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="109.3" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.6" style="6" customWidth="1"/>
+    <col min="5" max="12" width="8" style="6"/>
+    <col min="13" max="13" width="10" style="6" customWidth="1"/>
+    <col min="14" max="16383" width="8" style="6"/>
+    <col min="16384" max="16384" width="4.4" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="XFD1" s="3" t="s">
+      <c r="XFD1" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" hidden="1" spans="1:16">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="12" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="11" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="1048576" spans="1:16384">
-      <c r="A1048576" s="3" t="s">
+      <c r="A1048576" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="XFD1048576" s="3" t="s">
+      <c r="XFD1048576" s="6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6563,210 +6606,463 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.6" customWidth="1"/>
-    <col min="2" max="2" width="36.6" customWidth="1"/>
-    <col min="3" max="3" width="15.6" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="12.9" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" ht="234" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.9" customWidth="1"/>
+    <col min="2" max="2" width="8.8" style="1"/>
+    <col min="4" max="4" width="20.8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.2" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" ht="62.4" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" ht="31.2" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="46.8" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" ht="31.2" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="46.8" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" ht="62.4" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="156" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" ht="78" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="31.2" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D12" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="13" ht="187.2" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" ht="234" spans="1:5">
-      <c r="A13" t="s">
+      <c r="E13" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" ht="234" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>386</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -6784,326 +7080,326 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="358" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="356">
+      <c r="B1" s="359">
         <v>42576</v>
       </c>
-      <c r="C1" s="356">
+      <c r="C1" s="359">
         <f t="shared" ref="C1:H1" si="0">B1+1</f>
         <v>42577</v>
       </c>
-      <c r="D1" s="356">
+      <c r="D1" s="359">
         <f t="shared" si="0"/>
         <v>42578</v>
       </c>
-      <c r="E1" s="356">
+      <c r="E1" s="359">
         <f t="shared" si="0"/>
         <v>42579</v>
       </c>
-      <c r="F1" s="356">
+      <c r="F1" s="359">
         <f t="shared" si="0"/>
         <v>42580</v>
       </c>
-      <c r="G1" s="356">
+      <c r="G1" s="359">
         <f t="shared" si="0"/>
         <v>42581</v>
       </c>
-      <c r="H1" s="356">
+      <c r="H1" s="359">
         <f t="shared" si="0"/>
         <v>42582</v>
       </c>
     </row>
     <row r="2" ht="31.95" customHeight="1" spans="1:8">
-      <c r="A2" s="357"/>
-      <c r="B2" s="358" t="s">
+      <c r="A2" s="360"/>
+      <c r="B2" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="358" t="s">
+      <c r="C2" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="358" t="s">
+      <c r="D2" s="361" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="358" t="s">
+      <c r="E2" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="358" t="s">
+      <c r="F2" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="358" t="s">
+      <c r="G2" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="358" t="s">
+      <c r="H2" s="361" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="361" t="s">
+      <c r="B3" s="363"/>
+      <c r="C3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="360"/>
-      <c r="E3" s="361" t="s">
+      <c r="D3" s="363"/>
+      <c r="E3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="360"/>
-      <c r="G3" s="361" t="s">
+      <c r="F3" s="363"/>
+      <c r="G3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="360"/>
+      <c r="H3" s="363"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="360"/>
-      <c r="C4" s="362" t="s">
+      <c r="B4" s="363"/>
+      <c r="C4" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="360"/>
-      <c r="E4" s="362" t="s">
+      <c r="D4" s="363"/>
+      <c r="E4" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="362" t="s">
+      <c r="F4" s="363"/>
+      <c r="G4" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="360"/>
+      <c r="H4" s="363"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="359" t="s">
+      <c r="A5" s="362" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="353"/>
-      <c r="C5" s="362" t="s">
+      <c r="B5" s="356"/>
+      <c r="C5" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="360"/>
-      <c r="E5" s="362" t="s">
+      <c r="D5" s="363"/>
+      <c r="E5" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="360"/>
-      <c r="G5" s="362" t="s">
+      <c r="F5" s="363"/>
+      <c r="G5" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="360"/>
+      <c r="H5" s="363"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="363" t="s">
+      <c r="B6" s="366" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="364" t="s">
+      <c r="C6" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="365" t="s">
+      <c r="D6" s="368" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="364" t="s">
+      <c r="E6" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="365" t="s">
+      <c r="F6" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="364" t="s">
+      <c r="G6" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="363" t="s">
+      <c r="H6" s="366" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="362" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="363" t="s">
+      <c r="B7" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="364" t="s">
+      <c r="C7" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="366" t="s">
+      <c r="D7" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="364" t="s">
+      <c r="E7" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="367" t="s">
+      <c r="F7" s="370" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="364" t="s">
+      <c r="G7" s="367" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="360"/>
+      <c r="H7" s="363"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="359" t="s">
+      <c r="A8" s="362" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="360"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
-      <c r="G8" s="360"/>
-      <c r="H8" s="360"/>
+      <c r="B8" s="363"/>
+      <c r="C8" s="363"/>
+      <c r="D8" s="363"/>
+      <c r="E8" s="363"/>
+      <c r="F8" s="363"/>
+      <c r="G8" s="363"/>
+      <c r="H8" s="363"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="359" t="s">
+      <c r="A9" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="361" t="s">
+      <c r="B9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="361" t="s">
+      <c r="C9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="361" t="s">
+      <c r="D9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="360"/>
-      <c r="F9" s="368" t="s">
+      <c r="E9" s="363"/>
+      <c r="F9" s="371" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="361" t="s">
+      <c r="G9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="361" t="s">
+      <c r="H9" s="364" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="369" t="s">
+      <c r="B10" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="362" t="s">
+      <c r="C10" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="369" t="s">
+      <c r="D10" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="365" t="s">
+      <c r="E10" s="368" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="367" t="s">
+      <c r="F10" s="370" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="362" t="s">
+      <c r="G10" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="362" t="s">
+      <c r="H10" s="365" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="362" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="369" t="s">
+      <c r="B11" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="367" t="s">
+      <c r="C11" s="370" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="369" t="s">
+      <c r="D11" s="372" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="363" t="s">
+      <c r="E11" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
-      <c r="H11" s="360"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="363"/>
+      <c r="H11" s="363"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="362" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="360"/>
-      <c r="C12" s="363" t="s">
+      <c r="B12" s="363"/>
+      <c r="C12" s="366" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="360"/>
-      <c r="E12" s="365" t="s">
+      <c r="D12" s="363"/>
+      <c r="E12" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="361" t="s">
+      <c r="F12" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="360"/>
-      <c r="H12" s="360"/>
+      <c r="G12" s="363"/>
+      <c r="H12" s="363"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="362" t="s">
+      <c r="B13" s="365" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="360"/>
-      <c r="D13" s="363" t="s">
+      <c r="C13" s="363"/>
+      <c r="D13" s="366" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="360"/>
-      <c r="F13" s="366" t="s">
+      <c r="E13" s="363"/>
+      <c r="F13" s="369" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="360"/>
-      <c r="H13" s="360"/>
+      <c r="G13" s="363"/>
+      <c r="H13" s="363"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="362" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="366" t="s">
+      <c r="B14" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="363" t="s">
+      <c r="C14" s="366" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="360"/>
-      <c r="E14" s="366" t="s">
+      <c r="D14" s="363"/>
+      <c r="E14" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="366" t="s">
+      <c r="F14" s="369" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="360"/>
-      <c r="H14" s="360"/>
+      <c r="G14" s="363"/>
+      <c r="H14" s="363"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="359" t="s">
+      <c r="A15" s="362" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="360"/>
-      <c r="C15" s="360"/>
-      <c r="D15" s="360"/>
-      <c r="E15" s="360"/>
-      <c r="F15" s="360"/>
-      <c r="G15" s="360"/>
-      <c r="H15" s="360"/>
+      <c r="B15" s="363"/>
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="363"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="363"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="359" t="s">
+      <c r="A16" s="362" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="360"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="360"/>
-      <c r="E16" s="360"/>
-      <c r="F16" s="360"/>
-      <c r="G16" s="360"/>
-      <c r="H16" s="360"/>
+      <c r="B16" s="363"/>
+      <c r="C16" s="363"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="363"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7160,256 +7456,256 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="357" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="357" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="354" t="s">
+      <c r="C2" s="357" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="354" t="s">
+      <c r="D2" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="354" t="s">
+      <c r="E2" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="354" t="s">
+      <c r="F2" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="354" t="s">
+      <c r="G2" s="357" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="354" t="s">
+      <c r="H2" s="357" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="42" customHeight="1" spans="1:8">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="357" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354" t="s">
+      <c r="B3" s="357"/>
+      <c r="C3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354" t="s">
+      <c r="D3" s="357"/>
+      <c r="E3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354" t="s">
+      <c r="F3" s="357"/>
+      <c r="G3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="354"/>
+      <c r="H3" s="357"/>
     </row>
     <row r="4" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A4" s="354" t="s">
+      <c r="A4" s="357" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="354"/>
-      <c r="C4" s="354" t="s">
+      <c r="B4" s="357"/>
+      <c r="C4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354" t="s">
+      <c r="D4" s="357"/>
+      <c r="E4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354" t="s">
+      <c r="F4" s="357"/>
+      <c r="G4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="354"/>
+      <c r="H4" s="357"/>
     </row>
     <row r="5" ht="43.95" customHeight="1" spans="1:8">
-      <c r="A5" s="354" t="s">
+      <c r="A5" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="354"/>
-      <c r="C5" s="354" t="s">
+      <c r="B5" s="357"/>
+      <c r="C5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="354"/>
-      <c r="E5" s="354" t="s">
+      <c r="D5" s="357"/>
+      <c r="E5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="354"/>
-      <c r="G5" s="354" t="s">
+      <c r="F5" s="357"/>
+      <c r="G5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="354"/>
+      <c r="H5" s="357"/>
     </row>
     <row r="6" ht="43.2" customHeight="1" spans="1:8">
-      <c r="A6" s="354" t="s">
+      <c r="A6" s="357" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="354"/>
-      <c r="C6" s="354" t="s">
+      <c r="B6" s="357"/>
+      <c r="C6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="354"/>
-      <c r="E6" s="354" t="s">
+      <c r="D6" s="357"/>
+      <c r="E6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354" t="s">
+      <c r="F6" s="357"/>
+      <c r="G6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="354"/>
+      <c r="H6" s="357"/>
     </row>
     <row r="7" ht="40.95" customHeight="1" spans="1:8">
-      <c r="A7" s="354" t="s">
+      <c r="A7" s="357" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="354" t="s">
+      <c r="B7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="354" t="s">
+      <c r="D7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="354" t="s">
+      <c r="E7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="354" t="s">
+      <c r="F7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="354" t="s">
+      <c r="G7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="354" t="s">
+      <c r="H7" s="357" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:8">
-      <c r="A8" s="354" t="s">
+      <c r="A8" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="354" t="s">
+      <c r="B8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="354" t="s">
+      <c r="C8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="354" t="s">
+      <c r="D8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="354" t="s">
+      <c r="E8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="354" t="s">
+      <c r="F8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="354" t="s">
+      <c r="G8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="354" t="s">
+      <c r="H8" s="357" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A9" s="354" t="s">
+      <c r="A9" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="354" t="s">
+      <c r="B9" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="354" t="s">
+      <c r="C9" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="354" t="s">
+      <c r="D9" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="354" t="s">
+      <c r="E9" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="354" t="s">
+      <c r="F9" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="354" t="s">
+      <c r="G9" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="354" t="s">
+      <c r="H9" s="357" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="357" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="354"/>
-      <c r="D10" s="354" t="s">
+      <c r="C10" s="357"/>
+      <c r="D10" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="354"/>
-      <c r="F10" s="354"/>
-      <c r="G10" s="354"/>
-      <c r="H10" s="354"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="357"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
     </row>
     <row r="11" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="357" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="354"/>
-      <c r="C11" s="354"/>
-      <c r="D11" s="354"/>
-      <c r="E11" s="354"/>
-      <c r="F11" s="354"/>
-      <c r="G11" s="354"/>
-      <c r="H11" s="354"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:8">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="354"/>
-      <c r="C12" s="354"/>
-      <c r="D12" s="354"/>
-      <c r="E12" s="354"/>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
+      <c r="B12" s="357"/>
+      <c r="C12" s="357"/>
+      <c r="D12" s="357"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="357"/>
+      <c r="G12" s="357"/>
+      <c r="H12" s="357"/>
     </row>
     <row r="13" ht="36" customHeight="1" spans="1:8">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="357" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="354"/>
-      <c r="C13" s="354"/>
-      <c r="D13" s="354"/>
-      <c r="E13" s="354"/>
-      <c r="F13" s="354"/>
-      <c r="G13" s="354"/>
-      <c r="H13" s="354"/>
+      <c r="B13" s="357"/>
+      <c r="C13" s="357"/>
+      <c r="D13" s="357"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="357"/>
+      <c r="G13" s="357"/>
+      <c r="H13" s="357"/>
     </row>
     <row r="14" ht="31.2" customHeight="1" spans="1:8">
-      <c r="A14" s="354" t="s">
+      <c r="A14" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="354"/>
-      <c r="C14" s="354"/>
-      <c r="D14" s="354"/>
-      <c r="E14" s="354"/>
-      <c r="F14" s="354"/>
-      <c r="G14" s="354"/>
-      <c r="H14" s="354"/>
+      <c r="B14" s="357"/>
+      <c r="C14" s="357"/>
+      <c r="D14" s="357"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="357"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="357"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:8">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="357" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="354"/>
-      <c r="C15" s="354"/>
-      <c r="D15" s="354"/>
-      <c r="E15" s="354"/>
-      <c r="F15" s="354"/>
-      <c r="G15" s="354"/>
-      <c r="H15" s="354"/>
+      <c r="B15" s="357"/>
+      <c r="C15" s="357"/>
+      <c r="D15" s="357"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7464,244 +7760,244 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="357" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="357" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="354" t="s">
+      <c r="C2" s="357" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="354" t="s">
+      <c r="D2" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="354" t="s">
+      <c r="E2" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="354" t="s">
+      <c r="F2" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="354" t="s">
+      <c r="G2" s="357" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="354" t="s">
+      <c r="H2" s="357" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:8">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="357" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354" t="s">
+      <c r="B3" s="357"/>
+      <c r="C3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354" t="s">
+      <c r="D3" s="357"/>
+      <c r="E3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354" t="s">
+      <c r="F3" s="357"/>
+      <c r="G3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="354"/>
+      <c r="H3" s="357"/>
     </row>
     <row r="4" ht="28.95" customHeight="1" spans="1:8">
-      <c r="A4" s="354" t="s">
+      <c r="A4" s="357" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="354"/>
-      <c r="C4" s="354" t="s">
+      <c r="B4" s="357"/>
+      <c r="C4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354" t="s">
+      <c r="D4" s="357"/>
+      <c r="E4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354" t="s">
+      <c r="F4" s="357"/>
+      <c r="G4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="354"/>
+      <c r="H4" s="357"/>
     </row>
     <row r="5" ht="28.95" customHeight="1" spans="1:8">
-      <c r="A5" s="354" t="s">
+      <c r="A5" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="354"/>
-      <c r="C5" s="354" t="s">
+      <c r="B5" s="357"/>
+      <c r="C5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="354"/>
-      <c r="E5" s="354" t="s">
+      <c r="D5" s="357"/>
+      <c r="E5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="354"/>
-      <c r="G5" s="354" t="s">
+      <c r="F5" s="357"/>
+      <c r="G5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="354"/>
+      <c r="H5" s="357"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:8">
-      <c r="A6" s="354" t="s">
+      <c r="A6" s="357" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="354"/>
-      <c r="C6" s="354" t="s">
+      <c r="B6" s="357"/>
+      <c r="C6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="354"/>
-      <c r="E6" s="354" t="s">
+      <c r="D6" s="357"/>
+      <c r="E6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354" t="s">
+      <c r="F6" s="357"/>
+      <c r="G6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="354"/>
+      <c r="H6" s="357"/>
     </row>
     <row r="7" ht="37.95" customHeight="1" spans="1:8">
-      <c r="A7" s="354" t="s">
+      <c r="A7" s="357" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="354" t="s">
+      <c r="B7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="354" t="s">
+      <c r="D7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="354" t="s">
+      <c r="E7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="354" t="s">
+      <c r="F7" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="354"/>
-      <c r="H7" s="354"/>
+      <c r="G7" s="357"/>
+      <c r="H7" s="357"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:8">
-      <c r="A8" s="354" t="s">
+      <c r="A8" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="354" t="s">
+      <c r="B8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="354" t="s">
+      <c r="C8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="354" t="s">
+      <c r="D8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="354" t="s">
+      <c r="E8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="354" t="s">
+      <c r="F8" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="354"/>
-      <c r="H8" s="354"/>
+      <c r="G8" s="357"/>
+      <c r="H8" s="357"/>
     </row>
     <row r="9" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A9" s="354" t="s">
+      <c r="A9" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="354" t="s">
+      <c r="B9" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="354" t="s">
+      <c r="C9" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="354" t="s">
+      <c r="D9" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="354" t="s">
+      <c r="E9" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="354" t="s">
+      <c r="F9" s="357" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="354"/>
-      <c r="H9" s="354"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
     </row>
     <row r="10" ht="34.2" customHeight="1" spans="1:8">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="357" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="354"/>
-      <c r="D10" s="354" t="s">
+      <c r="C10" s="357"/>
+      <c r="D10" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="354"/>
-      <c r="F10" s="354"/>
-      <c r="G10" s="354"/>
-      <c r="H10" s="354"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="357"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
     </row>
     <row r="11" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="357" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="354"/>
-      <c r="C11" s="354"/>
-      <c r="D11" s="354"/>
-      <c r="E11" s="354"/>
-      <c r="F11" s="354"/>
-      <c r="G11" s="354"/>
-      <c r="H11" s="354"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
     </row>
     <row r="12" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="354"/>
-      <c r="C12" s="354"/>
-      <c r="D12" s="354"/>
-      <c r="E12" s="354"/>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
+      <c r="B12" s="357"/>
+      <c r="C12" s="357"/>
+      <c r="D12" s="357"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="357"/>
+      <c r="G12" s="357"/>
+      <c r="H12" s="357"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:8">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="357" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="354"/>
-      <c r="C13" s="354"/>
-      <c r="D13" s="354"/>
-      <c r="E13" s="354"/>
-      <c r="F13" s="354"/>
-      <c r="G13" s="354"/>
-      <c r="H13" s="354"/>
+      <c r="B13" s="357"/>
+      <c r="C13" s="357"/>
+      <c r="D13" s="357"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="357"/>
+      <c r="G13" s="357"/>
+      <c r="H13" s="357"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:8">
-      <c r="A14" s="354" t="s">
+      <c r="A14" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="354"/>
-      <c r="C14" s="354"/>
-      <c r="D14" s="354"/>
-      <c r="E14" s="354"/>
-      <c r="F14" s="354"/>
-      <c r="G14" s="354"/>
-      <c r="H14" s="354"/>
+      <c r="B14" s="357"/>
+      <c r="C14" s="357"/>
+      <c r="D14" s="357"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="357"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="357"/>
     </row>
     <row r="15" ht="34.95" customHeight="1" spans="1:8">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="357" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="354"/>
-      <c r="C15" s="354"/>
-      <c r="D15" s="354"/>
-      <c r="E15" s="354"/>
-      <c r="F15" s="354"/>
-      <c r="G15" s="354"/>
-      <c r="H15" s="354"/>
+      <c r="B15" s="357"/>
+      <c r="C15" s="357"/>
+      <c r="D15" s="357"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7756,218 +8052,218 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="357" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="354" t="s">
+      <c r="B2" s="357" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="354" t="s">
+      <c r="C2" s="357" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="354" t="s">
+      <c r="D2" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="354" t="s">
+      <c r="E2" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="354" t="s">
+      <c r="F2" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="354" t="s">
+      <c r="G2" s="357" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="354" t="s">
+      <c r="H2" s="357" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="357" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354" t="s">
+      <c r="B3" s="357"/>
+      <c r="C3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354" t="s">
+      <c r="D3" s="357"/>
+      <c r="E3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354" t="s">
+      <c r="F3" s="357"/>
+      <c r="G3" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="354"/>
+      <c r="H3" s="357"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="354" t="s">
+      <c r="A4" s="357" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="354"/>
-      <c r="C4" s="354" t="s">
+      <c r="B4" s="357"/>
+      <c r="C4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354" t="s">
+      <c r="D4" s="357"/>
+      <c r="E4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354" t="s">
+      <c r="F4" s="357"/>
+      <c r="G4" s="357" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="354"/>
+      <c r="H4" s="357"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="354" t="s">
+      <c r="A5" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="354"/>
-      <c r="C5" s="354" t="s">
+      <c r="B5" s="357"/>
+      <c r="C5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="354"/>
-      <c r="E5" s="354" t="s">
+      <c r="D5" s="357"/>
+      <c r="E5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="354"/>
-      <c r="G5" s="354" t="s">
+      <c r="F5" s="357"/>
+      <c r="G5" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="354"/>
+      <c r="H5" s="357"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="354" t="s">
+      <c r="A6" s="357" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="354"/>
-      <c r="C6" s="354" t="s">
+      <c r="B6" s="357"/>
+      <c r="C6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="354"/>
-      <c r="E6" s="354" t="s">
+      <c r="D6" s="357"/>
+      <c r="E6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354" t="s">
+      <c r="F6" s="357"/>
+      <c r="G6" s="357" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="354"/>
+      <c r="H6" s="357"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="354" t="s">
+      <c r="A7" s="357" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="354"/>
-      <c r="C7" s="354"/>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="354"/>
-      <c r="G7" s="354"/>
-      <c r="H7" s="354"/>
+      <c r="B7" s="357"/>
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="357"/>
+      <c r="G7" s="357"/>
+      <c r="H7" s="357"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="354" t="s">
+      <c r="A8" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="354"/>
-      <c r="C8" s="354"/>
-      <c r="D8" s="354"/>
-      <c r="E8" s="354"/>
-      <c r="F8" s="354"/>
-      <c r="G8" s="354"/>
-      <c r="H8" s="354"/>
+      <c r="B8" s="357"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
+      <c r="G8" s="357"/>
+      <c r="H8" s="357"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="354" t="s">
+      <c r="A9" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="354" t="s">
+      <c r="B9" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="354"/>
-      <c r="D9" s="354" t="s">
+      <c r="C9" s="357"/>
+      <c r="D9" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="354"/>
-      <c r="F9" s="354"/>
-      <c r="G9" s="354"/>
-      <c r="H9" s="354"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="357" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="354"/>
-      <c r="D10" s="354" t="s">
+      <c r="C10" s="357"/>
+      <c r="D10" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="354"/>
-      <c r="F10" s="354"/>
-      <c r="G10" s="354"/>
-      <c r="H10" s="354"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="357"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="357" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="354"/>
-      <c r="C11" s="354"/>
-      <c r="D11" s="354"/>
-      <c r="E11" s="354"/>
-      <c r="F11" s="354"/>
-      <c r="G11" s="354"/>
-      <c r="H11" s="354"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="354"/>
-      <c r="C12" s="354"/>
-      <c r="D12" s="354"/>
-      <c r="E12" s="354"/>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
+      <c r="B12" s="357"/>
+      <c r="C12" s="357"/>
+      <c r="D12" s="357"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="357"/>
+      <c r="G12" s="357"/>
+      <c r="H12" s="357"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="357" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="354"/>
-      <c r="C13" s="354"/>
-      <c r="D13" s="354"/>
-      <c r="E13" s="354"/>
-      <c r="F13" s="354"/>
-      <c r="G13" s="354"/>
-      <c r="H13" s="354"/>
+      <c r="B13" s="357"/>
+      <c r="C13" s="357"/>
+      <c r="D13" s="357"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="357"/>
+      <c r="G13" s="357"/>
+      <c r="H13" s="357"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="354" t="s">
+      <c r="A14" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="354"/>
-      <c r="C14" s="354"/>
-      <c r="D14" s="354"/>
-      <c r="E14" s="354"/>
-      <c r="F14" s="354"/>
-      <c r="G14" s="354"/>
-      <c r="H14" s="354"/>
+      <c r="B14" s="357"/>
+      <c r="C14" s="357"/>
+      <c r="D14" s="357"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="357"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="357"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="357" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="354"/>
-      <c r="C15" s="354"/>
-      <c r="D15" s="354"/>
-      <c r="E15" s="354"/>
-      <c r="F15" s="354"/>
-      <c r="G15" s="354"/>
-      <c r="H15" s="354"/>
+      <c r="B15" s="357"/>
+      <c r="C15" s="357"/>
+      <c r="D15" s="357"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7999,453 +8295,453 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="322" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="207" t="s">
+      <c r="D1" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="209" t="s">
+      <c r="E2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="F2" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="G2" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="267" t="s">
+      <c r="B3" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="320" t="s">
+      <c r="D3" s="323" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="268" t="s">
+      <c r="E3" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="320" t="s">
+      <c r="F3" s="323" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="268" t="s">
+      <c r="G3" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="321"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="271"/>
-      <c r="C4" s="322" t="s">
+      <c r="B4" s="274"/>
+      <c r="C4" s="325" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="323"/>
-      <c r="E4" s="322" t="s">
+      <c r="D4" s="326"/>
+      <c r="E4" s="325" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="323"/>
-      <c r="G4" s="322" t="s">
+      <c r="F4" s="326"/>
+      <c r="G4" s="325" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="321"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="318" t="s">
+      <c r="H4" s="324"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="317"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="268" t="s">
+      <c r="C5" s="327"/>
+      <c r="D5" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="324"/>
-      <c r="F5" s="268" t="s">
+      <c r="E5" s="327"/>
+      <c r="F5" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="324"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="318" t="s">
+      <c r="G5" s="327"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="317"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="278" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="275" t="s">
+      <c r="D6" s="278" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="276" t="s">
+      <c r="E6" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="275" t="s">
+      <c r="F6" s="278" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="276" t="s">
+      <c r="G6" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="325"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="318" t="s">
+      <c r="H6" s="328"/>
+      <c r="I6" s="320"/>
+      <c r="J6" s="321" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="317"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="K6" s="320"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="321"/>
-      <c r="I7" s="317"/>
-      <c r="J7" s="318" t="s">
+      <c r="B7" s="278"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="320"/>
+      <c r="J7" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="317"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="K7" s="320"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="277"/>
-      <c r="C8" s="326" t="s">
+      <c r="B8" s="280"/>
+      <c r="C8" s="329" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="275"/>
-      <c r="E8" s="326" t="s">
+      <c r="D8" s="278"/>
+      <c r="E8" s="329" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="275"/>
-      <c r="G8" s="326" t="s">
+      <c r="F8" s="278"/>
+      <c r="G8" s="329" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="321"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="318" t="s">
+      <c r="H8" s="324"/>
+      <c r="I8" s="320"/>
+      <c r="J8" s="321" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="317"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="K8" s="320"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="210" t="s">
+      <c r="A9" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="327" t="s">
+      <c r="B9" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="327" t="s">
+      <c r="C9" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="327" t="s">
+      <c r="D9" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="327" t="s">
+      <c r="E9" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="327" t="s">
+      <c r="F9" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="327" t="s">
+      <c r="G9" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="317"/>
-      <c r="J9" s="318" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="320"/>
+      <c r="J9" s="321" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="317"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="K9" s="320"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="284" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="328"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="317"/>
-      <c r="J10" s="318" t="s">
+      <c r="C10" s="285"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="331"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="321" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="317"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="K10" s="320"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="281"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="328"/>
-      <c r="H11" s="317"/>
-      <c r="I11" s="349"/>
-      <c r="J11" s="350" t="s">
+      <c r="B11" s="284"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="331"/>
+      <c r="H11" s="320"/>
+      <c r="I11" s="352"/>
+      <c r="J11" s="353" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="349"/>
-      <c r="L11" s="317"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="K11" s="352"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="210" t="s">
+      <c r="A12" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284"/>
-      <c r="D12" s="284"/>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="329"/>
-      <c r="H12" s="317"/>
-      <c r="I12" s="349"/>
-      <c r="J12" s="351" t="s">
+      <c r="B12" s="286"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="352"/>
+      <c r="J12" s="354" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="349"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="K12" s="352"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="288" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="330" t="s">
+      <c r="C13" s="289"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="333" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="331"/>
-      <c r="G13" s="332" t="s">
+      <c r="F13" s="334"/>
+      <c r="G13" s="335" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="332"/>
-      <c r="I13" s="317"/>
-      <c r="J13" s="352" t="s">
+      <c r="H13" s="335"/>
+      <c r="I13" s="320"/>
+      <c r="J13" s="355" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="317"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="K13" s="320"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="336" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="334"/>
-      <c r="D14" s="334"/>
-      <c r="E14" s="335"/>
-      <c r="F14" s="336" t="s">
+      <c r="C14" s="337"/>
+      <c r="D14" s="337"/>
+      <c r="E14" s="338"/>
+      <c r="F14" s="339" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="337" t="s">
+      <c r="G14" s="340" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="317"/>
-      <c r="J14" s="317" t="s">
+      <c r="I14" s="320"/>
+      <c r="J14" s="320" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="317"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="K14" s="320"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="338" t="s">
+      <c r="B15" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="339"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="340"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="342"/>
+      <c r="G15" s="343"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="210" t="s">
+      <c r="A16" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="341" t="s">
+      <c r="B16" s="344" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="342"/>
-      <c r="D16" s="342"/>
-      <c r="E16" s="342"/>
-      <c r="F16" s="342"/>
-      <c r="G16" s="343"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="C16" s="345"/>
+      <c r="D16" s="345"/>
+      <c r="E16" s="345"/>
+      <c r="F16" s="345"/>
+      <c r="G16" s="346"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="261" t="s">
+      <c r="A17" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="344" t="s">
+      <c r="B17" s="347" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="345"/>
-      <c r="D17" s="346" t="s">
+      <c r="C17" s="348"/>
+      <c r="D17" s="349" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="347" t="s">
+      <c r="E17" s="350" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="348" t="s">
+      <c r="F17" s="351" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="348"/>
-      <c r="I17" s="353"/>
-      <c r="J17" s="353"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="353"/>
+      <c r="G17" s="351"/>
+      <c r="I17" s="356"/>
+      <c r="J17" s="356"/>
+      <c r="K17" s="356"/>
+      <c r="L17" s="356"/>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="262" t="s">
+      <c r="A18" s="265" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="316" t="s">
+      <c r="B18" s="319" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="316"/>
-      <c r="D18" s="316" t="s">
+      <c r="C18" s="319"/>
+      <c r="D18" s="319" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="316" t="s">
+      <c r="E18" s="319" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="316" t="s">
+      <c r="F18" s="319" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="316" t="s">
+      <c r="G18" s="319" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8502,376 +8798,376 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:8">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="207" t="s">
+      <c r="D1" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="210" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="207" t="s">
+      <c r="H1" s="210" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="209" t="s">
+      <c r="E2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="F2" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="G2" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="212" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:14">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="213" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="267" t="s">
+      <c r="B3" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="267" t="s">
+      <c r="D3" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="269" t="s">
+      <c r="E3" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="317"/>
-      <c r="N3" s="317"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="320"/>
+      <c r="N3" s="320"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:14">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="271"/>
-      <c r="C4" s="272" t="s">
+      <c r="B4" s="274"/>
+      <c r="C4" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="271"/>
-      <c r="E4" s="273" t="s">
+      <c r="D4" s="274"/>
+      <c r="E4" s="276" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="L4" s="317"/>
-      <c r="M4" s="318" t="s">
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="317"/>
+      <c r="N4" s="320"/>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:14">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="268" t="s">
+      <c r="C5" s="277"/>
+      <c r="D5" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="318" t="s">
+      <c r="E5" s="276"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="276"/>
+      <c r="H5" s="276"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="317"/>
+      <c r="N5" s="320"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:14">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="213" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="278" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="275" t="s">
+      <c r="D6" s="278" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="318" t="s">
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="L6" s="320"/>
+      <c r="M6" s="321" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="317"/>
+      <c r="N6" s="320"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:14">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="273"/>
-      <c r="L7" s="317"/>
-      <c r="M7" s="318" t="s">
+      <c r="B7" s="280"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="L7" s="320"/>
+      <c r="M7" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="317"/>
+      <c r="N7" s="320"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:14">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="279" t="s">
+      <c r="B8" s="282" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="280"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="318" t="s">
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
+      <c r="L8" s="320"/>
+      <c r="M8" s="321" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="317"/>
+      <c r="N8" s="320"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:14">
-      <c r="A9" s="210" t="s">
+      <c r="A9" s="213" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="281"/>
-      <c r="C9" s="282"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
-      <c r="L9" s="317"/>
-      <c r="M9" s="318" t="s">
+      <c r="B9" s="284"/>
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="276"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="276"/>
+      <c r="L9" s="320"/>
+      <c r="M9" s="321" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="317"/>
+      <c r="N9" s="320"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:14">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="213" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="283"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="L10" s="317"/>
-      <c r="M10" s="318" t="s">
+      <c r="B10" s="286"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="L10" s="320"/>
+      <c r="M10" s="321" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="317"/>
+      <c r="N10" s="320"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:14">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="213" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="285" t="s">
+      <c r="B11" s="288" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="286"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="273"/>
-      <c r="L11" s="317"/>
-      <c r="M11" s="317" t="s">
+      <c r="C11" s="289"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="276"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="317"/>
+      <c r="N11" s="320"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:14">
-      <c r="A12" s="210" t="s">
+      <c r="A12" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="288" t="s">
+      <c r="B12" s="291" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="289"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="317" t="s">
+      <c r="C12" s="292"/>
+      <c r="D12" s="293"/>
+      <c r="E12" s="276"/>
+      <c r="F12" s="276"/>
+      <c r="G12" s="276"/>
+      <c r="H12" s="276"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="320" t="s">
         <v>126</v>
       </c>
-      <c r="N12" s="317"/>
+      <c r="N12" s="320"/>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="213" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="291" t="s">
+      <c r="B13" s="294" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="292"/>
-      <c r="D13" s="292"/>
-      <c r="E13" s="292"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="292"/>
-      <c r="H13" s="293"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="295"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="296"/>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:8">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="294" t="s">
+      <c r="B14" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="294"/>
-      <c r="D14" s="294"/>
-      <c r="E14" s="295" t="s">
+      <c r="C14" s="297"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="295"/>
-      <c r="G14" s="296" t="s">
+      <c r="F14" s="298"/>
+      <c r="G14" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="297" t="s">
+      <c r="H14" s="300" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:8">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="298" t="s">
+      <c r="B15" s="301" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="299"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="301" t="s">
+      <c r="C15" s="302"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="304" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="297" t="s">
+      <c r="F15" s="300" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="301" t="s">
+      <c r="G15" s="304" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="302" t="s">
+      <c r="H15" s="305" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A16" s="210" t="s">
+      <c r="A16" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="303" t="s">
+      <c r="B16" s="306" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="304"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="305" t="s">
+      <c r="C16" s="307"/>
+      <c r="D16" s="307"/>
+      <c r="E16" s="308" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="308"/>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:8">
-      <c r="A17" s="210" t="s">
+      <c r="A17" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="306"/>
-      <c r="C17" s="307"/>
-      <c r="D17" s="307"/>
-      <c r="E17" s="308" t="s">
+      <c r="B17" s="309"/>
+      <c r="C17" s="310"/>
+      <c r="D17" s="310"/>
+      <c r="E17" s="311" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="310"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="312"/>
+      <c r="H17" s="313"/>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:8">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="213" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="311"/>
-      <c r="C18" s="312"/>
-      <c r="D18" s="312"/>
-      <c r="E18" s="313" t="s">
+      <c r="B18" s="314"/>
+      <c r="C18" s="315"/>
+      <c r="D18" s="315"/>
+      <c r="E18" s="316" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="314"/>
-      <c r="G18" s="314"/>
-      <c r="H18" s="315"/>
+      <c r="F18" s="317"/>
+      <c r="G18" s="317"/>
+      <c r="H18" s="318"/>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:8">
-      <c r="A19" s="261" t="s">
+      <c r="A19" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:8">
-      <c r="A20" s="262" t="s">
+      <c r="A20" s="265" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="316"/>
-      <c r="C20" s="316"/>
-      <c r="D20" s="316"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="316"/>
+      <c r="B20" s="319"/>
+      <c r="C20" s="319"/>
+      <c r="D20" s="319"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="319"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="319"/>
     </row>
     <row r="21" ht="16.35"/>
   </sheetData>
@@ -8924,501 +9220,501 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="207" t="s">
+      <c r="D1" s="210" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="210" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="207" t="s">
+      <c r="G1" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="207" t="s">
+      <c r="H1" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="207" t="s">
+      <c r="I1" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="207" t="s">
+      <c r="J1" s="210" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="207" t="s">
+      <c r="K1" s="210" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="212" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="209" t="s">
+      <c r="E2" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="F2" s="212" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="G2" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="209" t="s">
+      <c r="I2" s="212" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="209" t="s">
+      <c r="K2" s="212" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:11">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="213" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="212" t="s">
+      <c r="D3" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="213" t="s">
+      <c r="E3" s="216" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="214"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="212" t="s">
+      <c r="F3" s="217"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="170" t="s">
+      <c r="B4" s="219"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="217"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="170" t="s">
+      <c r="E4" s="220"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="168" t="s">
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="171" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:11">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
-      <c r="K5" s="172"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="175"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="213" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="222" t="s">
+      <c r="C6" s="168"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="223"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="172"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="175"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:11">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="213" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="224" t="s">
+      <c r="C7" s="176"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="225"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="172"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="175"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:11">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="227" t="s">
+      <c r="C8" s="176"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="228"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="172"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:11">
-      <c r="A9" s="210" t="s">
+      <c r="A9" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="229" t="s">
+      <c r="C9" s="176"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="232" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="230"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="172"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="175"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:11">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="213" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="231" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="234" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="232"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="172"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="175"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="236" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="235" t="s">
+      <c r="C11" s="176"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="235"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="264"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="267"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="233" t="s">
+      <c r="A12" s="236" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="236"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="211" t="s">
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="214" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A13" s="233" t="s">
+      <c r="A13" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="240" t="s">
+      <c r="C13" s="176"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="243" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="241"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="177" t="s">
+      <c r="F13" s="244"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="180" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="213" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="242" t="s">
+      <c r="C14" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="211" t="s">
+      <c r="D14" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="243" t="s">
+      <c r="E14" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="244"/>
-      <c r="G14" s="173" t="s">
+      <c r="F14" s="247"/>
+      <c r="G14" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="173" t="s">
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="176" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:11">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="222" t="s">
+      <c r="B15" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="177" t="s">
+      <c r="D15" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="242" t="s">
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="245"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="249" t="s">
+      <c r="H15" s="248"/>
+      <c r="I15" s="248"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="252" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A16" s="210" t="s">
+      <c r="A16" s="213" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="246" t="s">
+      <c r="D16" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="173" t="s">
+      <c r="F16" s="251"/>
+      <c r="G16" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="181" t="s">
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="184" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A17" s="210" t="s">
+      <c r="A17" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="249" t="s">
+      <c r="B17" s="252" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="250" t="s">
+      <c r="D17" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="250"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="251" t="s">
+      <c r="E17" s="253"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="252"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="246" t="s">
+      <c r="H17" s="255"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="249" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="173" t="s">
+      <c r="C18" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="253" t="s">
+      <c r="D18" s="256" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="254" t="s">
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="257" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="255"/>
-      <c r="I18" s="255"/>
-      <c r="J18" s="265"/>
-      <c r="K18" s="226" t="s">
+      <c r="H18" s="258"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="268"/>
+      <c r="K18" s="229" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="256" t="s">
+      <c r="B19" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="257" t="s">
+      <c r="D19" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="258"/>
-      <c r="F19" s="258"/>
-      <c r="G19" s="241" t="s">
+      <c r="E19" s="261"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="244" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="256" t="s">
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="259" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A20" s="210" t="s">
+      <c r="A20" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="219" t="s">
+      <c r="C20" s="222" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="259" t="s">
+      <c r="D20" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="259"/>
-      <c r="F20" s="259"/>
-      <c r="G20" s="219" t="s">
+      <c r="E20" s="262"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="222" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="183" t="s">
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="186" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="213" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="260"/>
+      <c r="B21" s="263"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="263"/>
     </row>
     <row r="22" ht="46.95" customHeight="1" spans="1:1">
-      <c r="A22" s="261" t="s">
+      <c r="A22" s="264" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A23" s="262" t="s">
+      <c r="A23" s="265" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="263"/>
-      <c r="C23" s="263"/>
-      <c r="D23" s="263"/>
-      <c r="E23" s="263"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="263"/>
-      <c r="J23" s="266"/>
-      <c r="K23" s="266"/>
+      <c r="B23" s="266"/>
+      <c r="C23" s="266"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="266"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="269"/>
+      <c r="K23" s="269"/>
     </row>
     <row r="24" ht="16.35"/>
   </sheetData>
@@ -9472,401 +9768,401 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="17.3" style="155" customWidth="1"/>
-    <col min="2" max="2" width="21.7" style="155" customWidth="1"/>
-    <col min="3" max="4" width="20.7" style="155" customWidth="1"/>
-    <col min="5" max="5" width="20" style="155" customWidth="1"/>
-    <col min="6" max="7" width="19" style="155" customWidth="1"/>
-    <col min="8" max="8" width="18.2" style="155" customWidth="1"/>
-    <col min="9" max="9" width="20.6" style="155" customWidth="1"/>
-    <col min="10" max="11" width="20.7" style="155" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="155"/>
+    <col min="1" max="1" width="17.3" style="158" customWidth="1"/>
+    <col min="2" max="2" width="21.7" style="158" customWidth="1"/>
+    <col min="3" max="4" width="20.7" style="158" customWidth="1"/>
+    <col min="5" max="5" width="20" style="158" customWidth="1"/>
+    <col min="6" max="7" width="19" style="158" customWidth="1"/>
+    <col min="8" max="8" width="18.2" style="158" customWidth="1"/>
+    <col min="9" max="9" width="20.6" style="158" customWidth="1"/>
+    <col min="10" max="11" width="20.7" style="158" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="158"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="160" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="160" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="160" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="157" t="s">
+      <c r="I1" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" ht="28.95" customHeight="1" spans="1:11">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
     </row>
     <row r="4" ht="25.95" customHeight="1" spans="1:11">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="194"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" ht="31.95" customHeight="1" spans="1:11">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="195"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="198"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="195"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:11">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="195"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="198"/>
     </row>
     <row r="8" ht="40.95" customHeight="1" spans="1:11">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="195"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="198"/>
     </row>
     <row r="9" ht="31.2" customHeight="1" spans="1:11">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="195"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" ht="42.6" customHeight="1" spans="1:11">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="195"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="198"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="161"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="196"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="199"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:11">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="197"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="200"/>
     </row>
     <row r="13" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="169" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="178"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="181"/>
     </row>
     <row r="14" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="177"/>
     </row>
     <row r="15" ht="45.6" customHeight="1" spans="1:11">
-      <c r="A15" s="171" t="s">
+      <c r="A15" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="199"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="202"/>
     </row>
     <row r="16" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="174" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="182"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="185"/>
     </row>
     <row r="17" ht="46.2" customHeight="1" spans="1:11">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="176"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="179"/>
     </row>
     <row r="18" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A18" s="171" t="s">
+      <c r="A18" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="202"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="205"/>
     </row>
     <row r="19" ht="47.4" customHeight="1" spans="1:11">
-      <c r="A19" s="171" t="s">
+      <c r="A19" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="174" t="s">
+      <c r="E19" s="177" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="174" t="s">
+      <c r="F19" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="204"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="207"/>
     </row>
     <row r="20" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A20" s="171" t="s">
+      <c r="A20" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="184"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A21" s="171" t="s">
+      <c r="A21" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="185"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="188"/>
     </row>
     <row r="22" ht="46.95" customHeight="1" spans="1:1">
-      <c r="A22" s="188" t="s">
+      <c r="A22" s="191" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" ht="46.95" customHeight="1" spans="1:11">
-      <c r="A23" s="189" t="s">
+      <c r="A23" s="192" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
     </row>
     <row r="24" ht="16.35"/>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron Liu\Documents\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="10176" tabRatio="500" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="4060" yWindow="2400" windowWidth="22940" windowHeight="10180" tabRatio="500" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="7-25" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,15 @@
     <sheet name="18 02 10" sheetId="18" r:id="rId17"/>
     <sheet name="18 02 24" sheetId="19" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1288,12 +1295,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="61">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3495,6 +3502,48 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="52" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="65" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="75" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="76" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="16" borderId="84" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,46 +3604,19 @@
     <xf numFmtId="0" fontId="47" fillId="17" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="52" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="65" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="8" borderId="75" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="8" borderId="76" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="25" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="40" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3675,19 +3697,79 @@
     <xf numFmtId="0" fontId="48" fillId="7" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="25" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="40" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="23" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="48" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="49" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="50" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="51" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="56" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="41" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="38" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="37" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3696,7 +3778,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="19" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3735,24 +3817,6 @@
     <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="41" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="38" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="9" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3762,15 +3826,9 @@
     <xf numFmtId="0" fontId="39" fillId="18" borderId="44" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="16" borderId="58" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3795,57 +3853,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="56" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="23" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="48" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="49" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="50" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="51" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="9" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3872,6 +3879,27 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="18" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="33" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="34" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3916,27 +3944,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="33" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="34" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4500,7 +4507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
@@ -4509,18 +4516,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.95" customHeight="1">
+    <row r="1" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
@@ -4552,7 +4559,7 @@
         <v>42582</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29.4" customHeight="1">
+    <row r="2" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="191"/>
       <c r="B2" s="176" t="s">
         <v>1</v>
@@ -4576,7 +4583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="177" t="s">
         <v>8</v>
       </c>
@@ -4594,7 +4601,7 @@
       </c>
       <c r="H3" s="178"/>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1">
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="177" t="s">
         <v>10</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1">
+    <row r="5" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="177" t="s">
         <v>13</v>
       </c>
@@ -4636,7 +4643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="37.200000000000003" customHeight="1">
+    <row r="6" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="177" t="s">
         <v>15</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34.200000000000003" customHeight="1">
+    <row r="7" spans="1:10" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="177" t="s">
         <v>22</v>
       </c>
@@ -4692,7 +4699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34.200000000000003" customHeight="1">
+    <row r="8" spans="1:10" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="177" t="s">
         <v>27</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1">
+    <row r="9" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="177" t="s">
         <v>29</v>
       </c>
@@ -4734,7 +4741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.95" customHeight="1">
+    <row r="10" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="177" t="s">
         <v>33</v>
       </c>
@@ -4760,7 +4767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1">
+    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="177" t="s">
         <v>37</v>
       </c>
@@ -4780,7 +4787,7 @@
       <c r="G11" s="178"/>
       <c r="H11" s="178"/>
     </row>
-    <row r="12" spans="1:10" ht="39" customHeight="1">
+    <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="177" t="s">
         <v>38</v>
       </c>
@@ -4798,7 +4805,7 @@
       <c r="G12" s="178"/>
       <c r="H12" s="178"/>
     </row>
-    <row r="13" spans="1:10" ht="31.95" customHeight="1">
+    <row r="13" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="177" t="s">
         <v>39</v>
       </c>
@@ -4816,7 +4823,7 @@
       <c r="G13" s="178"/>
       <c r="H13" s="178"/>
     </row>
-    <row r="14" spans="1:10" ht="37.200000000000003" customHeight="1">
+    <row r="14" spans="1:10" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="177" t="s">
         <v>42</v>
       </c>
@@ -4836,7 +4843,7 @@
       <c r="G14" s="178"/>
       <c r="H14" s="178"/>
     </row>
-    <row r="15" spans="1:10" ht="40.200000000000003" customHeight="1">
+    <row r="15" spans="1:10" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="177" t="s">
         <v>43</v>
       </c>
@@ -4848,7 +4855,7 @@
       <c r="G15" s="178"/>
       <c r="H15" s="178"/>
     </row>
-    <row r="16" spans="1:10" ht="46.2" customHeight="1">
+    <row r="16" spans="1:10" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="177" t="s">
         <v>44</v>
       </c>
@@ -4873,24 +4880,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.296875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" style="36" customWidth="1"/>
-    <col min="3" max="4" width="20.69921875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="36" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="20" style="36" customWidth="1"/>
     <col min="6" max="7" width="19" style="36" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="20.59765625" style="36" customWidth="1"/>
-    <col min="10" max="11" width="20.69921875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="36" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" style="37" customWidth="1"/>
     <col min="12" max="16384" width="11" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.95" customHeight="1">
+    <row r="1" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>71</v>
       </c>
@@ -4921,7 +4928,7 @@
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
         <v>112</v>
       </c>
@@ -4952,19 +4959,19 @@
       <c r="J2" s="69"/>
       <c r="K2" s="69"/>
     </row>
-    <row r="3" spans="1:11" ht="28.95" customHeight="1">
+    <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>189</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="333" t="s">
+      <c r="C3" s="318" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
       <c r="G3" s="45" t="s">
         <v>192</v>
       </c>
@@ -4977,17 +4984,17 @@
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
     </row>
-    <row r="4" spans="1:11" ht="25.95" customHeight="1">
+    <row r="4" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="329" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="324"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="331"/>
       <c r="G4" s="46"/>
       <c r="H4" s="43" t="s">
         <v>195</v>
@@ -4998,15 +5005,15 @@
       <c r="J4" s="73"/>
       <c r="K4" s="74"/>
     </row>
-    <row r="5" spans="1:11" ht="31.95" customHeight="1">
+    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="322"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="326"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="333"/>
       <c r="G5" s="47" t="s">
         <v>198</v>
       </c>
@@ -5017,16 +5024,16 @@
       <c r="J5" s="75"/>
       <c r="K5" s="76"/>
     </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1">
+    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="322"/>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="326"/>
-      <c r="G6" s="318" t="s">
+      <c r="B6" s="329"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="325" t="s">
         <v>199</v>
       </c>
       <c r="H6" s="43" t="s">
@@ -5036,16 +5043,16 @@
       <c r="J6" s="75"/>
       <c r="K6" s="76"/>
     </row>
-    <row r="7" spans="1:11" ht="39" customHeight="1">
+    <row r="7" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="322"/>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="318"/>
+      <c r="B7" s="329"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="325"/>
       <c r="H7" s="43" t="s">
         <v>201</v>
       </c>
@@ -5055,15 +5062,15 @@
       <c r="J7" s="75"/>
       <c r="K7" s="76"/>
     </row>
-    <row r="8" spans="1:11" ht="40.950000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="322"/>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="326"/>
+      <c r="B8" s="329"/>
+      <c r="C8" s="332"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="333"/>
       <c r="G8" s="48" t="s">
         <v>204</v>
       </c>
@@ -5074,15 +5081,15 @@
       <c r="J8" s="75"/>
       <c r="K8" s="76"/>
     </row>
-    <row r="9" spans="1:11" ht="31.2" customHeight="1">
+    <row r="9" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="322"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="326"/>
+      <c r="B9" s="329"/>
+      <c r="C9" s="332"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="333"/>
       <c r="G9" s="48" t="s">
         <v>207</v>
       </c>
@@ -5093,15 +5100,15 @@
       <c r="J9" s="75"/>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:11" ht="42.6" customHeight="1">
+    <row r="10" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="322"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="326"/>
+      <c r="B10" s="329"/>
+      <c r="C10" s="332"/>
+      <c r="D10" s="332"/>
+      <c r="E10" s="332"/>
+      <c r="F10" s="333"/>
       <c r="G10" s="49" t="s">
         <v>209</v>
       </c>
@@ -5112,15 +5119,15 @@
       <c r="J10" s="75"/>
       <c r="K10" s="76"/>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1">
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="322"/>
-      <c r="C11" s="325"/>
-      <c r="D11" s="325"/>
-      <c r="E11" s="325"/>
-      <c r="F11" s="326"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="332"/>
+      <c r="D11" s="332"/>
+      <c r="E11" s="332"/>
+      <c r="F11" s="333"/>
       <c r="G11" s="50" t="s">
         <v>204</v>
       </c>
@@ -5133,15 +5140,15 @@
       <c r="J11" s="75"/>
       <c r="K11" s="79"/>
     </row>
-    <row r="12" spans="1:11" ht="45" customHeight="1">
+    <row r="12" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="322"/>
-      <c r="C12" s="325"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="326"/>
+      <c r="B12" s="329"/>
+      <c r="C12" s="332"/>
+      <c r="D12" s="332"/>
+      <c r="E12" s="332"/>
+      <c r="F12" s="333"/>
       <c r="G12" s="51" t="s">
         <v>213</v>
       </c>
@@ -5152,15 +5159,15 @@
       <c r="J12" s="75"/>
       <c r="K12" s="81"/>
     </row>
-    <row r="13" spans="1:11" ht="46.2" customHeight="1">
+    <row r="13" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="327"/>
-      <c r="C13" s="328"/>
-      <c r="D13" s="328"/>
-      <c r="E13" s="328"/>
-      <c r="F13" s="329"/>
+      <c r="B13" s="334"/>
+      <c r="C13" s="335"/>
+      <c r="D13" s="335"/>
+      <c r="E13" s="335"/>
+      <c r="F13" s="336"/>
       <c r="G13" s="53"/>
       <c r="H13" s="54" t="s">
         <v>100</v>
@@ -5169,16 +5176,16 @@
       <c r="J13" s="75"/>
       <c r="K13" s="82"/>
     </row>
-    <row r="14" spans="1:11" ht="47.4" customHeight="1">
+    <row r="14" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="335" t="s">
+      <c r="B14" s="320" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="335"/>
-      <c r="D14" s="335"/>
-      <c r="E14" s="335"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="56" t="s">
@@ -5188,16 +5195,16 @@
       <c r="J14" s="75"/>
       <c r="K14" s="83"/>
     </row>
-    <row r="15" spans="1:11" ht="45.6" customHeight="1">
+    <row r="15" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B15" s="321" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
-      <c r="E15" s="336"/>
+      <c r="C15" s="321"/>
+      <c r="D15" s="321"/>
+      <c r="E15" s="321"/>
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
       <c r="H15" s="37"/>
@@ -5205,31 +5212,31 @@
       <c r="J15" s="82"/>
       <c r="K15" s="85"/>
     </row>
-    <row r="16" spans="1:11" ht="46.2" customHeight="1">
+    <row r="16" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="337" t="s">
+      <c r="B16" s="322" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="337"/>
-      <c r="D16" s="337"/>
-      <c r="E16" s="337"/>
+      <c r="C16" s="322"/>
+      <c r="D16" s="322"/>
+      <c r="E16" s="322"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="J16" s="75"/>
       <c r="K16" s="86"/>
     </row>
-    <row r="17" spans="1:11" ht="46.2" customHeight="1">
+    <row r="17" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="338" t="s">
+      <c r="B17" s="323" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="338"/>
-      <c r="D17" s="339"/>
-      <c r="E17" s="338"/>
+      <c r="C17" s="323"/>
+      <c r="D17" s="324"/>
+      <c r="E17" s="323"/>
       <c r="F17" s="60"/>
       <c r="G17" s="61"/>
       <c r="H17" s="56" t="s">
@@ -5239,20 +5246,20 @@
       <c r="J17" s="88"/>
       <c r="K17" s="84"/>
     </row>
-    <row r="18" spans="1:11" ht="47.4" customHeight="1">
-      <c r="A18" s="330" t="s">
+    <row r="18" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="337" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="331" t="s">
+      <c r="B18" s="338" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="331" t="s">
+      <c r="C18" s="338" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="331" t="s">
+      <c r="D18" s="338" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="331" t="s">
+      <c r="E18" s="338" t="s">
         <v>226</v>
       </c>
       <c r="F18" s="62"/>
@@ -5264,12 +5271,12 @@
       <c r="J18" s="89"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" ht="47.4" customHeight="1">
-      <c r="A19" s="330"/>
-      <c r="B19" s="332"/>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
+    <row r="19" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="337"/>
+      <c r="B19" s="339"/>
+      <c r="C19" s="339"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="56" t="s">
@@ -5279,17 +5286,17 @@
       <c r="J19" s="91"/>
       <c r="K19" s="92"/>
     </row>
-    <row r="20" spans="1:11" ht="46.95" customHeight="1">
+    <row r="20" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="319" t="s">
+      <c r="B20" s="326" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="319"/>
-      <c r="D20" s="319"/>
-      <c r="E20" s="319"/>
-      <c r="F20" s="319"/>
+      <c r="C20" s="326"/>
+      <c r="D20" s="326"/>
+      <c r="E20" s="326"/>
+      <c r="F20" s="326"/>
       <c r="G20" s="64"/>
       <c r="H20" s="56" t="s">
         <v>230</v>
@@ -5298,15 +5305,15 @@
       <c r="J20" s="75"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="1:11" ht="46.95" customHeight="1">
+    <row r="21" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="320"/>
-      <c r="C21" s="321"/>
-      <c r="D21" s="321"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="321"/>
+      <c r="B21" s="327"/>
+      <c r="C21" s="328"/>
+      <c r="D21" s="328"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="328"/>
       <c r="G21" s="66"/>
       <c r="H21" s="56" t="s">
         <v>232</v>
@@ -5315,12 +5322,12 @@
       <c r="J21" s="75"/>
       <c r="K21" s="65"/>
     </row>
-    <row r="22" spans="1:11" ht="46.95" customHeight="1">
+    <row r="22" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="52" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="46.95" customHeight="1">
+    <row r="23" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="54" t="s">
         <v>234</v>
       </c>
@@ -5335,11 +5342,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B20:F21"/>
     <mergeCell ref="B4:F13"/>
@@ -5348,6 +5350,11 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -5357,56 +5364,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFA1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.296875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="17" customWidth="1"/>
     <col min="2" max="2" width="25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.69921875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="17" customWidth="1"/>
     <col min="7" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9 16381:16381" ht="25.95" customHeight="1">
+    <row r="1" spans="1:9 16381:16381" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="346" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="18">
         <f>H1</f>
-        <v>43157</v>
+        <v>43171</v>
       </c>
       <c r="C1" s="18">
         <f>B1+1</f>
-        <v>43158</v>
+        <v>43172</v>
       </c>
       <c r="D1" s="18">
         <f>C1+1</f>
-        <v>43159</v>
+        <v>43173</v>
       </c>
       <c r="E1" s="18">
         <f>D1+1</f>
-        <v>43160</v>
+        <v>43174</v>
       </c>
       <c r="F1" s="18">
         <f>E1+1</f>
-        <v>43161</v>
+        <v>43175</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>236</v>
       </c>
       <c r="H1" s="20">
-        <v>43157</v>
+        <v>43171</v>
       </c>
       <c r="XFA1" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:9 16381:16381" ht="35.4" customHeight="1">
+    <row r="2" spans="1:9 16381:16381" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="347"/>
       <c r="B2" s="21">
         <f>WEEKDAY(B1,11)</f>
@@ -5438,7 +5445,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:9 16381:16381" ht="30" customHeight="1">
+    <row r="3" spans="1:9 16381:16381" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="348" t="s">
         <v>241</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:9 16381:16381" ht="27" customHeight="1">
+    <row r="4" spans="1:9 16381:16381" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="349"/>
       <c r="B4" s="357"/>
       <c r="C4" s="358"/>
@@ -5464,7 +5471,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:9 16381:16381" ht="34.950000000000003" customHeight="1">
+    <row r="5" spans="1:9 16381:16381" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="350" t="s">
         <v>245</v>
       </c>
@@ -5479,7 +5486,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:9 16381:16381" ht="37.200000000000003" customHeight="1">
+    <row r="6" spans="1:9 16381:16381" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="351"/>
       <c r="B6" s="362" t="s">
         <v>248</v>
@@ -5492,11 +5499,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:9 16381:16381" ht="34.950000000000003" customHeight="1">
+    <row r="7" spans="1:9 16381:16381" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="227" t="s">
         <v>251</v>
       </c>
       <c r="C7" s="363" t="s">
@@ -5511,7 +5518,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:9 16381:16381" ht="31.95" customHeight="1">
+    <row r="8" spans="1:9 16381:16381" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>254</v>
       </c>
@@ -5526,7 +5533,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:9 16381:16381" ht="46.5" customHeight="1">
+    <row r="9" spans="1:9 16381:16381" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>257</v>
       </c>
@@ -5538,7 +5545,7 @@
       <c r="E9" s="368"/>
       <c r="F9" s="354"/>
     </row>
-    <row r="10" spans="1:9 16381:16381" ht="42" customHeight="1">
+    <row r="10" spans="1:9 16381:16381" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>259</v>
       </c>
@@ -5550,7 +5557,7 @@
       <c r="E10" s="340"/>
       <c r="F10" s="340"/>
     </row>
-    <row r="11" spans="1:9 16381:16381" ht="49.5" customHeight="1">
+    <row r="11" spans="1:9 16381:16381" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>260</v>
       </c>
@@ -5564,7 +5571,7 @@
       <c r="E11" s="354"/>
       <c r="F11" s="354"/>
     </row>
-    <row r="12" spans="1:9 16381:16381" ht="48.75" customHeight="1">
+    <row r="12" spans="1:9 16381:16381" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>263</v>
       </c>
@@ -5574,7 +5581,7 @@
       <c r="E12" s="354"/>
       <c r="F12" s="354"/>
     </row>
-    <row r="13" spans="1:9 16381:16381" ht="41.25" customHeight="1">
+    <row r="13" spans="1:9 16381:16381" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>264</v>
       </c>
@@ -5584,7 +5591,7 @@
       <c r="E13" s="359"/>
       <c r="F13" s="359"/>
     </row>
-    <row r="14" spans="1:9 16381:16381" ht="42.75" customHeight="1">
+    <row r="14" spans="1:9 16381:16381" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>265</v>
       </c>
@@ -5596,7 +5603,7 @@
       <c r="E14" s="342"/>
       <c r="F14" s="342"/>
     </row>
-    <row r="15" spans="1:9 16381:16381" ht="43.5" customHeight="1">
+    <row r="15" spans="1:9 16381:16381" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="188" t="s">
         <v>267</v>
       </c>
@@ -5608,13 +5615,13 @@
       <c r="E15" s="344"/>
       <c r="F15" s="345"/>
     </row>
-    <row r="1048569" spans="1:1 16381:16381">
+    <row r="1048569" spans="1:1 16381:16381" x14ac:dyDescent="0.2">
       <c r="A1048569" s="24"/>
       <c r="XFA1048569" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1 16381:16381">
+    <row r="1048576" spans="1:1 16381:16381" x14ac:dyDescent="0.2">
       <c r="A1048576" s="17" t="s">
         <v>237</v>
       </c>
@@ -5654,16 +5661,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="30" style="31" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.8984375" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="8.8984375" style="31"/>
+    <col min="4" max="4" width="17.83203125" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>238</v>
       </c>
@@ -5671,7 +5678,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56.25" customHeight="1">
+    <row r="2" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="369" t="s">
         <v>269</v>
       </c>
@@ -5679,13 +5686,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63.75" customHeight="1">
+    <row r="3" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="351"/>
       <c r="B3" s="371"/>
       <c r="C3" s="24"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1">
+    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>271</v>
       </c>
@@ -5695,7 +5702,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:4" ht="62.25" customHeight="1">
+    <row r="5" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="188" t="s">
         <v>273</v>
       </c>
@@ -5703,7 +5710,7 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:4" ht="54" customHeight="1">
+    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="188" t="s">
         <v>274</v>
       </c>
@@ -5713,7 +5720,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:4" ht="56.25" customHeight="1">
+    <row r="7" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="188" t="s">
         <v>275</v>
       </c>
@@ -5723,7 +5730,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1">
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="189" t="s">
         <v>276</v>
       </c>
@@ -5733,7 +5740,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1">
+    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="189" t="s">
         <v>278</v>
       </c>
@@ -5743,7 +5750,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:4" ht="58.5" customHeight="1">
+    <row r="10" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="374" t="s">
         <v>280</v>
       </c>
@@ -5751,17 +5758,17 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1">
+    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="375"/>
       <c r="B11" s="375"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1">
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="375"/>
       <c r="B12" s="375"/>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="375"/>
       <c r="B13" s="375"/>
     </row>
@@ -5781,43 +5788,43 @@
   <dimension ref="A1:XFB1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="17" customWidth="1"/>
     <col min="3" max="4" width="19" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="17" customWidth="1"/>
     <col min="7" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6 16378:16382" ht="25.95" customHeight="1">
+    <row r="1" spans="1:6 16378:16382" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="346" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="18">
         <f>E1</f>
-        <v>43162</v>
+        <v>43176</v>
       </c>
       <c r="C1" s="18">
         <f>B1+1</f>
-        <v>43163</v>
+        <v>43177</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>236</v>
       </c>
       <c r="E1" s="20">
-        <v>43162</v>
+        <v>43176</v>
       </c>
       <c r="XEX1" s="24"/>
       <c r="XFB1" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:6 16378:16382" ht="35.4" customHeight="1">
+    <row r="2" spans="1:6 16378:16382" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="347"/>
       <c r="B2" s="21">
         <f>WEEKDAY(B1,11)</f>
@@ -5835,7 +5842,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6 16378:16382" ht="30" customHeight="1">
+    <row r="3" spans="1:6 16378:16382" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="380" t="s">
         <v>269</v>
       </c>
@@ -5850,7 +5857,7 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:6 16378:16382" ht="27" customHeight="1">
+    <row r="4" spans="1:6 16378:16382" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="381"/>
       <c r="B4" s="343"/>
       <c r="C4" s="383"/>
@@ -5858,13 +5865,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:6 16378:16382" ht="34.950000000000003" customHeight="1">
+    <row r="5" spans="1:6 16378:16382" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="349"/>
       <c r="B5" s="343"/>
       <c r="C5" s="384"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="1:6 16378:16382" ht="37.200000000000003" customHeight="1">
+    <row r="6" spans="1:6 16378:16382" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="188" t="s">
         <v>285</v>
       </c>
@@ -5873,7 +5880,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6 16378:16382" ht="34.200000000000003" customHeight="1">
+    <row r="7" spans="1:6 16378:16382" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="188" t="s">
         <v>287</v>
       </c>
@@ -5882,7 +5889,7 @@
       </c>
       <c r="C7" s="377"/>
     </row>
-    <row r="8" spans="1:6 16378:16382" ht="34.200000000000003" customHeight="1">
+    <row r="8" spans="1:6 16378:16382" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="188" t="s">
         <v>275</v>
       </c>
@@ -5896,7 +5903,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:6 16378:16382" ht="34.950000000000003" customHeight="1">
+    <row r="9" spans="1:6 16378:16382" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="189" t="s">
         <v>276</v>
       </c>
@@ -5905,7 +5912,7 @@
       </c>
       <c r="C9" s="386"/>
     </row>
-    <row r="10" spans="1:6 16378:16382" ht="31.95" customHeight="1">
+    <row r="10" spans="1:6 16378:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="189" t="s">
         <v>278</v>
       </c>
@@ -5914,7 +5921,7 @@
       </c>
       <c r="C10" s="386"/>
     </row>
-    <row r="11" spans="1:6 16378:16382" ht="39" customHeight="1">
+    <row r="11" spans="1:6 16378:16382" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>291</v>
       </c>
@@ -5923,7 +5930,7 @@
       </c>
       <c r="C11" s="387"/>
     </row>
-    <row r="12" spans="1:6 16378:16382" ht="39" customHeight="1">
+    <row r="12" spans="1:6 16378:16382" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>292</v>
       </c>
@@ -5932,7 +5939,7 @@
       </c>
       <c r="C12" s="379"/>
     </row>
-    <row r="13" spans="1:6 16378:16382" ht="31.95" customHeight="1">
+    <row r="13" spans="1:6 16378:16382" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>293</v>
       </c>
@@ -5941,18 +5948,18 @@
       </c>
       <c r="C13" s="379"/>
     </row>
-    <row r="14" spans="1:6 16378:16382" ht="37.200000000000003" customHeight="1">
+    <row r="14" spans="1:6 16378:16382" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:6 16378:16382" ht="40.200000000000003" customHeight="1">
+    <row r="15" spans="1:6 16378:16382" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:6 16378:16382" ht="46.2" customHeight="1"/>
-    <row r="1048576" spans="16381:16382">
+    <row r="16" spans="1:6 16378:16382" ht="46.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" spans="16381:16382" x14ac:dyDescent="0.2">
       <c r="XFA1048576" s="24"/>
       <c r="XFB1048576" s="17" t="s">
         <v>237</v>
@@ -5978,22 +5985,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="109.296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="109.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="8" customWidth="1"/>
     <col min="5" max="12" width="8" style="8"/>
     <col min="13" max="13" width="10" style="8" customWidth="1"/>
     <col min="14" max="16383" width="8" style="8"/>
-    <col min="16384" max="16384" width="4.3984375" style="8" customWidth="1"/>
+    <col min="16384" max="16384" width="4.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16 16384:16384">
+    <row r="1" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>294</v>
       </c>
@@ -6010,7 +6017,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:16 16384:16384">
+    <row r="2" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -6021,7 +6028,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:16 16384:16384">
+    <row r="3" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>300</v>
       </c>
@@ -6036,7 +6043,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:16 16384:16384">
+    <row r="4" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>303</v>
       </c>
@@ -6051,7 +6058,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:16 16384:16384">
+    <row r="5" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>306</v>
       </c>
@@ -6062,7 +6069,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:16 16384:16384">
+    <row r="6" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>308</v>
       </c>
@@ -6077,7 +6084,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:16 16384:16384" hidden="1">
+    <row r="7" spans="1:16 16384:16384" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>310</v>
       </c>
@@ -6098,7 +6105,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:16 16384:16384">
+    <row r="8" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>313</v>
       </c>
@@ -6119,7 +6126,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16 16384:16384" hidden="1">
+    <row r="9" spans="1:16 16384:16384" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>315</v>
       </c>
@@ -6135,7 +6142,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16 16384:16384">
+    <row r="10" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>317</v>
       </c>
@@ -6152,7 +6159,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16 16384:16384">
+    <row r="11" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>319</v>
       </c>
@@ -6163,7 +6170,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:16 16384:16384">
+    <row r="12" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>321</v>
       </c>
@@ -6175,7 +6182,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:16 16384:16384">
+    <row r="13" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>323</v>
       </c>
@@ -6187,7 +6194,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:16 16384:16384">
+    <row r="14" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>325</v>
       </c>
@@ -6198,7 +6205,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:16 16384:16384">
+    <row r="15" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>261</v>
       </c>
@@ -6212,7 +6219,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:16 16384:16384">
+    <row r="16" spans="1:16 16384:16384" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>329</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>331</v>
       </c>
@@ -6231,7 +6238,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>248</v>
       </c>
@@ -6242,7 +6249,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>334</v>
       </c>
@@ -6253,7 +6260,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>311</v>
       </c>
@@ -6267,47 +6274,47 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>345</v>
       </c>
@@ -6315,7 +6322,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>347</v>
       </c>
@@ -6326,7 +6333,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>349</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>351</v>
       </c>
@@ -6351,7 +6358,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>251</v>
       </c>
@@ -6362,7 +6369,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1 16384:16384">
+    <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.2">
       <c r="A1048576" s="8" t="s">
         <v>237</v>
       </c>
@@ -6387,13 +6394,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>355</v>
       </c>
@@ -6410,7 +6417,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>359</v>
       </c>
@@ -6425,7 +6432,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>308</v>
       </c>
@@ -6442,7 +6449,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>365</v>
       </c>
@@ -6457,7 +6464,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>319</v>
       </c>
@@ -6472,7 +6479,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>261</v>
       </c>
@@ -6487,7 +6494,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>329</v>
       </c>
@@ -6502,7 +6509,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>248</v>
       </c>
@@ -6519,7 +6526,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>347</v>
       </c>
@@ -6532,7 +6539,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>378</v>
       </c>
@@ -6545,7 +6552,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>251</v>
       </c>
@@ -6560,7 +6567,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>331</v>
       </c>
@@ -6577,7 +6584,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="234">
+    <row r="13" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>344</v>
       </c>
@@ -6607,15 +6614,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>355</v>
       </c>
@@ -6635,7 +6642,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="46.8">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6649,7 +6656,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.2">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>359</v>
       </c>
@@ -6662,7 +6669,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="46.8">
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>308</v>
       </c>
@@ -6678,7 +6685,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.2">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>365</v>
       </c>
@@ -6691,7 +6698,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="46.8">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>319</v>
       </c>
@@ -6706,7 +6713,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="62.4">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>261</v>
       </c>
@@ -6721,7 +6728,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>329</v>
       </c>
@@ -6734,7 +6741,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="171.6">
+    <row r="9" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>248</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>347</v>
       </c>
@@ -6763,7 +6770,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="78">
+    <row r="11" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>378</v>
       </c>
@@ -6776,7 +6783,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="31.2">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>251</v>
       </c>
@@ -6791,7 +6798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="171.6">
+    <row r="13" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>331</v>
       </c>
@@ -6806,7 +6813,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="234">
+    <row r="14" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>344</v>
       </c>
@@ -6834,17 +6841,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.05" customHeight="1">
+    <row r="1" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>355</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6872,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.2">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -6885,7 +6892,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -6896,7 +6903,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="31.2">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>261</v>
       </c>
@@ -6909,7 +6916,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.8">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>248</v>
       </c>
@@ -6924,7 +6931,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.2">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>347</v>
       </c>
@@ -6937,7 +6944,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>251</v>
       </c>
@@ -6948,7 +6955,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>331</v>
       </c>
@@ -6961,7 +6968,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>344</v>
       </c>
@@ -6985,17 +6992,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.05" customHeight="1">
+    <row r="1" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>355</v>
       </c>
@@ -7015,7 +7022,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7023,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.2">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -7051,7 +7058,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>261</v>
       </c>
@@ -7065,7 +7072,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.8">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>248</v>
       </c>
@@ -7078,7 +7085,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>347</v>
       </c>
@@ -7092,7 +7099,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>251</v>
       </c>
@@ -7103,7 +7110,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="31.2">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>331</v>
       </c>
@@ -7119,7 +7126,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.2">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>344</v>
       </c>
@@ -7135,7 +7142,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>329</v>
       </c>
@@ -7146,7 +7153,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.2">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>410</v>
       </c>
@@ -7160,7 +7167,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>365</v>
       </c>
@@ -7184,9 +7191,9 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
@@ -7218,7 +7225,7 @@
         <v>42582</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.95" customHeight="1">
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="191"/>
       <c r="B2" s="176" t="s">
         <v>1</v>
@@ -7242,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="177" t="s">
         <v>8</v>
       </c>
@@ -7260,7 +7267,7 @@
       </c>
       <c r="H3" s="178"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="177" t="s">
         <v>10</v>
       </c>
@@ -7278,7 +7285,7 @@
       </c>
       <c r="H4" s="178"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="177" t="s">
         <v>13</v>
       </c>
@@ -7296,7 +7303,7 @@
       </c>
       <c r="H5" s="178"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="177" t="s">
         <v>15</v>
       </c>
@@ -7322,7 +7329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="177" t="s">
         <v>22</v>
       </c>
@@ -7346,7 +7353,7 @@
       </c>
       <c r="H7" s="178"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="177" t="s">
         <v>27</v>
       </c>
@@ -7358,7 +7365,7 @@
       <c r="G8" s="178"/>
       <c r="H8" s="178"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="177" t="s">
         <v>29</v>
       </c>
@@ -7382,7 +7389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="177" t="s">
         <v>33</v>
       </c>
@@ -7408,7 +7415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="177" t="s">
         <v>37</v>
       </c>
@@ -7428,7 +7435,7 @@
       <c r="G11" s="178"/>
       <c r="H11" s="178"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="177" t="s">
         <v>38</v>
       </c>
@@ -7446,7 +7453,7 @@
       <c r="G12" s="178"/>
       <c r="H12" s="178"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="177" t="s">
         <v>39</v>
       </c>
@@ -7464,7 +7471,7 @@
       <c r="G13" s="178"/>
       <c r="H13" s="178"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="177" t="s">
         <v>42</v>
       </c>
@@ -7484,7 +7491,7 @@
       <c r="G14" s="178"/>
       <c r="H14" s="178"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="177" t="s">
         <v>43</v>
       </c>
@@ -7496,7 +7503,7 @@
       <c r="G15" s="178"/>
       <c r="H15" s="178"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="177" t="s">
         <v>44</v>
       </c>
@@ -7518,7 +7525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
@@ -7527,18 +7534,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.95" customHeight="1">
+    <row r="1" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>45</v>
       </c>
@@ -7561,7 +7568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="174" t="s">
         <v>52</v>
       </c>
@@ -7587,7 +7594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1">
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="174" t="s">
         <v>53</v>
       </c>
@@ -7605,7 +7612,7 @@
       </c>
       <c r="H3" s="174"/>
     </row>
-    <row r="4" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="174" t="s">
         <v>13</v>
       </c>
@@ -7623,7 +7630,7 @@
       </c>
       <c r="H4" s="174"/>
     </row>
-    <row r="5" spans="1:8" ht="43.95" customHeight="1">
+    <row r="5" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="174" t="s">
         <v>15</v>
       </c>
@@ -7641,7 +7648,7 @@
       </c>
       <c r="H5" s="174"/>
     </row>
-    <row r="6" spans="1:8" ht="43.2" customHeight="1">
+    <row r="6" spans="1:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="174" t="s">
         <v>22</v>
       </c>
@@ -7659,7 +7666,7 @@
       </c>
       <c r="H6" s="174"/>
     </row>
-    <row r="7" spans="1:8" ht="40.950000000000003" customHeight="1">
+    <row r="7" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="174" t="s">
         <v>27</v>
       </c>
@@ -7685,7 +7692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="40.950000000000003" customHeight="1">
+    <row r="8" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="174" t="s">
         <v>29</v>
       </c>
@@ -7711,7 +7718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="174" t="s">
         <v>33</v>
       </c>
@@ -7737,7 +7744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="174" t="s">
         <v>37</v>
       </c>
@@ -7753,7 +7760,7 @@
       <c r="G10" s="174"/>
       <c r="H10" s="174"/>
     </row>
-    <row r="11" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="174" t="s">
         <v>38</v>
       </c>
@@ -7765,7 +7772,7 @@
       <c r="G11" s="174"/>
       <c r="H11" s="174"/>
     </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1">
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="174" t="s">
         <v>39</v>
       </c>
@@ -7777,7 +7784,7 @@
       <c r="G12" s="174"/>
       <c r="H12" s="174"/>
     </row>
-    <row r="13" spans="1:8" ht="36" customHeight="1">
+    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
         <v>42</v>
       </c>
@@ -7789,7 +7796,7 @@
       <c r="G13" s="174"/>
       <c r="H13" s="174"/>
     </row>
-    <row r="14" spans="1:8" ht="31.2" customHeight="1">
+    <row r="14" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="174" t="s">
         <v>43</v>
       </c>
@@ -7801,7 +7808,7 @@
       <c r="G14" s="174"/>
       <c r="H14" s="174"/>
     </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1">
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="174" t="s">
         <v>44</v>
       </c>
@@ -7821,7 +7828,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
@@ -7830,18 +7837,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.95" customHeight="1">
+    <row r="1" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>57</v>
       </c>
@@ -7864,7 +7871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="174" t="s">
         <v>52</v>
       </c>
@@ -7890,7 +7897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="174" t="s">
         <v>53</v>
       </c>
@@ -7908,7 +7915,7 @@
       </c>
       <c r="H3" s="174"/>
     </row>
-    <row r="4" spans="1:8" ht="28.95" customHeight="1">
+    <row r="4" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="174" t="s">
         <v>13</v>
       </c>
@@ -7926,7 +7933,7 @@
       </c>
       <c r="H4" s="174"/>
     </row>
-    <row r="5" spans="1:8" ht="28.95" customHeight="1">
+    <row r="5" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="174" t="s">
         <v>15</v>
       </c>
@@ -7944,7 +7951,7 @@
       </c>
       <c r="H5" s="174"/>
     </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1">
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="174" t="s">
         <v>22</v>
       </c>
@@ -7962,7 +7969,7 @@
       </c>
       <c r="H6" s="174"/>
     </row>
-    <row r="7" spans="1:8" ht="37.950000000000003" customHeight="1">
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="174" t="s">
         <v>27</v>
       </c>
@@ -7984,7 +7991,7 @@
       <c r="G7" s="174"/>
       <c r="H7" s="174"/>
     </row>
-    <row r="8" spans="1:8" ht="40.950000000000003" customHeight="1">
+    <row r="8" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="174" t="s">
         <v>29</v>
       </c>
@@ -8006,7 +8013,7 @@
       <c r="G8" s="174"/>
       <c r="H8" s="174"/>
     </row>
-    <row r="9" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="174" t="s">
         <v>33</v>
       </c>
@@ -8028,7 +8035,7 @@
       <c r="G9" s="174"/>
       <c r="H9" s="174"/>
     </row>
-    <row r="10" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="174" t="s">
         <v>37</v>
       </c>
@@ -8044,7 +8051,7 @@
       <c r="G10" s="174"/>
       <c r="H10" s="174"/>
     </row>
-    <row r="11" spans="1:8" ht="34.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="174" t="s">
         <v>38</v>
       </c>
@@ -8056,7 +8063,7 @@
       <c r="G11" s="174"/>
       <c r="H11" s="174"/>
     </row>
-    <row r="12" spans="1:8" ht="34.950000000000003" customHeight="1">
+    <row r="12" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="174" t="s">
         <v>39</v>
       </c>
@@ -8068,7 +8075,7 @@
       <c r="G12" s="174"/>
       <c r="H12" s="174"/>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1">
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
         <v>42</v>
       </c>
@@ -8080,7 +8087,7 @@
       <c r="G13" s="174"/>
       <c r="H13" s="174"/>
     </row>
-    <row r="14" spans="1:8" ht="36" customHeight="1">
+    <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="174" t="s">
         <v>43</v>
       </c>
@@ -8092,7 +8099,7 @@
       <c r="G14" s="174"/>
       <c r="H14" s="174"/>
     </row>
-    <row r="15" spans="1:8" ht="34.950000000000003" customHeight="1">
+    <row r="15" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="174" t="s">
         <v>44</v>
       </c>
@@ -8112,7 +8119,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
@@ -8121,18 +8128,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="28.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.95" customHeight="1">
+    <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>64</v>
       </c>
@@ -8155,7 +8162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.95" customHeight="1">
+    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="174" t="s">
         <v>52</v>
       </c>
@@ -8181,7 +8188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.95" customHeight="1">
+    <row r="3" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="174" t="s">
         <v>53</v>
       </c>
@@ -8199,7 +8206,7 @@
       </c>
       <c r="H3" s="174"/>
     </row>
-    <row r="4" spans="1:8" ht="28.95" customHeight="1">
+    <row r="4" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="174" t="s">
         <v>13</v>
       </c>
@@ -8217,7 +8224,7 @@
       </c>
       <c r="H4" s="174"/>
     </row>
-    <row r="5" spans="1:8" ht="28.95" customHeight="1">
+    <row r="5" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="174" t="s">
         <v>15</v>
       </c>
@@ -8235,7 +8242,7 @@
       </c>
       <c r="H5" s="174"/>
     </row>
-    <row r="6" spans="1:8" ht="28.95" customHeight="1">
+    <row r="6" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="174" t="s">
         <v>22</v>
       </c>
@@ -8253,7 +8260,7 @@
       </c>
       <c r="H6" s="174"/>
     </row>
-    <row r="7" spans="1:8" ht="28.95" customHeight="1">
+    <row r="7" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="174" t="s">
         <v>27</v>
       </c>
@@ -8265,7 +8272,7 @@
       <c r="G7" s="174"/>
       <c r="H7" s="174"/>
     </row>
-    <row r="8" spans="1:8" ht="28.95" customHeight="1">
+    <row r="8" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="174" t="s">
         <v>29</v>
       </c>
@@ -8277,7 +8284,7 @@
       <c r="G8" s="174"/>
       <c r="H8" s="174"/>
     </row>
-    <row r="9" spans="1:8" ht="28.95" customHeight="1">
+    <row r="9" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="174" t="s">
         <v>33</v>
       </c>
@@ -8293,7 +8300,7 @@
       <c r="G9" s="174"/>
       <c r="H9" s="174"/>
     </row>
-    <row r="10" spans="1:8" ht="28.95" customHeight="1">
+    <row r="10" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="174" t="s">
         <v>37</v>
       </c>
@@ -8309,7 +8316,7 @@
       <c r="G10" s="174"/>
       <c r="H10" s="174"/>
     </row>
-    <row r="11" spans="1:8" ht="28.95" customHeight="1">
+    <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="174" t="s">
         <v>38</v>
       </c>
@@ -8321,7 +8328,7 @@
       <c r="G11" s="174"/>
       <c r="H11" s="174"/>
     </row>
-    <row r="12" spans="1:8" ht="28.95" customHeight="1">
+    <row r="12" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="174" t="s">
         <v>39</v>
       </c>
@@ -8333,7 +8340,7 @@
       <c r="G12" s="174"/>
       <c r="H12" s="174"/>
     </row>
-    <row r="13" spans="1:8" ht="28.95" customHeight="1">
+    <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="174" t="s">
         <v>42</v>
       </c>
@@ -8345,7 +8352,7 @@
       <c r="G13" s="174"/>
       <c r="H13" s="174"/>
     </row>
-    <row r="14" spans="1:8" ht="28.95" customHeight="1">
+    <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="174" t="s">
         <v>43</v>
       </c>
@@ -8357,7 +8364,7 @@
       <c r="G14" s="174"/>
       <c r="H14" s="174"/>
     </row>
-    <row r="15" spans="1:8" ht="28.95" customHeight="1">
+    <row r="15" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="174" t="s">
         <v>44</v>
       </c>
@@ -8377,7 +8384,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
@@ -8386,18 +8393,18 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.95" customHeight="1">
+    <row r="1" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="160" t="s">
         <v>71</v>
       </c>
@@ -8429,7 +8436,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:14" ht="31.95" customHeight="1">
+    <row r="2" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134" t="s">
         <v>79</v>
       </c>
@@ -8461,23 +8468,23 @@
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="31.95" customHeight="1">
+    <row r="3" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="210" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="204" t="s">
+      <c r="D3" s="218" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="204" t="s">
+      <c r="F3" s="218" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="152" t="s">
@@ -8491,20 +8498,20 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="31.95" customHeight="1">
+    <row r="4" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="200" t="s">
+      <c r="B4" s="211"/>
+      <c r="C4" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="205"/>
-      <c r="E4" s="200" t="s">
+      <c r="D4" s="219"/>
+      <c r="E4" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="205"/>
-      <c r="G4" s="200" t="s">
+      <c r="F4" s="219"/>
+      <c r="G4" s="214" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="161"/>
@@ -8517,22 +8524,22 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="31.95" customHeight="1">
+    <row r="5" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="136" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="201"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="201"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="201"/>
+      <c r="G5" s="215"/>
       <c r="H5" s="161"/>
       <c r="I5" s="158"/>
       <c r="J5" s="159" t="s">
@@ -8543,26 +8550,26 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="31.95" customHeight="1">
+    <row r="6" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="202" t="s">
+      <c r="E6" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="198" t="s">
+      <c r="F6" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="202" t="s">
+      <c r="G6" s="216" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="162"/>
@@ -8575,16 +8582,16 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="31.95" customHeight="1">
+    <row r="7" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="203"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="217"/>
       <c r="H7" s="161"/>
       <c r="I7" s="158"/>
       <c r="J7" s="159" t="s">
@@ -8595,19 +8602,19 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="31.95" customHeight="1">
+    <row r="8" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="199"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="198"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="198"/>
+      <c r="F8" s="212"/>
       <c r="G8" s="163" t="s">
         <v>85</v>
       </c>
@@ -8621,7 +8628,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="31.95" customHeight="1">
+    <row r="9" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="136" t="s">
         <v>29</v>
       </c>
@@ -8653,18 +8660,18 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="31.95" customHeight="1">
+    <row r="10" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="220" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="208"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
       <c r="H10" s="161"/>
       <c r="I10" s="158"/>
       <c r="J10" s="159" t="s">
@@ -8675,16 +8682,16 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="31.95" customHeight="1">
+    <row r="11" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="222"/>
       <c r="H11" s="158"/>
       <c r="I11" s="170"/>
       <c r="J11" s="171" t="s">
@@ -8695,16 +8702,16 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="31.95" customHeight="1">
+    <row r="12" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="209"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="211"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="225"/>
       <c r="H12" s="158"/>
       <c r="I12" s="170"/>
       <c r="J12" s="172" t="s">
@@ -8715,19 +8722,19 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="31.95" customHeight="1">
+    <row r="13" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="212" t="s">
+      <c r="B13" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215" t="s">
+      <c r="C13" s="193"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="216"/>
+      <c r="F13" s="196"/>
       <c r="G13" s="165" t="s">
         <v>93</v>
       </c>
@@ -8741,16 +8748,16 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="31.95" customHeight="1">
+    <row r="14" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="219"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="199"/>
       <c r="F14" s="166" t="s">
         <v>41</v>
       </c>
@@ -8766,18 +8773,18 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="31.95" customHeight="1">
+    <row r="15" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="222"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -8785,18 +8792,18 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="31.95" customHeight="1">
+    <row r="16" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="225"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="205"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -8804,37 +8811,37 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:12" ht="31.95" customHeight="1">
+    <row r="17" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="193"/>
+      <c r="C17" s="207"/>
       <c r="D17" s="168" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="194" t="s">
+      <c r="F17" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="194"/>
+      <c r="G17" s="208"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
     </row>
-    <row r="18" spans="1:12" ht="31.95" customHeight="1">
+    <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="195"/>
+      <c r="C18" s="209"/>
       <c r="D18" s="157" t="s">
         <v>102</v>
       </c>
@@ -8850,11 +8857,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B18:C18"/>
@@ -8871,6 +8873,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B10:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="11" scale="52" orientation="landscape"/>
@@ -8879,7 +8886,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N20"/>
@@ -8888,18 +8895,18 @@
       <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.95" customHeight="1">
+    <row r="1" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
         <v>71</v>
       </c>
@@ -8925,7 +8932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134" t="s">
         <v>112</v>
       </c>
@@ -8951,229 +8958,229 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.95" customHeight="1">
+    <row r="3" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="210" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="196" t="s">
+      <c r="D3" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="247" t="s">
+      <c r="E3" s="252" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
       <c r="L3" s="158"/>
       <c r="M3" s="158"/>
       <c r="N3" s="158"/>
     </row>
-    <row r="4" spans="1:14" ht="25.95" customHeight="1">
+    <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="236" t="s">
+      <c r="B4" s="211"/>
+      <c r="C4" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="197"/>
-      <c r="E4" s="238" t="s">
+      <c r="D4" s="211"/>
+      <c r="E4" s="243" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
       <c r="L4" s="158"/>
       <c r="M4" s="159" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="158"/>
     </row>
-    <row r="5" spans="1:14" ht="31.95" customHeight="1">
+    <row r="5" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="136" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="237"/>
+      <c r="C5" s="242"/>
       <c r="D5" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
       <c r="L5" s="158"/>
       <c r="M5" s="159" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="158"/>
     </row>
-    <row r="6" spans="1:14" ht="39" customHeight="1">
+    <row r="6" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
       <c r="L6" s="158"/>
       <c r="M6" s="159" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="158"/>
     </row>
-    <row r="7" spans="1:14" ht="39" customHeight="1">
+    <row r="7" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
       <c r="L7" s="158"/>
       <c r="M7" s="159" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="158"/>
     </row>
-    <row r="8" spans="1:14" ht="40.950000000000003" customHeight="1">
+    <row r="8" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
       <c r="L8" s="158"/>
       <c r="M8" s="159" t="s">
         <v>28</v>
       </c>
       <c r="N8" s="158"/>
     </row>
-    <row r="9" spans="1:14" ht="31.2" customHeight="1">
+    <row r="9" spans="1:14" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
       <c r="L9" s="158"/>
       <c r="M9" s="159" t="s">
         <v>32</v>
       </c>
       <c r="N9" s="158"/>
     </row>
-    <row r="10" spans="1:14" ht="42.6" customHeight="1">
+    <row r="10" spans="1:14" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="209"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="243"/>
+      <c r="H10" s="243"/>
       <c r="L10" s="158"/>
       <c r="M10" s="159" t="s">
         <v>88</v>
       </c>
       <c r="N10" s="158"/>
     </row>
-    <row r="11" spans="1:14" ht="42" customHeight="1">
+    <row r="11" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
       <c r="L11" s="158"/>
       <c r="M11" s="158" t="s">
         <v>124</v>
       </c>
       <c r="N11" s="158"/>
     </row>
-    <row r="12" spans="1:14" ht="45" customHeight="1">
+    <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="249" t="s">
+      <c r="B12" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="250"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="243"/>
+      <c r="H12" s="243"/>
       <c r="L12" s="158"/>
       <c r="M12" s="158" t="s">
         <v>126</v>
       </c>
       <c r="N12" s="158"/>
     </row>
-    <row r="13" spans="1:14" ht="46.2" customHeight="1">
+    <row r="13" spans="1:14" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="252" t="s">
+      <c r="B13" s="226" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="254"/>
-    </row>
-    <row r="14" spans="1:14" ht="47.4" customHeight="1">
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="228"/>
+    </row>
+    <row r="14" spans="1:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="255"/>
-      <c r="D14" s="255"/>
-      <c r="E14" s="256" t="s">
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="256"/>
+      <c r="F14" s="230"/>
       <c r="G14" s="153" t="s">
         <v>23</v>
       </c>
@@ -9181,15 +9188,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45.6" customHeight="1">
+    <row r="15" spans="1:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="226" t="s">
+      <c r="B15" s="231" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="227"/>
-      <c r="D15" s="228"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
       <c r="E15" s="155" t="s">
         <v>131</v>
       </c>
@@ -9203,51 +9210,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="46.2" customHeight="1">
+    <row r="16" spans="1:14" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="241" t="s">
+      <c r="B16" s="246" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="229" t="s">
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="229"/>
-      <c r="G16" s="229"/>
-      <c r="H16" s="229"/>
-    </row>
-    <row r="17" spans="1:8" ht="46.2" customHeight="1">
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+    </row>
+    <row r="17" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="243"/>
-      <c r="C17" s="244"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="230" t="s">
+      <c r="B17" s="248"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="235" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="231"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="232"/>
-    </row>
-    <row r="18" spans="1:8" ht="47.4" customHeight="1">
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="237"/>
+    </row>
+    <row r="18" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="245"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="233" t="s">
+      <c r="B18" s="250"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="235"/>
-    </row>
-    <row r="19" spans="1:8" ht="47.4" customHeight="1">
+      <c r="F18" s="239"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="240"/>
+    </row>
+    <row r="19" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="148" t="s">
         <v>97</v>
       </c>
@@ -9259,7 +9266,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" ht="46.95" customHeight="1">
+    <row r="20" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="149" t="s">
         <v>100</v>
       </c>
@@ -9273,11 +9280,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="B3:B4"/>
@@ -9292,6 +9294,11 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E16:H16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="11" scale="49" orientation="landscape"/>
@@ -9306,19 +9313,18 @@
       <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="4" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
-    <col min="9" max="9" width="20.59765625" customWidth="1"/>
-    <col min="10" max="11" width="20.69921875" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="11" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.95" customHeight="1">
+    <row r="1" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
         <v>71</v>
       </c>
@@ -9353,7 +9359,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="134" t="s">
         <v>112</v>
       </c>
@@ -9388,87 +9394,87 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.95" customHeight="1">
+    <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="278" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="284" t="s">
         <v>154</v>
       </c>
       <c r="D3" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="260" t="s">
+      <c r="E3" s="285" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="261"/>
+      <c r="F3" s="286"/>
       <c r="G3" s="139"/>
-      <c r="H3" s="297" t="s">
+      <c r="H3" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="297"/>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-    </row>
-    <row r="4" spans="1:11" ht="25.95" customHeight="1">
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+    </row>
+    <row r="4" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="268" t="s">
+      <c r="B4" s="279"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="293" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="262"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="268" t="s">
+      <c r="E4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="293" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="268"/>
-      <c r="I4" s="268"/>
-      <c r="J4" s="268"/>
-      <c r="K4" s="306" t="s">
+      <c r="H4" s="293"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="293"/>
+      <c r="K4" s="266" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.95" customHeight="1">
+    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="274"/>
-      <c r="C5" s="277"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="259"/>
-      <c r="H5" s="259"/>
-      <c r="I5" s="259"/>
-      <c r="J5" s="259"/>
-      <c r="K5" s="307"/>
-    </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1">
+      <c r="B5" s="279"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="267"/>
+    </row>
+    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="136" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="277"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="298" t="s">
+      <c r="C6" s="284"/>
+      <c r="D6" s="274"/>
+      <c r="E6" s="258" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="299"/>
-      <c r="G6" s="259"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="259"/>
-      <c r="J6" s="259"/>
-      <c r="K6" s="307"/>
-    </row>
-    <row r="7" spans="1:11" ht="39" customHeight="1">
+      <c r="F6" s="259"/>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="267"/>
+    </row>
+    <row r="7" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="136" t="s">
         <v>157</v>
       </c>
@@ -9476,18 +9482,18 @@
         <v>16</v>
       </c>
       <c r="C7" s="102"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="300" t="s">
+      <c r="D7" s="274"/>
+      <c r="E7" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="301"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="259"/>
-      <c r="K7" s="307"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.950000000000003" customHeight="1">
+      <c r="F7" s="261"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="274"/>
+      <c r="J7" s="274"/>
+      <c r="K7" s="267"/>
+    </row>
+    <row r="8" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="136" t="s">
         <v>118</v>
       </c>
@@ -9495,18 +9501,18 @@
         <v>31</v>
       </c>
       <c r="C8" s="102"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="302" t="s">
+      <c r="D8" s="274"/>
+      <c r="E8" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="303"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="307"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.2" customHeight="1">
+      <c r="F8" s="263"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="274"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="267"/>
+    </row>
+    <row r="9" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="136" t="s">
         <v>119</v>
       </c>
@@ -9514,18 +9520,18 @@
         <v>135</v>
       </c>
       <c r="C9" s="102"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="304" t="s">
+      <c r="D9" s="274"/>
+      <c r="E9" s="264" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="305"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="259"/>
-      <c r="K9" s="307"/>
-    </row>
-    <row r="10" spans="1:11" ht="42.6" customHeight="1">
+      <c r="F9" s="265"/>
+      <c r="G9" s="274"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="267"/>
+    </row>
+    <row r="10" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="136" t="s">
         <v>120</v>
       </c>
@@ -9533,54 +9539,54 @@
         <v>86</v>
       </c>
       <c r="C10" s="102"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="290" t="s">
+      <c r="D10" s="274"/>
+      <c r="E10" s="307" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="291"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="259"/>
-      <c r="K10" s="307"/>
-    </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1">
+      <c r="F10" s="308"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="274"/>
+      <c r="J10" s="274"/>
+      <c r="K10" s="267"/>
+    </row>
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="275" t="s">
+      <c r="B11" s="280" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="102"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="266" t="s">
+      <c r="D11" s="274"/>
+      <c r="E11" s="291" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="266"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="308"/>
-    </row>
-    <row r="12" spans="1:11" ht="45" customHeight="1">
+      <c r="F11" s="291"/>
+      <c r="G11" s="274"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="274"/>
+      <c r="J11" s="274"/>
+      <c r="K11" s="268"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="276"/>
+      <c r="B12" s="281"/>
       <c r="C12" s="143"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="267"/>
-      <c r="F12" s="267"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="259"/>
+      <c r="D12" s="274"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="274"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="274"/>
+      <c r="J12" s="274"/>
       <c r="K12" s="137" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="46.2" customHeight="1">
+    <row r="13" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="142" t="s">
         <v>160</v>
       </c>
@@ -9588,20 +9594,20 @@
         <v>135</v>
       </c>
       <c r="C13" s="102"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="292" t="s">
+      <c r="D13" s="297"/>
+      <c r="E13" s="269" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="272"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
+      <c r="F13" s="270"/>
+      <c r="G13" s="274"/>
+      <c r="H13" s="274"/>
+      <c r="I13" s="274"/>
+      <c r="J13" s="274"/>
       <c r="K13" s="105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="47.4" customHeight="1">
+    <row r="14" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="136" t="s">
         <v>161</v>
       </c>
@@ -9614,21 +9620,21 @@
       <c r="D14" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="293" t="s">
+      <c r="E14" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="283"/>
-      <c r="G14" s="281" t="s">
+      <c r="F14" s="272"/>
+      <c r="G14" s="273" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="259"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="259"/>
+      <c r="H14" s="274"/>
+      <c r="I14" s="274"/>
+      <c r="J14" s="274"/>
       <c r="K14" s="102" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45.6" customHeight="1">
+    <row r="15" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="136" t="s">
         <v>125</v>
       </c>
@@ -9638,22 +9644,22 @@
       <c r="C15" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="294" t="s">
+      <c r="D15" s="275" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="295" t="s">
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="276" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="296"/>
-      <c r="I15" s="296"/>
-      <c r="J15" s="296"/>
+      <c r="H15" s="277"/>
+      <c r="I15" s="277"/>
+      <c r="J15" s="277"/>
       <c r="K15" s="146" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="46.2" customHeight="1">
+    <row r="16" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="136" t="s">
         <v>127</v>
       </c>
@@ -9666,21 +9672,21 @@
       <c r="D16" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="298" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="281" t="s">
+      <c r="F16" s="299"/>
+      <c r="G16" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="259"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="259"/>
+      <c r="H16" s="274"/>
+      <c r="I16" s="274"/>
+      <c r="J16" s="274"/>
       <c r="K16" s="108" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="46.2" customHeight="1">
+    <row r="17" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="136" t="s">
         <v>128</v>
       </c>
@@ -9690,22 +9696,22 @@
       <c r="C17" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="282" t="s">
+      <c r="D17" s="300" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="282"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="284" t="s">
+      <c r="E17" s="300"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="301" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="285"/>
-      <c r="I17" s="285"/>
-      <c r="J17" s="285"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
       <c r="K17" s="145" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="47.4" customHeight="1">
+    <row r="18" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="136" t="s">
         <v>130</v>
       </c>
@@ -9715,22 +9721,22 @@
       <c r="C18" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="286" t="s">
+      <c r="D18" s="303" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="286"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="287" t="s">
+      <c r="E18" s="303"/>
+      <c r="F18" s="303"/>
+      <c r="G18" s="304" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="289"/>
+      <c r="H18" s="305"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="306"/>
       <c r="K18" s="141" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="47.4" customHeight="1">
+    <row r="19" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="136" t="s">
         <v>132</v>
       </c>
@@ -9740,67 +9746,67 @@
       <c r="C19" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="270" t="s">
+      <c r="D19" s="295" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="272" t="s">
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="270" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="272"/>
-      <c r="I19" s="272"/>
-      <c r="J19" s="272"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
       <c r="K19" s="147" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="46.95" customHeight="1">
+    <row r="20" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="257" t="s">
+      <c r="B20" s="282" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="259" t="s">
+      <c r="C20" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="269" t="s">
+      <c r="D20" s="294" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="269"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="259" t="s">
+      <c r="E20" s="294"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="259"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="259"/>
-      <c r="K20" s="257" t="s">
+      <c r="H20" s="274"/>
+      <c r="I20" s="274"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="282" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="46.95" customHeight="1">
+    <row r="21" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="259"/>
-      <c r="H21" s="259"/>
-      <c r="I21" s="259"/>
-      <c r="J21" s="259"/>
-      <c r="K21" s="258"/>
-    </row>
-    <row r="22" spans="1:11" ht="46.95" customHeight="1">
+      <c r="B21" s="283"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="274"/>
+      <c r="H21" s="274"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="283"/>
+    </row>
+    <row r="22" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="148" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="46.95" customHeight="1">
+    <row r="23" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="149" t="s">
         <v>100</v>
       </c>
@@ -9817,22 +9823,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="G20:J21"/>
     <mergeCell ref="E3:F5"/>
@@ -9849,6 +9839,22 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K4:K11"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9858,24 +9864,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.296875" style="94" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" style="94" customWidth="1"/>
-    <col min="3" max="4" width="20.69921875" style="94" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="94" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="94" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="94" customWidth="1"/>
     <col min="5" max="5" width="20" style="94" customWidth="1"/>
     <col min="6" max="7" width="19" style="94" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" style="94" customWidth="1"/>
-    <col min="9" max="9" width="20.59765625" style="94" customWidth="1"/>
-    <col min="10" max="11" width="20.69921875" style="94" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="94" customWidth="1"/>
+    <col min="9" max="11" width="20.6640625" style="94" customWidth="1"/>
     <col min="12" max="16384" width="11" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.95" customHeight="1">
+    <row r="1" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
         <v>71</v>
       </c>
@@ -9906,7 +9911,7 @@
       <c r="J1" s="117"/>
       <c r="K1" s="117"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="97" t="s">
         <v>112</v>
       </c>
@@ -9931,7 +9936,7 @@
       <c r="J2" s="98"/>
       <c r="K2" s="98"/>
     </row>
-    <row r="3" spans="1:11" ht="28.95" customHeight="1">
+    <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="99" t="s">
         <v>113</v>
       </c>
@@ -9948,14 +9953,14 @@
       <c r="J3" s="118"/>
       <c r="K3" s="118"/>
     </row>
-    <row r="4" spans="1:11" ht="25.95" customHeight="1">
+    <row r="4" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="99" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="310"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
       <c r="F4" s="312"/>
       <c r="G4" s="309"/>
       <c r="H4" s="309"/>
@@ -9963,14 +9968,14 @@
       <c r="J4" s="119"/>
       <c r="K4" s="120"/>
     </row>
-    <row r="5" spans="1:11" ht="31.95" customHeight="1">
+    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="99" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="310"/>
-      <c r="C5" s="277"/>
-      <c r="D5" s="277"/>
-      <c r="E5" s="277"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
       <c r="F5" s="312"/>
       <c r="G5" s="309"/>
       <c r="H5" s="309"/>
@@ -9978,14 +9983,14 @@
       <c r="J5" s="112"/>
       <c r="K5" s="121"/>
     </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1">
+    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="99" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="310"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
       <c r="F6" s="312"/>
       <c r="G6" s="309"/>
       <c r="H6" s="309"/>
@@ -9993,14 +9998,14 @@
       <c r="J6" s="112"/>
       <c r="K6" s="121"/>
     </row>
-    <row r="7" spans="1:11" ht="39" customHeight="1">
+    <row r="7" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="99" t="s">
         <v>157</v>
       </c>
       <c r="B7" s="310"/>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
       <c r="F7" s="312"/>
       <c r="G7" s="309"/>
       <c r="H7" s="309"/>
@@ -10008,14 +10013,14 @@
       <c r="J7" s="112"/>
       <c r="K7" s="121"/>
     </row>
-    <row r="8" spans="1:11" ht="40.950000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="99" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="310"/>
-      <c r="C8" s="277"/>
-      <c r="D8" s="277"/>
-      <c r="E8" s="277"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
       <c r="F8" s="312"/>
       <c r="G8" s="309"/>
       <c r="H8" s="309"/>
@@ -10023,14 +10028,14 @@
       <c r="J8" s="112"/>
       <c r="K8" s="121"/>
     </row>
-    <row r="9" spans="1:11" ht="31.2" customHeight="1">
+    <row r="9" spans="1:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="310"/>
-      <c r="C9" s="277"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="277"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="284"/>
       <c r="F9" s="312"/>
       <c r="G9" s="309"/>
       <c r="H9" s="309"/>
@@ -10038,14 +10043,14 @@
       <c r="J9" s="112"/>
       <c r="K9" s="121"/>
     </row>
-    <row r="10" spans="1:11" ht="42.6" customHeight="1">
+    <row r="10" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="310"/>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
       <c r="F10" s="312"/>
       <c r="G10" s="309"/>
       <c r="H10" s="309"/>
@@ -10053,14 +10058,14 @@
       <c r="J10" s="112"/>
       <c r="K10" s="121"/>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1">
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="100" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="310"/>
-      <c r="C11" s="277"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="277"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
       <c r="F11" s="312"/>
       <c r="G11" s="309"/>
       <c r="H11" s="309"/>
@@ -10068,14 +10073,14 @@
       <c r="J11" s="112"/>
       <c r="K11" s="122"/>
     </row>
-    <row r="12" spans="1:11" ht="45" customHeight="1">
+    <row r="12" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="100" t="s">
         <v>159</v>
       </c>
       <c r="B12" s="310"/>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="277"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
       <c r="F12" s="312"/>
       <c r="G12" s="309"/>
       <c r="H12" s="309"/>
@@ -10083,39 +10088,39 @@
       <c r="J12" s="112"/>
       <c r="K12" s="123"/>
     </row>
-    <row r="13" spans="1:11" ht="46.2" customHeight="1">
+    <row r="13" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="100" t="s">
         <v>160</v>
       </c>
       <c r="B13" s="313"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="306"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
       <c r="F13" s="314"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
-      <c r="I13" s="268"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
       <c r="J13" s="112"/>
       <c r="K13" s="106"/>
     </row>
-    <row r="14" spans="1:11" ht="47.4" customHeight="1">
+    <row r="14" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="307" t="s">
+      <c r="B14" s="267" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="307"/>
-      <c r="D14" s="307"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="281"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="273"/>
       <c r="G14" s="103"/>
       <c r="H14" s="103"/>
       <c r="I14" s="103"/>
       <c r="J14" s="112"/>
       <c r="K14" s="103"/>
     </row>
-    <row r="15" spans="1:11" ht="45.6" customHeight="1">
+    <row r="15" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
         <v>176</v>
       </c>
@@ -10132,24 +10137,24 @@
       <c r="J15" s="124"/>
       <c r="K15" s="125"/>
     </row>
-    <row r="16" spans="1:11" ht="46.2" customHeight="1">
+    <row r="16" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="294" t="s">
+      <c r="B16" s="275" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="294"/>
-      <c r="D16" s="294"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="294"/>
+      <c r="C16" s="275"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="275"/>
       <c r="G16" s="106"/>
       <c r="H16" s="106"/>
       <c r="I16" s="106"/>
       <c r="J16" s="112"/>
       <c r="K16" s="109"/>
     </row>
-    <row r="17" spans="1:11" ht="46.2" customHeight="1">
+    <row r="17" spans="1:11" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="101" t="s">
         <v>178</v>
       </c>
@@ -10166,7 +10171,7 @@
       <c r="J17" s="126"/>
       <c r="K17" s="104"/>
     </row>
-    <row r="18" spans="1:11" ht="47.4" customHeight="1">
+    <row r="18" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="101" t="s">
         <v>180</v>
       </c>
@@ -10183,7 +10188,7 @@
       <c r="J18" s="127"/>
       <c r="K18" s="128"/>
     </row>
-    <row r="19" spans="1:11" ht="47.4" customHeight="1">
+    <row r="19" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="101" t="s">
         <v>132</v>
       </c>
@@ -10208,24 +10213,24 @@
       <c r="J19" s="129"/>
       <c r="K19" s="130"/>
     </row>
-    <row r="20" spans="1:11" ht="46.95" customHeight="1">
+    <row r="20" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="257" t="s">
+      <c r="B20" s="282" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="257"/>
-      <c r="D20" s="257"/>
-      <c r="E20" s="257"/>
-      <c r="F20" s="257"/>
+      <c r="C20" s="282"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="282"/>
+      <c r="F20" s="282"/>
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
       <c r="I20" s="110"/>
       <c r="J20" s="112"/>
       <c r="K20" s="110"/>
     </row>
-    <row r="21" spans="1:11" ht="46.95" customHeight="1">
+    <row r="21" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
         <v>136</v>
       </c>
@@ -10240,12 +10245,12 @@
       <c r="J21" s="112"/>
       <c r="K21" s="111"/>
     </row>
-    <row r="22" spans="1:11" ht="46.95" customHeight="1">
+    <row r="22" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="114" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="46.95" customHeight="1">
+    <row r="23" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="115" t="s">
         <v>100</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="22" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="19" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="7-25" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,16 @@
     <sheet name="18 06 03" sheetId="36" r:id="rId25"/>
     <sheet name="18 06 11" sheetId="37" r:id="rId26"/>
     <sheet name="18 06 16" sheetId="38" r:id="rId27"/>
-    <sheet name="weekday plan for the week17-18" sheetId="11" r:id="rId28"/>
-    <sheet name="no school weekday plan17-18" sheetId="39" r:id="rId29"/>
-    <sheet name="Sheet7" sheetId="14" r:id="rId30"/>
-    <sheet name="weekend17-18" sheetId="12" r:id="rId31"/>
-    <sheet name="tasks" sheetId="13" r:id="rId32"/>
-    <sheet name="Sheet14" sheetId="33" state="hidden" r:id="rId33"/>
-    <sheet name="Reading" sheetId="27" r:id="rId34"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId35"/>
-    <sheet name="new plan" sheetId="44" r:id="rId36"/>
+    <sheet name="18 08 19" sheetId="45" r:id="rId28"/>
+    <sheet name="weekday plan for the week17-18" sheetId="11" r:id="rId29"/>
+    <sheet name="no school weekday plan17-18" sheetId="39" r:id="rId30"/>
+    <sheet name="Sheet7" sheetId="14" r:id="rId31"/>
+    <sheet name="weekend17-18" sheetId="12" r:id="rId32"/>
+    <sheet name="tasks" sheetId="13" r:id="rId33"/>
+    <sheet name="Sheet14" sheetId="33" state="hidden" r:id="rId34"/>
+    <sheet name="Reading" sheetId="27" r:id="rId35"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId36"/>
+    <sheet name="new plan" sheetId="44" r:id="rId37"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="561">
   <si>
     <t xml:space="preserve">         Date
          Day
@@ -1182,9 +1183,6 @@
     <t>pydev</t>
   </si>
   <si>
-    <t>finish at least the whole reconnecting the docts and do 3 quizes on both websites</t>
-  </si>
-  <si>
     <t>code improved</t>
   </si>
   <si>
@@ -1243,18 +1241,12 @@
     <t>I ran more faster!</t>
   </si>
   <si>
-    <t>luogu.com questions</t>
-  </si>
-  <si>
     <t>fiji</t>
   </si>
   <si>
     <t>finish at least 2 stories of o'henry + read persuave anyone anywhere</t>
   </si>
   <si>
-    <t>finish at least 1 more chapter</t>
-  </si>
-  <si>
     <t>fiji+new book C++</t>
   </si>
   <si>
@@ -1267,9 +1259,6 @@
     <t>taegeuk 2 jang ready!</t>
   </si>
   <si>
-    <t>master taegeuk 2 jang moves</t>
-  </si>
-  <si>
     <t>Free Time</t>
   </si>
   <si>
@@ -1285,9 +1274,6 @@
     <t>how to read a book+math book or 1 to infinity+1 book from 1 collection+stormbreaker</t>
   </si>
   <si>
-    <t>algorithms(pdf)+gaming       (c++)</t>
-  </si>
-  <si>
     <t>add sensors to clawbot</t>
   </si>
   <si>
@@ -1406,9 +1392,6 @@
   </si>
   <si>
     <t>don't review for a week</t>
-  </si>
-  <si>
-    <t>higher roundhouse kick</t>
   </si>
   <si>
     <t>SHARE</t>
@@ -1617,9 +1600,6 @@
     <t>do it more regularly,also make neat clothes.Don't pile up unused stuff on desk.Close windows when possible.</t>
   </si>
   <si>
-    <t>航模</t>
-  </si>
-  <si>
     <t>(24号结）</t>
   </si>
   <si>
@@ -1638,9 +1618,6 @@
     <t>🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹🎹</t>
   </si>
   <si>
-    <t>二，四，六 13:00-16:00 科体楼115室</t>
-  </si>
-  <si>
     <t>finish Learncpp</t>
   </si>
   <si>
@@ -1663,9 +1640,6 @@
   </si>
   <si>
     <t>直播课</t>
-  </si>
-  <si>
-    <t>编程（确认都学会了）</t>
   </si>
   <si>
     <t>VEX</t>
@@ -1704,12 +1678,152 @@
     </rPh>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>XES</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>五，</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>收拾+B1:J12</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>acheivement</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>completeness</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>goals</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoughts</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>workout</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>beestar(chinese writing)</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese handwriting</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIANOS!(SMASH)</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>programming (book)</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>the teacher said that the egg hand is better because you will use your nails to play instead of the fingers</t>
+  </si>
+  <si>
+    <t>get a medal for science</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">COMMENT IN THE COMMENT SECTION USING </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (Body)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RED!</t>
+    </r>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 6</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular push-ups!</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>get out of comfort zone every time</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>though I said get out of comfort zone,I wasn't in comfort zone everyday</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>XES尖子班DONE!</t>
+    <rPh sb="3" eb="4">
+      <t>jian'zi'b</t>
+    </rPh>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBIN HOOD NEAR DONE!</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>I forgot to include this in my previous reviews.I do a page every day on one 字帖</t>
+    <rPh sb="77" eb="78">
+      <t>zi'tie</t>
+    </rPh>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>czerney 599 almost done!</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>next on list</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>piano 2:it's probably the charger of gqbb that's not working.mom already bought a new one,it just didn't arrive.Yet.</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1722,6 +1836,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1729,6 +1844,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1736,6 +1852,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1744,6 +1861,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1751,6 +1869,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1759,6 +1878,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1766,6 +1886,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1774,6 +1895,7 @@
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1782,6 +1904,7 @@
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1790,6 +1913,7 @@
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1798,6 +1922,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1948,6 +2073,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1956,6 +2082,7 @@
       <sz val="16"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1964,6 +2091,7 @@
       <sz val="16"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1972,6 +2100,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1979,6 +2108,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1986,6 +2116,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1993,6 +2124,7 @@
       <sz val="16"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2000,6 +2132,7 @@
       <sz val="16"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2008,6 +2141,7 @@
       <sz val="16"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2015,6 +2149,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2022,6 +2157,7 @@
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2029,6 +2165,7 @@
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2036,6 +2173,7 @@
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2043,6 +2181,7 @@
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2051,6 +2190,7 @@
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2058,6 +2198,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2065,6 +2206,7 @@
       <sz val="12"/>
       <color theme="3" tint="0.79982909634693444"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2074,6 +2216,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2083,6 +2226,7 @@
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2090,6 +2234,7 @@
       <sz val="12"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2097,6 +2242,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2105,6 +2251,7 @@
       <i/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2113,6 +2260,7 @@
       <i/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2120,6 +2268,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2128,6 +2277,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2135,6 +2285,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2249,6 +2400,21 @@
       <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (Body)"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3730,7 +3896,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="468">
+  <cellXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5077,6 +5243,9 @@
     <xf numFmtId="0" fontId="72" fillId="10" borderId="92" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5113,6 +5282,22 @@
     <xf numFmtId="0" fontId="75" fillId="11" borderId="103" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Accent4" xfId="19" builtinId="42"/>
@@ -5909,7 +6094,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6055,7 +6240,9 @@
       <c r="D9" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -6066,9 +6253,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>366</v>
-      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -6099,7 +6284,7 @@
         <v>370</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="225" x14ac:dyDescent="0.15">
@@ -6107,16 +6292,16 @@
         <v>331</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6131,7 +6316,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6140,6 +6325,7 @@
     <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="474"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.15">
@@ -6158,8 +6344,8 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" t="s">
-        <v>375</v>
+      <c r="F1" s="474" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.15">
@@ -6170,10 +6356,10 @@
         <v>0.8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.15">
@@ -6185,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -6199,10 +6385,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="474" t="s">
         <v>379</v>
-      </c>
-      <c r="F4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
@@ -6214,7 +6400,7 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -6230,7 +6416,7 @@
         <v>355</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.15">
@@ -6261,7 +6447,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="150" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>248</v>
       </c>
@@ -6273,7 +6459,7 @@
         <v>362</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>383</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -6286,8 +6472,8 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>384</v>
+      <c r="F10" s="474" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.15">
@@ -6295,7 +6481,7 @@
         <v>365</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -6303,7 +6489,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>250</v>
       </c>
@@ -6314,9 +6500,7 @@
       <c r="D12" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="180" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
@@ -6330,7 +6514,7 @@
         <v>370</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="225" x14ac:dyDescent="0.15">
@@ -6342,10 +6526,10 @@
         <v>0.99</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6357,10 +6541,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6370,7 +6554,8 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -6389,8 +6574,8 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -6403,10 +6588,10 @@
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -6435,7 +6620,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.15">
@@ -6450,7 +6635,7 @@
         <v>362</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.15">
@@ -6458,7 +6643,7 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -6477,7 +6662,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -6487,7 +6672,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>391</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -6500,6 +6685,9 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="62" type="noConversion"/>
@@ -6513,7 +6701,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6523,7 +6711,8 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -6542,8 +6731,8 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -6556,7 +6745,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4">
@@ -6564,8 +6753,8 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>392</v>
+      <c r="F3" s="473" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -6578,8 +6767,8 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>392</v>
+      <c r="F4" s="473" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -6592,8 +6781,8 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
-        <v>392</v>
+      <c r="F5" s="473" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.15">
@@ -6606,7 +6795,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -6619,8 +6808,8 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="1" t="s">
-        <v>392</v>
+      <c r="F7" s="473" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -6634,7 +6823,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -6644,13 +6833,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+        <v>560</v>
+      </c>
+      <c r="F9" s="473" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>331</v>
       </c>
@@ -6659,11 +6848,9 @@
         <v>0</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>392</v>
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -6673,22 +6860,22 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>392</v>
+      <c r="F11" s="473" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>399</v>
+      <c r="E12" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -6698,8 +6885,8 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>392</v>
+      <c r="F13" s="473" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6714,7 +6901,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6724,7 +6911,8 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -6743,8 +6931,8 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -6757,7 +6945,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4">
@@ -6775,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -6802,7 +6990,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -6827,7 +7015,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -6837,10 +7025,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>331</v>
       </c>
@@ -6849,33 +7037,34 @@
         <v>0.9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>406</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -6886,7 +7075,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6901,7 +7090,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6911,7 +7100,8 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6 16384:16384" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -6930,8 +7120,8 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -6945,15 +7135,15 @@
         <v>0.9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:6 16384:16384" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4">
@@ -6972,7 +7162,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:6 16384:16384" x14ac:dyDescent="0.15">
@@ -6996,7 +7186,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:6 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7008,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -7021,11 +7211,11 @@
         <v>0.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6 16384:16384" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -7035,7 +7225,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:6 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -7043,37 +7233,38 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0.9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6 16384:16384" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:6 16384:16384" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:6 16384:16384" x14ac:dyDescent="0.15">
@@ -7084,7 +7275,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.15">
@@ -7104,7 +7295,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7114,7 +7305,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -7135,11 +7326,11 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -7153,15 +7344,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:7 16384:16384" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -7178,10 +7369,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:7 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7194,7 +7385,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:7 16384:16384" ht="75" x14ac:dyDescent="0.15">
@@ -7202,16 +7393,16 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:7 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7223,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -7236,11 +7427,11 @@
         <v>0.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7 16384:16384" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -7252,7 +7443,7 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:7 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -7260,17 +7451,15 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0.9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>428</v>
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:7 16384:16384" x14ac:dyDescent="0.15">
@@ -7278,22 +7467,25 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:7 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>431</v>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="473" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:7 16384:16384" x14ac:dyDescent="0.15">
@@ -7307,7 +7499,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -7330,7 +7522,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7340,7 +7532,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -7361,11 +7553,11 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -7379,15 +7571,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:10 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C3" s="4">
         <v>0.8</v>
@@ -7404,13 +7596,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7423,7 +7615,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:10 16384:16384" ht="75" x14ac:dyDescent="0.15">
@@ -7431,16 +7623,16 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7452,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -7465,11 +7657,11 @@
         <v>0.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -7481,7 +7673,7 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:10 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -7489,17 +7681,15 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0.9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>428</v>
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:10 16384:16384" x14ac:dyDescent="0.15">
@@ -7507,22 +7697,25 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:10 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>431</v>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="473" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:10 16384:16384" x14ac:dyDescent="0.15">
@@ -7536,7 +7729,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -7559,7 +7752,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7569,7 +7762,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -7590,14 +7783,14 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -7611,18 +7804,18 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:10 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -7630,7 +7823,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7642,13 +7835,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7661,10 +7854,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:10 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -7672,19 +7865,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7696,11 +7889,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E7" s="2"/>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7712,14 +7905,14 @@
         <v>0.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -7731,10 +7924,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:10 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -7742,20 +7935,18 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0.9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:10 16384:16384" x14ac:dyDescent="0.15">
@@ -7763,28 +7954,31 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:10 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>431</v>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="473" t="s">
+        <v>426</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:10 16384:16384" x14ac:dyDescent="0.15">
@@ -7798,7 +7992,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -7821,7 +8015,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7831,7 +8025,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -7852,17 +8046,17 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -7876,18 +8070,18 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:12 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -7895,7 +8089,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:12 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7907,13 +8101,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:12 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7926,10 +8120,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:12 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -7937,19 +8131,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:12 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7961,11 +8155,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E7" s="2"/>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:12 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -7977,14 +8171,14 @@
         <v>0.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -7996,10 +8190,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:12 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -8007,20 +8201,18 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0.9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:12 16384:16384" x14ac:dyDescent="0.15">
@@ -8028,28 +8220,31 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:12 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>431</v>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="473" t="s">
+        <v>426</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:12 16384:16384" x14ac:dyDescent="0.15">
@@ -8063,7 +8258,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -8428,7 +8623,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8438,7 +8633,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -8459,17 +8654,17 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -8483,28 +8678,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:15 16384:16384" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C3" s="4">
         <v>0.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -8516,13 +8711,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -8535,10 +8730,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:15 16384:16384" ht="75" x14ac:dyDescent="0.15">
@@ -8546,19 +8741,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C6" s="4">
         <v>0.2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:15 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -8566,20 +8761,20 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E7" s="2"/>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -8591,14 +8786,14 @@
         <v>0.7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -8610,10 +8805,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -8621,20 +8816,18 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -8642,30 +8835,30 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -8679,7 +8872,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -8701,7 +8894,9 @@
   <sheetPr codeName="Sheet27" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8710,7 +8905,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -8731,17 +8926,17 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -8755,28 +8950,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:15 16384:16384" ht="75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C3" s="4">
         <v>0.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -8788,13 +8983,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:15 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -8807,13 +9002,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
+      </c>
+      <c r="F5" s="473" t="s">
+        <v>446</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:15 16384:16384" ht="75" x14ac:dyDescent="0.15">
@@ -8821,19 +9016,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4">
         <v>0.95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:15 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -8841,22 +9036,22 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C7" s="4">
         <v>0.4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -8868,14 +9063,14 @@
         <v>0.7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -8887,10 +9082,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -8898,20 +9093,18 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -8919,30 +9112,30 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -8956,7 +9149,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -8979,7 +9172,9 @@
   <sheetPr codeName="Sheet28" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8988,7 +9183,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -9009,20 +9204,20 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -9036,28 +9231,28 @@
         <v>0.7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:15 16384:16384" ht="75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -9069,13 +9264,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:15 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -9088,13 +9283,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>452</v>
       </c>
+      <c r="F5" s="473" t="s">
+        <v>446</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:15 16384:16384" ht="75" x14ac:dyDescent="0.15">
@@ -9102,19 +9297,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4">
         <v>0.95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:15 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -9122,22 +9317,22 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C7" s="4">
         <v>0.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -9149,14 +9344,14 @@
         <v>0.7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -9168,10 +9363,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -9179,20 +9374,18 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -9200,33 +9393,33 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -9240,7 +9433,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -9264,7 +9457,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9274,7 +9467,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -9295,20 +9488,20 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -9322,30 +9515,30 @@
         <v>0.9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -9357,13 +9550,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:15 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -9376,13 +9569,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
+      </c>
+      <c r="F5" s="473" t="s">
+        <v>446</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:15 16384:16384" ht="75" x14ac:dyDescent="0.15">
@@ -9390,19 +9583,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4">
         <v>0.95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:15 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -9410,22 +9603,22 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C7" s="4">
         <v>0.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -9437,14 +9630,14 @@
         <v>0.8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -9456,10 +9649,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -9467,20 +9660,18 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C10" s="4">
         <v>0.2</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="473" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:15 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -9488,33 +9679,33 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:15 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:15 16384:16384" x14ac:dyDescent="0.15">
@@ -9528,7 +9719,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -9552,7 +9743,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9562,7 +9753,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
@@ -9585,35 +9776,35 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="204" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M1" s="204" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N1" s="204" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O1" s="204" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P1" s="204" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="Q1" s="204" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R1" s="204" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -9627,33 +9818,33 @@
         <v>0.9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -9665,13 +9856,13 @@
         <v>0.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -9683,13 +9874,13 @@
         <v>0.9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:18 16384:16384" ht="75" x14ac:dyDescent="0.15">
@@ -9697,19 +9888,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4">
         <v>0.9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:18 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -9717,22 +9908,22 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -9744,16 +9935,16 @@
         <v>0.7</v>
       </c>
       <c r="D8" s="204" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E8" s="205" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -9765,10 +9956,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -9776,19 +9967,17 @@
         <v>331</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C10" s="4">
         <v>0.2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -9796,36 +9985,36 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>0.95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
+        <v>474</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -9836,10 +10025,10 @@
         <v>0.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -9862,7 +10051,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9872,7 +10061,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
     <col min="8" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
@@ -9895,35 +10084,35 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="204" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M1" s="204" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N1" s="204" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O1" s="204" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P1" s="204" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q1" s="204" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R1" s="204" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -9937,33 +10126,33 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C3" s="3">
         <v>0.95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:18 16384:16384" ht="90" x14ac:dyDescent="0.15">
@@ -9975,13 +10164,13 @@
         <v>0.9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -9993,13 +10182,13 @@
         <v>0.85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:18 16384:16384" ht="90" x14ac:dyDescent="0.15">
@@ -10007,19 +10196,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:18 16384:16384" ht="132" customHeight="1" x14ac:dyDescent="0.15">
@@ -10027,22 +10216,22 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -10054,16 +10243,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -10075,10 +10264,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -10090,13 +10279,11 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -10104,36 +10291,36 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
+        <v>474</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -10144,7 +10331,7 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -10166,8 +10353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="87" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="87" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10177,7 +10364,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
     <col min="8" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
@@ -10192,7 +10379,7 @@
         <v>343</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>345</v>
@@ -10200,35 +10387,35 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L1" s="204" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M1" s="204" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N1" s="204" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O1" s="204" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P1" s="204" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q1" s="204" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R1" s="204" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -10242,30 +10429,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:18 16384:16384" ht="120" x14ac:dyDescent="0.15">
@@ -10277,13 +10464,13 @@
         <v>0.9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -10295,13 +10482,13 @@
         <v>0.85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:18 16384:16384" ht="90" x14ac:dyDescent="0.15">
@@ -10309,19 +10496,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4">
         <v>0.9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:18 16384:16384" ht="132" customHeight="1" x14ac:dyDescent="0.15">
@@ -10329,22 +10516,22 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C7" s="4">
         <v>0.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -10356,16 +10543,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -10377,10 +10564,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -10392,13 +10579,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="J10" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:18 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -10406,36 +10591,36 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:18 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
+        <v>495</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:18 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -10446,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -10468,8 +10653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10479,7 +10664,7 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="8.83203125" style="473"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
     <col min="8" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
@@ -10494,7 +10679,7 @@
         <v>343</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>345</v>
@@ -10502,44 +10687,44 @@
       <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
+      <c r="F1" s="473" t="s">
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L1" s="204" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M1" s="204" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N1" s="204" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O1" s="204" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P1" s="204" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q1" s="204" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R1" s="204" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="S1" s="209" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="T1" s="210" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="XFD1" s="1" t="s">
         <v>237</v>
@@ -10553,30 +10738,30 @@
         <v>0.99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:20 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:20 16384:16384" ht="120" x14ac:dyDescent="0.15">
@@ -10588,13 +10773,13 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:20 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -10606,13 +10791,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:20 16384:16384" ht="90" x14ac:dyDescent="0.15">
@@ -10620,19 +10805,19 @@
         <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:20 16384:16384" ht="132" customHeight="1" x14ac:dyDescent="0.15">
@@ -10640,22 +10825,22 @@
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C7" s="4">
         <v>0.95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:20 16384:16384" ht="45" x14ac:dyDescent="0.15">
@@ -10667,16 +10852,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20 16384:16384" ht="30" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20 16384:16384" ht="105" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>319</v>
       </c>
@@ -10688,10 +10873,10 @@
         <v>370</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>560</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:20 16384:16384" ht="30" x14ac:dyDescent="0.15">
@@ -10703,13 +10888,11 @@
         <v>0.95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:20 16384:16384" ht="60" x14ac:dyDescent="0.15">
@@ -10717,36 +10900,36 @@
         <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:20 16384:16384" ht="120" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
+        <v>507</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:20 16384:16384" ht="105" x14ac:dyDescent="0.15">
@@ -10757,7 +10940,7 @@
         <v>0.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1048576" spans="1:1 16384:16384" x14ac:dyDescent="0.15">
@@ -10776,6 +10959,150 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16" style="469" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="469" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="470" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="469"/>
+    <col min="5" max="5" width="32.33203125" style="469" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="472"/>
+    <col min="7" max="16384" width="10.83203125" style="469"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="469" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="469" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" s="470" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1" s="469" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" s="469" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="472" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="469" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="471">
+        <v>1</v>
+      </c>
+      <c r="D2" s="469" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A3" s="469" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" s="469" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" s="471">
+        <v>1</v>
+      </c>
+      <c r="D3" s="469" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" s="469" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="469" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="469" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="469" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="469" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" s="471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="469" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="471">
+        <v>1</v>
+      </c>
+      <c r="E6" s="469" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A7" s="469" t="s">
+        <v>546</v>
+      </c>
+      <c r="B7" s="469" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="471">
+        <v>1</v>
+      </c>
+      <c r="D7" s="469" t="s">
+        <v>559</v>
+      </c>
+      <c r="E7" s="469" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="469" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="471">
+        <v>1</v>
+      </c>
+      <c r="D8" s="469" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="E9" s="469" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="E12" s="469" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="62" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:XFD1048576"/>
@@ -10870,7 +11197,7 @@
       <c r="E6" s="206"/>
       <c r="F6" s="206"/>
       <c r="G6" s="32" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J6" s="32"/>
     </row>
@@ -10912,7 +11239,7 @@
       <c r="E9" s="206"/>
       <c r="F9" s="206"/>
       <c r="G9" s="32" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J9" s="32"/>
     </row>
@@ -10926,7 +11253,7 @@
       <c r="E10" s="206"/>
       <c r="F10" s="206"/>
       <c r="G10" s="32" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:10 16381:16384" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11030,308 +11357,6 @@
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA1048576"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" style="206" customWidth="1"/>
-    <col min="2" max="2" width="25" style="206" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="206" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="206" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="206" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="206" customWidth="1"/>
-    <col min="7" max="9" width="11" style="32"/>
-    <col min="10" max="16384" width="11" style="206"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10 16381:16381" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="365" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="18">
-        <f>H1</f>
-        <v>43241</v>
-      </c>
-      <c r="C1" s="18">
-        <f>B1+1</f>
-        <v>43242</v>
-      </c>
-      <c r="D1" s="18">
-        <f>C1+1</f>
-        <v>43243</v>
-      </c>
-      <c r="E1" s="18">
-        <f>D1+1</f>
-        <v>43244</v>
-      </c>
-      <c r="F1" s="18">
-        <f>E1+1</f>
-        <v>43245</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="20">
-        <v>43241</v>
-      </c>
-      <c r="I1" s="206"/>
-      <c r="XFA1" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10 16381:16381" ht="35.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="366"/>
-      <c r="B2" s="21">
-        <f>WEEKDAY(B1,11)</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
-        <f>WEEKDAY(C1,11)</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="21">
-        <f>WEEKDAY(D1,11)</f>
-        <v>3</v>
-      </c>
-      <c r="E2" s="21">
-        <f>WEEKDAY(E1,11)</f>
-        <v>4</v>
-      </c>
-      <c r="F2" s="21">
-        <f>WEEKDAY(F1,11)</f>
-        <v>5</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10 16381:16381" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="367" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="373" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="374"/>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10 16381:16381" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="368"/>
-      <c r="B4" s="375"/>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="376"/>
-      <c r="G4" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10 16381:16381" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="369" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="377" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="378"/>
-      <c r="D5" s="378"/>
-      <c r="E5" s="378"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10 16381:16381" ht="37.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="370"/>
-      <c r="B6" s="377"/>
-      <c r="C6" s="378"/>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:10 16381:16381" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198" t="s">
-        <v>483</v>
-      </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="379" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:10 16381:16381" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="200" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="379"/>
-      <c r="G8" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10 16381:16381" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="380" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="189" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="202" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="379"/>
-      <c r="G9" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:10 16381:16381" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="380"/>
-      <c r="C10" s="381" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="381"/>
-      <c r="E10" s="381"/>
-      <c r="F10" s="381"/>
-      <c r="G10" s="32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10 16381:16381" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="380"/>
-      <c r="C11" s="382" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="383" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="383"/>
-      <c r="F11" s="383"/>
-    </row>
-    <row r="12" spans="1:10 16381:16381" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="380"/>
-      <c r="C12" s="382"/>
-      <c r="D12" s="383"/>
-      <c r="E12" s="383"/>
-      <c r="F12" s="383"/>
-    </row>
-    <row r="13" spans="1:10 16381:16381" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="380"/>
-      <c r="C13" s="382"/>
-      <c r="D13" s="384"/>
-      <c r="E13" s="384"/>
-      <c r="F13" s="384"/>
-    </row>
-    <row r="14" spans="1:10 16381:16381" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="192" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="371" t="s">
-        <v>484</v>
-      </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-    </row>
-    <row r="15" spans="1:10 16381:16381" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="187" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="194" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="372"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="196"/>
-    </row>
-    <row r="1048569" spans="1:1 16381:16381" s="206" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1048569" s="24"/>
-      <c r="XFA1048569" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1 16381:16381" s="206" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1048576" s="206" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:F13"/>
-  </mergeCells>
-  <phoneticPr fontId="62" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11641,6 +11666,308 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFA1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="206" customWidth="1"/>
+    <col min="2" max="2" width="25" style="206" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="206" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="206" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="206" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="206" customWidth="1"/>
+    <col min="7" max="9" width="11" style="32"/>
+    <col min="10" max="16384" width="11" style="206"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10 16381:16381" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="365" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="18">
+        <f>H1</f>
+        <v>43241</v>
+      </c>
+      <c r="C1" s="18">
+        <f>B1+1</f>
+        <v>43242</v>
+      </c>
+      <c r="D1" s="18">
+        <f>C1+1</f>
+        <v>43243</v>
+      </c>
+      <c r="E1" s="18">
+        <f>D1+1</f>
+        <v>43244</v>
+      </c>
+      <c r="F1" s="18">
+        <f>E1+1</f>
+        <v>43245</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="20">
+        <v>43241</v>
+      </c>
+      <c r="I1" s="206"/>
+      <c r="XFA1" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10 16381:16381" ht="35.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="366"/>
+      <c r="B2" s="21">
+        <f>WEEKDAY(B1,11)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <f>WEEKDAY(C1,11)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="21">
+        <f>WEEKDAY(D1,11)</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="21">
+        <f>WEEKDAY(E1,11)</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="21">
+        <f>WEEKDAY(F1,11)</f>
+        <v>5</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10 16381:16381" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="367" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="373" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10 16381:16381" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="368"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
+      <c r="E4" s="376"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10 16381:16381" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="369" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="377" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="378"/>
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="378"/>
+      <c r="G5" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10 16381:16381" ht="37.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="370"/>
+      <c r="B6" s="377"/>
+      <c r="C6" s="378"/>
+      <c r="D6" s="378"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10 16381:16381" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="198"/>
+      <c r="F7" s="379" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10 16381:16381" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="379"/>
+      <c r="G8" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10 16381:16381" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="380" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="189" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="202" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="202"/>
+      <c r="F9" s="379"/>
+      <c r="G9" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10 16381:16381" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="380"/>
+      <c r="C10" s="381" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="381"/>
+      <c r="E10" s="381"/>
+      <c r="F10" s="381"/>
+      <c r="G10" s="32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10 16381:16381" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="380"/>
+      <c r="C11" s="382" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="383" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="383"/>
+      <c r="F11" s="383"/>
+    </row>
+    <row r="12" spans="1:10 16381:16381" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="380"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="383"/>
+      <c r="F12" s="383"/>
+    </row>
+    <row r="13" spans="1:10 16381:16381" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="380"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="384"/>
+      <c r="E13" s="384"/>
+      <c r="F13" s="384"/>
+    </row>
+    <row r="14" spans="1:10 16381:16381" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="192" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="193"/>
+      <c r="D14" s="371" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+    </row>
+    <row r="15" spans="1:10 16381:16381" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="187" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="194" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="195"/>
+      <c r="D15" s="372"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="196"/>
+    </row>
+    <row r="1048569" spans="1:1 16381:16381" s="206" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1048569" s="24"/>
+      <c r="XFA1048569" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1 16381:16381" s="206" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1048576" s="206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="62" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -11684,7 +12011,7 @@
         <v>269</v>
       </c>
       <c r="B4" s="388" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -11732,7 +12059,7 @@
         <v>275</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -11771,7 +12098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:XFB1048576"/>
@@ -11842,7 +12169,7 @@
         <v>277</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E3" s="24"/>
     </row>
@@ -11933,7 +12260,7 @@
         <v>264</v>
       </c>
       <c r="C13" s="402" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:6 16378:16382" ht="37.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11972,7 +12299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:XFD1048575"/>
@@ -12136,7 +12463,7 @@
     </row>
     <row r="10" spans="1:16 16384:16384" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8" t="s">
@@ -12219,7 +12546,7 @@
         <v>319</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>297</v>
@@ -12364,7 +12691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
@@ -12383,7 +12710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
@@ -12397,7 +12724,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="90" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -12407,7 +12734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -12849,12 +13176,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12878,36 +13205,36 @@
       </c>
       <c r="B1" s="211">
         <f>K1</f>
-        <v>43274</v>
+        <v>43325</v>
       </c>
       <c r="C1" s="211">
         <f t="shared" ref="C1:H1" si="0">B1+1</f>
-        <v>43275</v>
+        <v>43326</v>
       </c>
       <c r="D1" s="211">
         <f t="shared" si="0"/>
-        <v>43276</v>
+        <v>43327</v>
       </c>
       <c r="E1" s="211">
         <f t="shared" si="0"/>
-        <v>43277</v>
+        <v>43328</v>
       </c>
       <c r="F1" s="211">
         <f t="shared" si="0"/>
-        <v>43278</v>
+        <v>43329</v>
       </c>
       <c r="G1" s="212">
         <f t="shared" si="0"/>
-        <v>43279</v>
+        <v>43330</v>
       </c>
       <c r="H1" s="213">
         <f t="shared" si="0"/>
-        <v>43280</v>
+        <v>43331</v>
       </c>
       <c r="I1" s="214"/>
       <c r="J1" s="215"/>
       <c r="K1" s="216">
-        <v>43274</v>
+        <v>43325</v>
       </c>
       <c r="XFD1" s="217" t="s">
         <v>237</v>
@@ -12948,7 +13275,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="439" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C3" s="440"/>
       <c r="D3" s="440"/>
@@ -12961,7 +13288,7 @@
       <c r="K3" s="220"/>
       <c r="L3" s="220"/>
       <c r="M3" s="220" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="N3" s="220"/>
     </row>
@@ -12983,7 +13310,7 @@
       <c r="K4" s="220"/>
       <c r="L4" s="220"/>
       <c r="M4" s="220" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="N4" s="220"/>
     </row>
@@ -13002,12 +13329,12 @@
       <c r="H5" s="444"/>
       <c r="I5" s="220"/>
       <c r="J5" s="220" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K5" s="220"/>
       <c r="L5" s="220"/>
       <c r="M5" s="220" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="N5" s="220"/>
     </row>
@@ -13015,14 +13342,14 @@
       <c r="A6" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="465" t="s">
-        <v>539</v>
-      </c>
-      <c r="C6" s="466"/>
-      <c r="D6" s="466"/>
-      <c r="E6" s="466"/>
-      <c r="F6" s="466"/>
-      <c r="G6" s="467"/>
+      <c r="B6" s="466" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="467"/>
+      <c r="D6" s="467"/>
+      <c r="E6" s="467"/>
+      <c r="F6" s="467"/>
+      <c r="G6" s="468"/>
       <c r="H6" s="222" t="s">
         <v>135</v>
       </c>
@@ -13064,22 +13391,20 @@
       <c r="B8" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="458" t="s">
-        <v>515</v>
-      </c>
-      <c r="D8" s="462" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="463"/>
-      <c r="F8" s="463"/>
-      <c r="G8" s="463"/>
-      <c r="H8" s="464"/>
+      <c r="C8" s="459"/>
+      <c r="D8" s="463" t="s">
+        <v>531</v>
+      </c>
+      <c r="E8" s="464"/>
+      <c r="F8" s="464"/>
+      <c r="G8" s="464"/>
+      <c r="H8" s="465"/>
       <c r="I8" s="220"/>
       <c r="J8" s="220"/>
       <c r="K8" s="220"/>
       <c r="L8" s="220"/>
       <c r="M8" s="220" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="N8" s="220"/>
     </row>
@@ -13088,11 +13413,11 @@
         <v>29</v>
       </c>
       <c r="B9" s="224" t="s">
-        <v>518</v>
-      </c>
-      <c r="C9" s="458"/>
+        <v>511</v>
+      </c>
+      <c r="C9" s="459"/>
       <c r="D9" s="451" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E9" s="451"/>
       <c r="F9" s="451"/>
@@ -13100,7 +13425,7 @@
       <c r="H9" s="452"/>
       <c r="I9" s="220"/>
       <c r="J9" s="225" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="K9" s="220"/>
       <c r="L9" s="220"/>
@@ -13112,11 +13437,11 @@
         <v>33</v>
       </c>
       <c r="B10" s="226" t="s">
-        <v>533</v>
-      </c>
-      <c r="C10" s="458"/>
+        <v>524</v>
+      </c>
+      <c r="C10" s="459"/>
       <c r="D10" s="453" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E10" s="454"/>
       <c r="F10" s="454"/>
@@ -13125,7 +13450,7 @@
       <c r="I10" s="220"/>
       <c r="J10" s="220"/>
       <c r="K10" s="220" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
@@ -13136,18 +13461,18 @@
         <v>37</v>
       </c>
       <c r="B11" s="227" t="s">
-        <v>519</v>
-      </c>
-      <c r="C11" s="458"/>
+        <v>512</v>
+      </c>
+      <c r="C11" s="459"/>
       <c r="D11" s="456" t="s">
-        <v>531</v>
-      </c>
-      <c r="E11" s="456"/>
-      <c r="F11" s="456"/>
-      <c r="G11" s="456"/>
-      <c r="H11" s="457"/>
+        <v>534</v>
+      </c>
+      <c r="E11" s="457"/>
+      <c r="F11" s="457"/>
+      <c r="G11" s="457"/>
+      <c r="H11" s="458"/>
       <c r="I11" s="228" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="J11" s="220"/>
       <c r="K11" s="220"/>
@@ -13162,16 +13487,16 @@
       <c r="B12" s="229" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="458"/>
-      <c r="D12" s="459" t="s">
+      <c r="C12" s="459"/>
+      <c r="D12" s="460" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="460"/>
-      <c r="F12" s="460"/>
-      <c r="G12" s="460"/>
-      <c r="H12" s="461"/>
+      <c r="E12" s="461"/>
+      <c r="F12" s="461"/>
+      <c r="G12" s="461"/>
+      <c r="H12" s="462"/>
       <c r="I12" s="228" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="J12" s="220"/>
       <c r="K12" s="220"/>
@@ -13184,7 +13509,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="428" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C13" s="429"/>
       <c r="D13" s="429"/>
@@ -13204,7 +13529,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="448" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C14" s="449"/>
       <c r="D14" s="449"/>
@@ -13215,7 +13540,7 @@
       <c r="I14" s="220"/>
       <c r="J14" s="220"/>
       <c r="K14" s="220" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="L14" s="220"/>
       <c r="M14" s="220"/>
@@ -13226,7 +13551,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="431" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C15" s="432"/>
       <c r="D15" s="432"/>
@@ -13236,7 +13561,7 @@
       <c r="H15" s="433"/>
       <c r="I15" s="220"/>
       <c r="J15" s="220" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="K15" s="220"/>
       <c r="L15" s="220"/>
@@ -13248,7 +13573,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="434" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C16" s="435"/>
       <c r="D16" s="435"/>
